--- a/Recipe_Database_Corrected.xlsx
+++ b/Recipe_Database_Corrected.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taiyenwu/Downloads/Savor in the bay/App/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taiyenwu/Downloads/Savor in the bay/github/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E80DF996-2E85-F748-9CB5-E741A33C8D0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB755331-7D9F-904A-9053-4AAD3F9DF519}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="500" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="97">
   <si>
     <t>RecipeID</t>
   </si>
@@ -304,10 +304,16 @@
     <t>蛋黃</t>
   </si>
   <si>
-    <t>https://i.imgur.com/stmhmzB.jpeg</t>
-  </si>
-  <si>
-    <t>https://i.imgur.com/ZvUrtqh.jpeg</t>
+    <t>https://i.imgur.com/QXCoWk0.jpeg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/BqFfyM1.jpeg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/TIM3nkd.jpeg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/myWJXK6.jpeg</t>
   </si>
 </sst>
 </file>
@@ -691,10 +697,13 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="8" max="8" width="28.83203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -770,6 +779,9 @@
       <c r="G3">
         <v>20</v>
       </c>
+      <c r="H3" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -793,6 +805,9 @@
       <c r="G4">
         <v>65</v>
       </c>
+      <c r="H4" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -821,9 +836,6 @@
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="H2" r:id="rId1" xr:uid="{C4BBADF8-E080-844E-9A9F-D71CB6EADD21}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/Recipe_Database_Corrected.xlsx
+++ b/Recipe_Database_Corrected.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taiyenwu/Downloads/Savor in the bay/github/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB755331-7D9F-904A-9053-4AAD3F9DF519}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28F627DD-C9A3-8D4B-B948-E84EBB7153B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="500" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="26600" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Recipes" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="125">
   <si>
     <t>RecipeID</t>
   </si>
@@ -314,6 +314,90 @@
   </si>
   <si>
     <t>https://i.imgur.com/myWJXK6.jpeg</t>
+  </si>
+  <si>
+    <t>R005</t>
+  </si>
+  <si>
+    <t>Korean Fried Chicken</t>
+  </si>
+  <si>
+    <t>韓式炸雞</t>
+  </si>
+  <si>
+    <t>5 ea</t>
+  </si>
+  <si>
+    <t>200C/400F</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/TvxBgLp.jpeg</t>
+  </si>
+  <si>
+    <t>C008</t>
+  </si>
+  <si>
+    <t>C009</t>
+  </si>
+  <si>
+    <t>Sauce</t>
+  </si>
+  <si>
+    <t>醬料</t>
+  </si>
+  <si>
+    <t>Chicken thigh</t>
+  </si>
+  <si>
+    <t>黑胡椒</t>
+  </si>
+  <si>
+    <t>Black pepper</t>
+  </si>
+  <si>
+    <t>Baking powder</t>
+  </si>
+  <si>
+    <t>白胡椒</t>
+  </si>
+  <si>
+    <t>White pepper</t>
+  </si>
+  <si>
+    <t>蜂蜜</t>
+  </si>
+  <si>
+    <t>Honey</t>
+  </si>
+  <si>
+    <t>韓式辣醬</t>
+  </si>
+  <si>
+    <t>Gochujang</t>
+  </si>
+  <si>
+    <t>番茄醬</t>
+  </si>
+  <si>
+    <t>Ketchup</t>
+  </si>
+  <si>
+    <t>雞腿</t>
+  </si>
+  <si>
+    <t>Garlic</t>
+  </si>
+  <si>
+    <t>spoon</t>
+  </si>
+  <si>
+    <t>Green Oion</t>
+  </si>
+  <si>
+    <t>White sesame</t>
+  </si>
+  <si>
+    <t>白芝麻</t>
   </si>
 </sst>
 </file>
@@ -694,14 +778,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="2" max="2" width="17.1640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="28.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -835,16 +920,47 @@
         <v>94</v>
       </c>
     </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>97</v>
+      </c>
+      <c r="B6" t="s">
+        <v>98</v>
+      </c>
+      <c r="C6" t="s">
+        <v>99</v>
+      </c>
+      <c r="D6" t="s">
+        <v>100</v>
+      </c>
+      <c r="E6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" t="s">
+        <v>101</v>
+      </c>
+      <c r="G6">
+        <v>50</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H6" r:id="rId1" xr:uid="{0392B9BB-D452-5A4D-85B5-D70D33110A22}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -958,6 +1074,34 @@
       </c>
       <c r="D8" t="s">
         <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>103</v>
+      </c>
+      <c r="B9" t="s">
+        <v>97</v>
+      </c>
+      <c r="C9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>104</v>
+      </c>
+      <c r="B10" t="s">
+        <v>97</v>
+      </c>
+      <c r="C10" t="s">
+        <v>105</v>
+      </c>
+      <c r="D10" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -967,11 +1111,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:F38"/>
+  <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="H51" sqref="H51"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="13.83203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -1730,6 +1879,246 @@
         <v>71</v>
       </c>
       <c r="F38" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>97</v>
+      </c>
+      <c r="B39" t="s">
+        <v>103</v>
+      </c>
+      <c r="C39" t="s">
+        <v>107</v>
+      </c>
+      <c r="D39">
+        <v>4</v>
+      </c>
+      <c r="E39" t="s">
+        <v>72</v>
+      </c>
+      <c r="F39" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>97</v>
+      </c>
+      <c r="B40" t="s">
+        <v>103</v>
+      </c>
+      <c r="C40" t="s">
+        <v>109</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40" t="s">
+        <v>71</v>
+      </c>
+      <c r="F40" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>97</v>
+      </c>
+      <c r="B41" t="s">
+        <v>103</v>
+      </c>
+      <c r="C41" t="s">
+        <v>110</v>
+      </c>
+      <c r="D41">
+        <v>10</v>
+      </c>
+      <c r="E41" t="s">
+        <v>71</v>
+      </c>
+      <c r="F41" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>97</v>
+      </c>
+      <c r="B42" t="s">
+        <v>103</v>
+      </c>
+      <c r="C42" t="s">
+        <v>112</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="E42" t="s">
+        <v>71</v>
+      </c>
+      <c r="F42" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>97</v>
+      </c>
+      <c r="B43" t="s">
+        <v>103</v>
+      </c>
+      <c r="C43" t="s">
+        <v>56</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="E43" t="s">
+        <v>71</v>
+      </c>
+      <c r="F43" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>97</v>
+      </c>
+      <c r="B44" t="s">
+        <v>104</v>
+      </c>
+      <c r="C44" t="s">
+        <v>120</v>
+      </c>
+      <c r="D44">
+        <v>3</v>
+      </c>
+      <c r="E44" t="s">
+        <v>72</v>
+      </c>
+      <c r="F44" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>97</v>
+      </c>
+      <c r="B45" t="s">
+        <v>104</v>
+      </c>
+      <c r="C45" t="s">
+        <v>58</v>
+      </c>
+      <c r="D45">
+        <v>10</v>
+      </c>
+      <c r="E45" t="s">
+        <v>71</v>
+      </c>
+      <c r="F45" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>97</v>
+      </c>
+      <c r="B46" t="s">
+        <v>104</v>
+      </c>
+      <c r="C46" t="s">
+        <v>114</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+      <c r="E46" t="s">
+        <v>121</v>
+      </c>
+      <c r="F46" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>97</v>
+      </c>
+      <c r="B47" t="s">
+        <v>104</v>
+      </c>
+      <c r="C47" t="s">
+        <v>116</v>
+      </c>
+      <c r="D47">
+        <v>3</v>
+      </c>
+      <c r="E47" t="s">
+        <v>121</v>
+      </c>
+      <c r="F47" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>97</v>
+      </c>
+      <c r="B48" t="s">
+        <v>104</v>
+      </c>
+      <c r="C48" t="s">
+        <v>118</v>
+      </c>
+      <c r="D48">
+        <v>2</v>
+      </c>
+      <c r="E48" t="s">
+        <v>121</v>
+      </c>
+      <c r="F48" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>97</v>
+      </c>
+      <c r="B49" t="s">
+        <v>104</v>
+      </c>
+      <c r="C49" t="s">
+        <v>122</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+      <c r="E49" t="s">
+        <v>72</v>
+      </c>
+      <c r="F49" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>97</v>
+      </c>
+      <c r="B50" t="s">
+        <v>104</v>
+      </c>
+      <c r="C50" t="s">
+        <v>123</v>
+      </c>
+      <c r="D50">
+        <v>5</v>
+      </c>
+      <c r="E50" t="s">
+        <v>71</v>
+      </c>
+      <c r="F50" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1740,9 +2129,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:B31"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -1930,6 +2321,70 @@
         <v>19</v>
       </c>
     </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>107</v>
+      </c>
+      <c r="B24" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>109</v>
+      </c>
+      <c r="B25" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>110</v>
+      </c>
+      <c r="B26" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>112</v>
+      </c>
+      <c r="B27" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>114</v>
+      </c>
+      <c r="B28" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>116</v>
+      </c>
+      <c r="B29" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>118</v>
+      </c>
+      <c r="B30" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>123</v>
+      </c>
+      <c r="B31" t="s">
+        <v>124</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Recipe_Database_Corrected.xlsx
+++ b/Recipe_Database_Corrected.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taiyenwu/Downloads/Savor in the bay/github/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28F627DD-C9A3-8D4B-B948-E84EBB7153B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E45F19A7-BA99-FF47-9E8A-2EBE5C604353}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="26600" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="26600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Recipes" sheetId="1" r:id="rId1"/>
@@ -313,9 +313,6 @@
     <t>https://i.imgur.com/TIM3nkd.jpeg</t>
   </si>
   <si>
-    <t>https://i.imgur.com/myWJXK6.jpeg</t>
-  </si>
-  <si>
     <t>R005</t>
   </si>
   <si>
@@ -398,6 +395,9 @@
   </si>
   <si>
     <t>白芝麻</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/nzrstcI.jpeg</t>
   </si>
 </sst>
 </file>
@@ -780,8 +780,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -865,7 +865,7 @@
         <v>20</v>
       </c>
       <c r="H3" t="s">
-        <v>96</v>
+        <v>124</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -922,28 +922,28 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>96</v>
+      </c>
+      <c r="B6" t="s">
         <v>97</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>98</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>99</v>
-      </c>
-      <c r="D6" t="s">
-        <v>100</v>
       </c>
       <c r="E6" t="s">
         <v>24</v>
       </c>
       <c r="F6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G6">
         <v>50</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -1078,10 +1078,10 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C9" t="s">
         <v>41</v>
@@ -1092,16 +1092,16 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>103</v>
+      </c>
+      <c r="B10" t="s">
+        <v>96</v>
+      </c>
+      <c r="C10" t="s">
         <v>104</v>
       </c>
-      <c r="B10" t="s">
-        <v>97</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>105</v>
-      </c>
-      <c r="D10" t="s">
-        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -1884,13 +1884,13 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B39" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C39" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D39">
         <v>4</v>
@@ -1904,13 +1904,13 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B40" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C40" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D40">
         <v>1</v>
@@ -1924,13 +1924,13 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B41" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C41" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D41">
         <v>10</v>
@@ -1944,13 +1944,13 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B42" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C42" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D42">
         <v>1</v>
@@ -1964,10 +1964,10 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B43" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C43" t="s">
         <v>56</v>
@@ -1984,13 +1984,13 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B44" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C44" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D44">
         <v>3</v>
@@ -2004,10 +2004,10 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B45" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C45" t="s">
         <v>58</v>
@@ -2024,19 +2024,19 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B46" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C46" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D46">
         <v>1</v>
       </c>
       <c r="E46" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F46" t="b">
         <v>0</v>
@@ -2044,19 +2044,19 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B47" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C47" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D47">
         <v>3</v>
       </c>
       <c r="E47" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F47" t="b">
         <v>0</v>
@@ -2064,19 +2064,19 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B48" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C48" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D48">
         <v>2</v>
       </c>
       <c r="E48" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F48" t="b">
         <v>0</v>
@@ -2084,13 +2084,13 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B49" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C49" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D49">
         <v>1</v>
@@ -2104,13 +2104,13 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B50" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C50" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D50">
         <v>5</v>
@@ -2131,7 +2131,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
@@ -2323,23 +2323,23 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B24" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B25" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B26" t="s">
         <v>75</v>
@@ -2347,42 +2347,42 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B27" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B28" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B29" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B30" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
+        <v>122</v>
+      </c>
+      <c r="B31" t="s">
         <v>123</v>
-      </c>
-      <c r="B31" t="s">
-        <v>124</v>
       </c>
     </row>
   </sheetData>

--- a/Recipe_Database_Corrected.xlsx
+++ b/Recipe_Database_Corrected.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10420"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taiyenwu/Downloads/Savor in the bay/github/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taiyenwu/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E45F19A7-BA99-FF47-9E8A-2EBE5C604353}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8646AFC-A289-7247-A4FD-C7C60BAA9AD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="26600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,13 +17,14 @@
     <sheet name="Components" sheetId="2" r:id="rId2"/>
     <sheet name="Ingredients" sheetId="3" r:id="rId3"/>
     <sheet name="IngredientDict" sheetId="4" r:id="rId4"/>
+    <sheet name="Steps" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="167">
   <si>
     <t>RecipeID</t>
   </si>
@@ -52,66 +53,96 @@
     <t>R001</t>
   </si>
   <si>
+    <t>Lemon Bar</t>
+  </si>
+  <si>
+    <t>檸檬方塊</t>
+  </si>
+  <si>
+    <t>1 ea</t>
+  </si>
+  <si>
+    <t>Bake</t>
+  </si>
+  <si>
+    <t>170C/340F</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/QXCoWk0.jpeg</t>
+  </si>
+  <si>
     <t>R002</t>
   </si>
   <si>
+    <t>Scone</t>
+  </si>
+  <si>
+    <t>司康</t>
+  </si>
+  <si>
+    <t>6 ea</t>
+  </si>
+  <si>
+    <t>180C/360F</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/nzrstcI.jpeg</t>
+  </si>
+  <si>
     <t>R003</t>
   </si>
   <si>
+    <t>Caramel Custard</t>
+  </si>
+  <si>
+    <t>烤布丁</t>
+  </si>
+  <si>
+    <t>4 ea</t>
+  </si>
+  <si>
+    <t>130C/275F</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/TIM3nkd.jpeg</t>
+  </si>
+  <si>
     <t>R004</t>
   </si>
   <si>
-    <t>Lemon Bar</t>
-  </si>
-  <si>
-    <t>Scone</t>
-  </si>
-  <si>
-    <t>Caramel Custard</t>
-  </si>
-  <si>
     <t>Strawberry Pei</t>
   </si>
   <si>
-    <t>檸檬方塊</t>
-  </si>
-  <si>
-    <t>司康</t>
-  </si>
-  <si>
-    <t>烤布丁</t>
-  </si>
-  <si>
     <t>莓果派</t>
   </si>
   <si>
-    <t>1 ea</t>
-  </si>
-  <si>
-    <t>6 ea</t>
-  </si>
-  <si>
-    <t>4 ea</t>
-  </si>
-  <si>
     <t xml:space="preserve">2 ea </t>
   </si>
   <si>
-    <t>Bake</t>
-  </si>
-  <si>
-    <t>170C/340F</t>
-  </si>
-  <si>
-    <t>180C/360F</t>
-  </si>
-  <si>
-    <t>130C/275F</t>
-  </si>
-  <si>
     <t>220C/430F</t>
   </si>
   <si>
+    <t>https://i.imgur.com/BqFfyM1.jpeg</t>
+  </si>
+  <si>
+    <t>R005</t>
+  </si>
+  <si>
+    <t>Korean Fried Chicken</t>
+  </si>
+  <si>
+    <t>韓式炸雞</t>
+  </si>
+  <si>
+    <t>5 ea</t>
+  </si>
+  <si>
+    <t>200C/400F</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/TvxBgLp.jpeg</t>
+  </si>
+  <si>
     <t>ComponentID</t>
   </si>
   <si>
@@ -124,52 +155,64 @@
     <t>C001</t>
   </si>
   <si>
+    <t>Pastry</t>
+  </si>
+  <si>
+    <t>餅皮</t>
+  </si>
+  <si>
     <t>C002</t>
   </si>
   <si>
+    <t>Filling</t>
+  </si>
+  <si>
+    <t>餡料</t>
+  </si>
+  <si>
     <t>C003</t>
   </si>
   <si>
+    <t>Main</t>
+  </si>
+  <si>
+    <t>主體</t>
+  </si>
+  <si>
     <t>C004</t>
   </si>
   <si>
+    <t>Caramel</t>
+  </si>
+  <si>
+    <t>焦糖</t>
+  </si>
+  <si>
     <t>C005</t>
   </si>
   <si>
+    <t>Pudding</t>
+  </si>
+  <si>
+    <t>布丁</t>
+  </si>
+  <si>
     <t>C006</t>
   </si>
   <si>
     <t>C007</t>
   </si>
   <si>
-    <t>Pastry</t>
-  </si>
-  <si>
-    <t>Filling</t>
-  </si>
-  <si>
-    <t>Main</t>
-  </si>
-  <si>
-    <t>Caramel</t>
-  </si>
-  <si>
-    <t>Pudding</t>
-  </si>
-  <si>
-    <t>餅皮</t>
-  </si>
-  <si>
-    <t>餡料</t>
-  </si>
-  <si>
-    <t>主體</t>
-  </si>
-  <si>
-    <t>焦糖</t>
-  </si>
-  <si>
-    <t>布丁</t>
+    <t>C008</t>
+  </si>
+  <si>
+    <t>C009</t>
+  </si>
+  <si>
+    <t>Sauce</t>
+  </si>
+  <si>
+    <t>醬料</t>
   </si>
   <si>
     <t>Ingredient</t>
@@ -187,6 +230,9 @@
     <t>All-purpose flour</t>
   </si>
   <si>
+    <t>g</t>
+  </si>
+  <si>
     <t>Frozen Butter</t>
   </si>
   <si>
@@ -208,12 +254,18 @@
     <t>Egg</t>
   </si>
   <si>
+    <t>ea</t>
+  </si>
+  <si>
     <t>Baking Soda</t>
   </si>
   <si>
     <t>Milk</t>
   </si>
   <si>
+    <t>ml</t>
+  </si>
+  <si>
     <t>Yolk</t>
   </si>
   <si>
@@ -238,13 +290,37 @@
     <t>Blueberry</t>
   </si>
   <si>
-    <t>g</t>
-  </si>
-  <si>
-    <t>ea</t>
-  </si>
-  <si>
-    <t>ml</t>
+    <t>Chicken thigh</t>
+  </si>
+  <si>
+    <t>Black pepper</t>
+  </si>
+  <si>
+    <t>Baking powder</t>
+  </si>
+  <si>
+    <t>White pepper</t>
+  </si>
+  <si>
+    <t>Garlic</t>
+  </si>
+  <si>
+    <t>Honey</t>
+  </si>
+  <si>
+    <t>spoon</t>
+  </si>
+  <si>
+    <t>Gochujang</t>
+  </si>
+  <si>
+    <t>Ketchup</t>
+  </si>
+  <si>
+    <t>Green Oion</t>
+  </si>
+  <si>
+    <t>White sesame</t>
   </si>
   <si>
     <t>Ingredient_zh</t>
@@ -304,100 +380,151 @@
     <t>蛋黃</t>
   </si>
   <si>
-    <t>https://i.imgur.com/QXCoWk0.jpeg</t>
-  </si>
-  <si>
-    <t>https://i.imgur.com/BqFfyM1.jpeg</t>
-  </si>
-  <si>
-    <t>https://i.imgur.com/TIM3nkd.jpeg</t>
-  </si>
-  <si>
-    <t>R005</t>
-  </si>
-  <si>
-    <t>Korean Fried Chicken</t>
-  </si>
-  <si>
-    <t>韓式炸雞</t>
-  </si>
-  <si>
-    <t>5 ea</t>
-  </si>
-  <si>
-    <t>200C/400F</t>
-  </si>
-  <si>
-    <t>https://i.imgur.com/TvxBgLp.jpeg</t>
-  </si>
-  <si>
-    <t>C008</t>
-  </si>
-  <si>
-    <t>C009</t>
-  </si>
-  <si>
-    <t>Sauce</t>
-  </si>
-  <si>
-    <t>醬料</t>
-  </si>
-  <si>
-    <t>Chicken thigh</t>
+    <t>雞腿</t>
   </si>
   <si>
     <t>黑胡椒</t>
   </si>
   <si>
-    <t>Black pepper</t>
-  </si>
-  <si>
-    <t>Baking powder</t>
-  </si>
-  <si>
     <t>白胡椒</t>
   </si>
   <si>
-    <t>White pepper</t>
-  </si>
-  <si>
     <t>蜂蜜</t>
   </si>
   <si>
-    <t>Honey</t>
-  </si>
-  <si>
     <t>韓式辣醬</t>
   </si>
   <si>
-    <t>Gochujang</t>
-  </si>
-  <si>
     <t>番茄醬</t>
   </si>
   <si>
-    <t>Ketchup</t>
-  </si>
-  <si>
-    <t>雞腿</t>
-  </si>
-  <si>
-    <t>Garlic</t>
-  </si>
-  <si>
-    <t>spoon</t>
-  </si>
-  <si>
-    <t>Green Oion</t>
-  </si>
-  <si>
-    <t>White sesame</t>
-  </si>
-  <si>
     <t>白芝麻</t>
   </si>
   <si>
-    <t>https://i.imgur.com/nzrstcI.jpeg</t>
+    <t>StepOrder</t>
+  </si>
+  <si>
+    <t>Instruction_en</t>
+  </si>
+  <si>
+    <t>Instruction_zh</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Category_zh</t>
+  </si>
+  <si>
+    <t>Dessert</t>
+  </si>
+  <si>
+    <t>Main Course</t>
+  </si>
+  <si>
+    <t>SubCategory</t>
+  </si>
+  <si>
+    <t>SubCategory_zh</t>
+  </si>
+  <si>
+    <t>European-style</t>
+  </si>
+  <si>
+    <t>American-style</t>
+  </si>
+  <si>
+    <t>Japanese-style</t>
+  </si>
+  <si>
+    <t>Korean-style</t>
+  </si>
+  <si>
+    <t>美式</t>
+  </si>
+  <si>
+    <t>歐式</t>
+  </si>
+  <si>
+    <t>日式</t>
+  </si>
+  <si>
+    <t>韓式</t>
+  </si>
+  <si>
+    <t>點心</t>
+  </si>
+  <si>
+    <t>主菜</t>
+  </si>
+  <si>
+    <t>Part</t>
+  </si>
+  <si>
+    <t>Part_zh</t>
+  </si>
+  <si>
+    <t>Crust</t>
+  </si>
+  <si>
+    <t>裝飾</t>
+  </si>
+  <si>
+    <t>Decoration</t>
+  </si>
+  <si>
+    <t>將烤模塗上奶油，然後鋪上烘焙紙。</t>
+  </si>
+  <si>
+    <t>將中筋麵粉過篩，與冷凍奶油、糖粉和鹽一起放入料理機中，打碎成砂礫狀。</t>
+  </si>
+  <si>
+    <t>將混合物倒入烤模中，壓平，並用叉子在表面戳出一些小洞，以便後續餡料滲入。</t>
+  </si>
+  <si>
+    <t>將烤模放入烤箱，以170°C烘烤約22分鐘。</t>
+  </si>
+  <si>
+    <t>將奶油、檸檬汁、糖和雞蛋混合攪拌均勻，表面的氣泡可用餐巾紙吸附去除。</t>
+  </si>
+  <si>
+    <t>將攪拌好的餡料倒入烤好的餅皮模具中。</t>
+  </si>
+  <si>
+    <t>將模具再次放入烤箱，以170°C烘烤約10分鐘。</t>
+  </si>
+  <si>
+    <t>烤好後，刨上檸檬屑，並用喜歡的水果裝飾。</t>
+  </si>
+  <si>
+    <t>Grease the baking mold with butter and line it with parchment paper.</t>
+  </si>
+  <si>
+    <t>Sift the all-purpose flour and place it in a food processor with frozen butter, powdered sugar, and salt. Process until the mixture resembles coarse crumbs.</t>
+  </si>
+  <si>
+    <t>Pour the mixture into the baking mold, press it flat, and poke holes on the surface with a fork to allow the filling to penetrate later.</t>
+  </si>
+  <si>
+    <t>Bake in the oven at 170°C (340°F) for about 22 minutes.</t>
+  </si>
+  <si>
+    <t>Mix butter, lemon juice, sugar, and eggs until well combined. Remove any surface bubbles by dabbing with a paper towel.</t>
+  </si>
+  <si>
+    <t>Pour the filling into the baked crust in the mold.</t>
+  </si>
+  <si>
+    <t>Bake again in the oven at 170°C (340°F) for about 10 minutes.</t>
+  </si>
+  <si>
+    <t>After baking, sprinkle with lemon zest and decorate with your favorite fruits.</t>
+  </si>
+  <si>
+    <t>CycleTime</t>
+  </si>
+  <si>
+    <t>Parallel</t>
   </si>
 </sst>
 </file>
@@ -415,17 +542,16 @@
     <font>
       <b/>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -436,7 +562,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -459,23 +585,38 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -492,9 +633,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -532,7 +673,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -566,7 +707,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -601,10 +741,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -778,19 +917,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="17.1640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="28.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5" customWidth="1"/>
+    <col min="11" max="11" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -815,142 +957,214 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I1" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>8</v>
       </c>
       <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
         <v>12</v>
       </c>
-      <c r="C2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" t="s">
-        <v>24</v>
-      </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="G2">
         <v>22</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
         <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E3" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="G3">
         <v>20</v>
       </c>
       <c r="H3" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E4" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G4">
         <v>65</v>
       </c>
       <c r="H4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="E5" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G5">
         <v>24</v>
       </c>
-      <c r="H5" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>96</v>
+        <v>33</v>
       </c>
       <c r="B6" t="s">
-        <v>97</v>
+        <v>34</v>
       </c>
       <c r="C6" t="s">
-        <v>98</v>
+        <v>35</v>
       </c>
       <c r="D6" t="s">
-        <v>99</v>
+        <v>36</v>
       </c>
       <c r="E6" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>100</v>
+        <v>37</v>
       </c>
       <c r="G6">
         <v>50</v>
       </c>
-      <c r="H6" s="2" t="s">
-        <v>101</v>
-      </c>
+      <c r="H6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J8" s="3"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="H6" r:id="rId1" xr:uid="{0392B9BB-D452-5A4D-85B5-D70D33110A22}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -958,35 +1172,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D2" t="s">
         <v>44</v>
@@ -994,69 +1206,69 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="D3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="D4" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="D5" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="D6" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="C7" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D7" t="s">
         <v>44</v>
@@ -1064,48 +1276,48 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="C8" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="D8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>102</v>
+        <v>59</v>
       </c>
       <c r="B9" t="s">
-        <v>96</v>
+        <v>33</v>
       </c>
       <c r="C9" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="D9" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>103</v>
+        <v>60</v>
       </c>
       <c r="B10" t="s">
-        <v>96</v>
+        <v>33</v>
       </c>
       <c r="C10" t="s">
-        <v>104</v>
+        <v>61</v>
       </c>
       <c r="D10" t="s">
-        <v>105</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -1113,33 +1325,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="H51" sqref="H51"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="3" max="3" width="13.83203125" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -1147,16 +1356,16 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="C2" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="D2">
         <v>120</v>
       </c>
       <c r="E2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F2" t="b">
         <v>0</v>
@@ -1167,16 +1376,16 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="C3" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="D3">
         <v>90</v>
       </c>
       <c r="E3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F3" t="b">
         <v>0</v>
@@ -1187,16 +1396,16 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="C4" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="D4">
         <v>20</v>
       </c>
       <c r="E4" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F4" t="b">
         <v>0</v>
@@ -1207,16 +1416,16 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="C5" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F5" t="b">
         <v>1</v>
@@ -1227,16 +1436,16 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="C6" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="D6">
         <v>60</v>
       </c>
       <c r="E6" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F6" t="b">
         <v>0</v>
@@ -1247,16 +1456,16 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="C7" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="D7">
         <v>80</v>
       </c>
       <c r="E7" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F7" t="b">
         <v>0</v>
@@ -1267,16 +1476,16 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="C8" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="D8">
         <v>80</v>
       </c>
       <c r="E8" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F8" t="b">
         <v>0</v>
@@ -1287,16 +1496,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="C9" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="D9">
         <v>2</v>
       </c>
       <c r="E9" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F9" t="b">
         <v>0</v>
@@ -1304,19 +1513,19 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="C10" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="D10">
         <v>210</v>
       </c>
       <c r="E10" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F10" t="b">
         <v>0</v>
@@ -1324,19 +1533,19 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="C11" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="D11">
         <v>8</v>
       </c>
       <c r="E11" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F11" t="b">
         <v>0</v>
@@ -1344,19 +1553,19 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="C12" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="D12">
         <v>55</v>
       </c>
       <c r="E12" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F12" t="b">
         <v>0</v>
@@ -1364,19 +1573,19 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="C13" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="D13">
         <v>50</v>
       </c>
       <c r="E13" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F13" t="b">
         <v>0</v>
@@ -1384,19 +1593,19 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="C14" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="D14">
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F14" t="b">
         <v>0</v>
@@ -1404,19 +1613,19 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="C15" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="D15">
         <v>85</v>
       </c>
       <c r="E15" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="F15" t="b">
         <v>0</v>
@@ -1424,19 +1633,19 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="C16" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="D16">
         <v>0.5</v>
       </c>
       <c r="E16" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F16" t="b">
         <v>0</v>
@@ -1444,19 +1653,19 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="C17" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="D17">
         <v>1</v>
       </c>
       <c r="E17" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F17" t="b">
         <v>0</v>
@@ -1464,19 +1673,19 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="C18" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="D18">
         <v>60</v>
       </c>
       <c r="E18" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F18" t="b">
         <v>0</v>
@@ -1484,19 +1693,19 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="C19" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="D19">
         <v>25</v>
       </c>
       <c r="E19" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F19" t="b">
         <v>0</v>
@@ -1504,19 +1713,19 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="C20" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="D20">
         <v>50</v>
       </c>
       <c r="E20" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F20" t="b">
         <v>0</v>
@@ -1524,19 +1733,19 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="C21" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="D21">
         <v>30</v>
       </c>
       <c r="E21" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F21" t="b">
         <v>0</v>
@@ -1544,19 +1753,19 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="C22" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="D22">
         <v>1</v>
       </c>
       <c r="E22" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F22" t="b">
         <v>0</v>
@@ -1564,19 +1773,19 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="C23" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="D23">
         <v>200</v>
       </c>
       <c r="E23" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F23" t="b">
         <v>0</v>
@@ -1584,19 +1793,19 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="B24" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="C24" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="D24">
         <v>140</v>
       </c>
       <c r="E24" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F24" t="b">
         <v>0</v>
@@ -1604,19 +1813,19 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="B25" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="C25" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="D25">
         <v>4</v>
       </c>
       <c r="E25" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F25" t="b">
         <v>1</v>
@@ -1624,19 +1833,19 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="B26" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="C26" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="D26">
         <v>2</v>
       </c>
       <c r="E26" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F26" t="b">
         <v>0</v>
@@ -1644,19 +1853,19 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="B27" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="C27" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="D27">
         <v>1</v>
       </c>
       <c r="E27" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F27" t="b">
         <v>0</v>
@@ -1664,19 +1873,19 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="C28" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="D28">
         <v>150</v>
       </c>
       <c r="E28" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F28" t="b">
         <v>0</v>
@@ -1684,19 +1893,19 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="C29" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="D29">
         <v>100</v>
       </c>
       <c r="E29" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F29" t="b">
         <v>0</v>
@@ -1704,19 +1913,19 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="B30" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="C30" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="D30">
         <v>20</v>
       </c>
       <c r="E30" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F30" t="b">
         <v>0</v>
@@ -1724,19 +1933,19 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="B31" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="C31" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="D31">
         <v>1</v>
       </c>
       <c r="E31" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F31" t="b">
         <v>0</v>
@@ -1744,19 +1953,19 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="B32" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="C32" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="D32">
         <v>60</v>
       </c>
       <c r="E32" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F32" t="b">
         <v>0</v>
@@ -1764,19 +1973,19 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="B33" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="C33" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="D33">
         <v>1</v>
       </c>
       <c r="E33" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F33" t="b">
         <v>0</v>
@@ -1784,19 +1993,19 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="B34" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="C34" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="D34">
         <v>6</v>
       </c>
       <c r="E34" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F34" t="b">
         <v>0</v>
@@ -1804,19 +2013,19 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="B35" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="C35" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="D35">
         <v>30</v>
       </c>
       <c r="E35" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F35" t="b">
         <v>0</v>
@@ -1824,19 +2033,19 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="B36" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="C36" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="D36">
         <v>0.5</v>
       </c>
       <c r="E36" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F36" t="b">
         <v>0</v>
@@ -1844,19 +2053,19 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="B37" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="C37" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="D37">
         <v>200</v>
       </c>
       <c r="E37" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F37" t="b">
         <v>0</v>
@@ -1864,19 +2073,19 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="B38" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="C38" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="D38">
         <v>40</v>
       </c>
       <c r="E38" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F38" t="b">
         <v>0</v>
@@ -1884,19 +2093,19 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>96</v>
+        <v>33</v>
       </c>
       <c r="B39" t="s">
-        <v>102</v>
+        <v>59</v>
       </c>
       <c r="C39" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="D39">
         <v>4</v>
       </c>
       <c r="E39" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F39" t="b">
         <v>0</v>
@@ -1904,19 +2113,19 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>96</v>
+        <v>33</v>
       </c>
       <c r="B40" t="s">
-        <v>102</v>
+        <v>59</v>
       </c>
       <c r="C40" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="D40">
         <v>1</v>
       </c>
       <c r="E40" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F40" t="b">
         <v>0</v>
@@ -1924,19 +2133,19 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>96</v>
+        <v>33</v>
       </c>
       <c r="B41" t="s">
-        <v>102</v>
+        <v>59</v>
       </c>
       <c r="C41" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="D41">
         <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F41" t="b">
         <v>0</v>
@@ -1944,19 +2153,19 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>96</v>
+        <v>33</v>
       </c>
       <c r="B42" t="s">
-        <v>102</v>
+        <v>59</v>
       </c>
       <c r="C42" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="D42">
         <v>1</v>
       </c>
       <c r="E42" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F42" t="b">
         <v>0</v>
@@ -1964,19 +2173,19 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>96</v>
+        <v>33</v>
       </c>
       <c r="B43" t="s">
-        <v>102</v>
+        <v>59</v>
       </c>
       <c r="C43" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="D43">
         <v>1</v>
       </c>
       <c r="E43" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F43" t="b">
         <v>0</v>
@@ -1984,19 +2193,19 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>96</v>
+        <v>33</v>
       </c>
       <c r="B44" t="s">
-        <v>103</v>
+        <v>60</v>
       </c>
       <c r="C44" t="s">
-        <v>119</v>
+        <v>92</v>
       </c>
       <c r="D44">
         <v>3</v>
       </c>
       <c r="E44" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F44" t="b">
         <v>0</v>
@@ -2004,19 +2213,19 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>96</v>
+        <v>33</v>
       </c>
       <c r="B45" t="s">
-        <v>103</v>
+        <v>60</v>
       </c>
       <c r="C45" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="D45">
         <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F45" t="b">
         <v>0</v>
@@ -2024,19 +2233,19 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>96</v>
+        <v>33</v>
       </c>
       <c r="B46" t="s">
-        <v>103</v>
+        <v>60</v>
       </c>
       <c r="C46" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="D46">
         <v>1</v>
       </c>
       <c r="E46" t="s">
-        <v>120</v>
+        <v>94</v>
       </c>
       <c r="F46" t="b">
         <v>0</v>
@@ -2044,19 +2253,19 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>96</v>
+        <v>33</v>
       </c>
       <c r="B47" t="s">
-        <v>103</v>
+        <v>60</v>
       </c>
       <c r="C47" t="s">
-        <v>115</v>
+        <v>95</v>
       </c>
       <c r="D47">
         <v>3</v>
       </c>
       <c r="E47" t="s">
-        <v>120</v>
+        <v>94</v>
       </c>
       <c r="F47" t="b">
         <v>0</v>
@@ -2064,19 +2273,19 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
+        <v>33</v>
+      </c>
+      <c r="B48" t="s">
+        <v>60</v>
+      </c>
+      <c r="C48" t="s">
         <v>96</v>
-      </c>
-      <c r="B48" t="s">
-        <v>103</v>
-      </c>
-      <c r="C48" t="s">
-        <v>117</v>
       </c>
       <c r="D48">
         <v>2</v>
       </c>
       <c r="E48" t="s">
-        <v>120</v>
+        <v>94</v>
       </c>
       <c r="F48" t="b">
         <v>0</v>
@@ -2084,19 +2293,19 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>96</v>
+        <v>33</v>
       </c>
       <c r="B49" t="s">
-        <v>103</v>
+        <v>60</v>
       </c>
       <c r="C49" t="s">
-        <v>121</v>
+        <v>97</v>
       </c>
       <c r="D49">
         <v>1</v>
       </c>
       <c r="E49" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F49" t="b">
         <v>0</v>
@@ -2104,26 +2313,26 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>96</v>
+        <v>33</v>
       </c>
       <c r="B50" t="s">
-        <v>103</v>
+        <v>60</v>
       </c>
       <c r="C50" t="s">
-        <v>122</v>
+        <v>98</v>
       </c>
       <c r="D50">
         <v>5</v>
       </c>
       <c r="E50" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F50" t="b">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -2131,175 +2340,173 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>74</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="B2" t="s">
-        <v>75</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="B3" t="s">
-        <v>76</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="B4" t="s">
-        <v>77</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="B5" t="s">
-        <v>78</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="B6" t="s">
-        <v>79</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="B7" t="s">
-        <v>80</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="B8" t="s">
-        <v>81</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="B9" t="s">
-        <v>82</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="B10" t="s">
-        <v>83</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="B11" t="s">
-        <v>84</v>
+        <v>109</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="B12" t="s">
-        <v>85</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="B13" t="s">
-        <v>86</v>
+        <v>111</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="B14" t="s">
-        <v>87</v>
+        <v>112</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="B15" t="s">
-        <v>88</v>
+        <v>113</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="B16" t="s">
-        <v>89</v>
+        <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="B17" t="s">
-        <v>90</v>
+        <v>115</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="B18" t="s">
-        <v>91</v>
+        <v>116</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="B19" t="s">
-        <v>92</v>
+        <v>117</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B20" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B21" t="s">
         <v>17</v>
@@ -2307,23 +2514,23 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="B23" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="B24" t="s">
         <v>118</v>
@@ -2331,61 +2538,327 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="B25" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="B26" t="s">
-        <v>75</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="B27" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="B28" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>115</v>
+        <v>95</v>
       </c>
       <c r="B29" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>117</v>
+        <v>96</v>
       </c>
       <c r="B30" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>122</v>
+        <v>98</v>
       </c>
       <c r="B31" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:O24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" customWidth="1"/>
+    <col min="4" max="4" width="9.1640625" customWidth="1"/>
+    <col min="5" max="5" width="118.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="69" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="63.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="60.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="4">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="G2" s="4">
+        <v>2</v>
+      </c>
+      <c r="H2" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="4">
+        <v>2</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="G3" s="4">
+        <v>5</v>
+      </c>
+      <c r="H3" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="4">
+        <v>3</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="G4" s="4">
+        <v>2</v>
+      </c>
+      <c r="H4" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="4">
+        <v>4</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="G5" s="4">
+        <v>22</v>
+      </c>
+      <c r="H5" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="4">
+        <v>5</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="G6" s="4">
+        <v>5</v>
+      </c>
+      <c r="H6" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="4">
+        <v>6</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="G7" s="4">
+        <v>1</v>
+      </c>
+      <c r="H7" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="4">
+        <v>7</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="G8" s="4">
+        <v>10</v>
+      </c>
+      <c r="H8" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4">
+        <v>8</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="G9" s="4">
+        <v>2</v>
+      </c>
+      <c r="H9" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="11:15" x14ac:dyDescent="0.2">
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Recipe_Database_Corrected.xlsx
+++ b/Recipe_Database_Corrected.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taiyenwu/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taiyenwu/Downloads/Savor in the bay/github/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8646AFC-A289-7247-A4FD-C7C60BAA9AD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73505DFF-35E5-724B-90D3-9F2E5A3E90D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="26600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15820" yWindow="680" windowWidth="51200" windowHeight="26600" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Recipes" sheetId="1" r:id="rId1"/>
@@ -18,13 +18,14 @@
     <sheet name="Ingredients" sheetId="3" r:id="rId3"/>
     <sheet name="IngredientDict" sheetId="4" r:id="rId4"/>
     <sheet name="Steps" sheetId="5" r:id="rId5"/>
+    <sheet name="Tools" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="208">
   <si>
     <t>RecipeID</t>
   </si>
@@ -525,6 +526,129 @@
   </si>
   <si>
     <t>Parallel</t>
+  </si>
+  <si>
+    <t>ToolName</t>
+  </si>
+  <si>
+    <t>ToolName_zh</t>
+  </si>
+  <si>
+    <t>麵粉篩</t>
+  </si>
+  <si>
+    <t>攪拌碗</t>
+  </si>
+  <si>
+    <t>烤箱</t>
+  </si>
+  <si>
+    <t>料理磨碎機</t>
+  </si>
+  <si>
+    <t>烘焙紙</t>
+  </si>
+  <si>
+    <t>叉子</t>
+  </si>
+  <si>
+    <t>Ｖ</t>
+  </si>
+  <si>
+    <t>Square Mold</t>
+  </si>
+  <si>
+    <t>Flour Sifter</t>
+  </si>
+  <si>
+    <t>Mixing Bowl</t>
+  </si>
+  <si>
+    <t>Oven</t>
+  </si>
+  <si>
+    <t>Food Processor</t>
+  </si>
+  <si>
+    <t>Parchment Paper</t>
+  </si>
+  <si>
+    <t>Fork</t>
+  </si>
+  <si>
+    <t>Lemon Zester</t>
+  </si>
+  <si>
+    <t>刨檸檬器</t>
+  </si>
+  <si>
+    <t>Sift the flour and baking soda together, then mix in the sugar evenly.</t>
+  </si>
+  <si>
+    <t>Add cubed frozen butter, coat it with the flour, and rub the butter into the flour with your fingers until it resembles coarse crumbs (no need to make it very fine; it’s okay to leave some chunks).</t>
+  </si>
+  <si>
+    <t>In a separate bowl, whisk half an egg and add it to the flour mixture, mixing well.</t>
+  </si>
+  <si>
+    <t>Add chilled milk, starting with half, and mix with your hands or a spatula until combined; then add the remaining milk and mix again to form a dough. If the dough doesn’t come together, add a little more milk as needed, but avoid over-kneading.</t>
+  </si>
+  <si>
+    <t>Take the dough out, sprinkle some flour on the work surface, and roll the dough to about 2.5 cm thick.</t>
+  </si>
+  <si>
+    <t>Dip a round cutter in flour and cut out several scone shapes.</t>
+  </si>
+  <si>
+    <t>Whisk one egg yolk and brush it evenly over the scones’ surface.</t>
+  </si>
+  <si>
+    <t>Bake the scones in the oven at 180°C (360°F) for about 20 minutes.</t>
+  </si>
+  <si>
+    <t>將麵粉與小蘇打粉過篩後，加入糖拌勻。</t>
+  </si>
+  <si>
+    <t>加入切小塊的冷凍奶油，用麵粉裹住奶油後，以手指搓揉，使奶油與麵粉混合呈粗糙顆粒狀（無需過細，保留部分小塊無妨）。</t>
+  </si>
+  <si>
+    <t>另取一個容器，打散半顆雞蛋，加入麵粉混合物中，充分攪拌均勻。</t>
+  </si>
+  <si>
+    <t>加入冰牛奶，先倒入一半，用手或刮刀拌合至均勻；再加入剩餘牛奶，重複拌合至成團。若麵團仍未成形，可酌量添加少許牛奶，但避免過度揉捏。</t>
+  </si>
+  <si>
+    <t>取出麵團，在工作台上撒少許麵粉，將麵團桿至約2.5公分厚。</t>
+  </si>
+  <si>
+    <t>將圓形模具沾上少許麵粉，切出數個司康形狀。</t>
+  </si>
+  <si>
+    <t>打散一顆蛋黃，均勻塗抹於司康表面。</t>
+  </si>
+  <si>
+    <t>將司康放入烤箱，以180°C烘烤約20分鐘。</t>
+  </si>
+  <si>
+    <t>方形模具烤盤</t>
+  </si>
+  <si>
+    <t>烤盤</t>
+  </si>
+  <si>
+    <t>圓型模具</t>
+  </si>
+  <si>
+    <t>烘焙刷</t>
+  </si>
+  <si>
+    <t>Pastry Brush</t>
+  </si>
+  <si>
+    <t>Baking Tray</t>
+  </si>
+  <si>
+    <t>Round Mold</t>
   </si>
 </sst>
 </file>
@@ -606,7 +730,7 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -919,8 +1043,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2599,10 +2723,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:O24"/>
+  <dimension ref="A1:O35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2851,14 +2975,439 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="11:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="4">
+        <v>1</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="G10" s="4">
+        <v>3</v>
+      </c>
+      <c r="H10" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="4">
+        <v>2</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="G11" s="4">
+        <v>5</v>
+      </c>
+      <c r="H11" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="4">
+        <v>3</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="G12" s="4">
+        <v>2</v>
+      </c>
+      <c r="H12" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="4">
+        <v>4</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="G13" s="4">
+        <v>5</v>
+      </c>
+      <c r="H13" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="4">
+        <v>5</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="G14" s="4">
+        <v>3</v>
+      </c>
+      <c r="H14" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="4">
+        <v>6</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="G15" s="4">
+        <v>2</v>
+      </c>
+      <c r="H15" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="4">
+        <v>7</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="G16" s="4">
+        <v>1</v>
+      </c>
+      <c r="H16" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="4">
+        <v>8</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="G17" s="4">
+        <v>20</v>
+      </c>
+      <c r="H17" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
     </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="E28" s="2"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="E29" s="2"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="E30" s="2"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="E31" s="2"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="E32" s="2"/>
+    </row>
+    <row r="33" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E33" s="2"/>
+    </row>
+    <row r="34" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E34" s="2"/>
+    </row>
+    <row r="35" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E35" s="2"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{348BD390-6058-3244-B040-3ECD44D7EDBB}">
+  <dimension ref="A1:D15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="4"/>
+    <col min="3" max="3" width="12.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C3" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>178</v>
+      </c>
+      <c r="C4" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>179</v>
+      </c>
+      <c r="C5" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>180</v>
+      </c>
+      <c r="C6" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>181</v>
+      </c>
+      <c r="C7" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>182</v>
+      </c>
+      <c r="C8" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>183</v>
+      </c>
+      <c r="C9" t="s">
+        <v>184</v>
+      </c>
+      <c r="D9" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" t="s">
+        <v>206</v>
+      </c>
+      <c r="C10" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" t="s">
+        <v>178</v>
+      </c>
+      <c r="C11" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" t="s">
+        <v>179</v>
+      </c>
+      <c r="C12" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" t="s">
+        <v>207</v>
+      </c>
+      <c r="C13" t="s">
+        <v>203</v>
+      </c>
+      <c r="D13" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" t="s">
+        <v>177</v>
+      </c>
+      <c r="C14" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" t="s">
+        <v>205</v>
+      </c>
+      <c r="C15" t="s">
+        <v>204</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Recipe_Database_Corrected.xlsx
+++ b/Recipe_Database_Corrected.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taiyenwu/Downloads/Savor in the bay/github/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taiyenwu/Downloads/Chef Tai/App/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73505DFF-35E5-724B-90D3-9F2E5A3E90D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F13F8FB4-49A8-7C4C-A32F-897D15427161}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15820" yWindow="680" windowWidth="51200" windowHeight="26600" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="207">
   <si>
     <t>RecipeID</t>
   </si>
@@ -550,9 +550,6 @@
   </si>
   <si>
     <t>叉子</t>
-  </si>
-  <si>
-    <t>Ｖ</t>
   </si>
   <si>
     <t>Square Mold</t>
@@ -1450,7 +1447,7 @@
   <dimension ref="A1:F50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2726,7 +2723,7 @@
   <dimension ref="A1:O35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="E63" sqref="E63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2989,10 +2986,10 @@
         <v>50</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G10" s="4">
         <v>3</v>
@@ -3015,10 +3012,10 @@
         <v>50</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G11" s="4">
         <v>5</v>
@@ -3041,10 +3038,10 @@
         <v>50</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G12" s="4">
         <v>2</v>
@@ -3067,10 +3064,10 @@
         <v>50</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G13" s="4">
         <v>5</v>
@@ -3093,10 +3090,10 @@
         <v>50</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G14" s="4">
         <v>3</v>
@@ -3119,10 +3116,10 @@
         <v>50</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G15" s="4">
         <v>2</v>
@@ -3145,10 +3142,10 @@
         <v>50</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G16" s="4">
         <v>1</v>
@@ -3171,10 +3168,10 @@
         <v>50</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G17" s="4">
         <v>20</v>
@@ -3224,7 +3221,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="D14" sqref="D14:D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3252,10 +3249,13 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C2" t="s">
-        <v>201</v>
+        <v>200</v>
+      </c>
+      <c r="D2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -3263,10 +3263,13 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C3" t="s">
         <v>169</v>
+      </c>
+      <c r="D3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -3274,10 +3277,13 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C4" t="s">
         <v>170</v>
+      </c>
+      <c r="D4" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -3285,10 +3291,13 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C5" t="s">
         <v>171</v>
+      </c>
+      <c r="D5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -3296,10 +3305,13 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C6" t="s">
         <v>172</v>
+      </c>
+      <c r="D6" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -3307,10 +3319,13 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C7" t="s">
         <v>173</v>
+      </c>
+      <c r="D7" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -3318,10 +3333,13 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C8" t="s">
         <v>174</v>
+      </c>
+      <c r="D8" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -3329,13 +3347,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
+        <v>182</v>
+      </c>
+      <c r="C9" t="s">
         <v>183</v>
       </c>
-      <c r="C9" t="s">
-        <v>184</v>
-      </c>
-      <c r="D9" t="s">
-        <v>175</v>
+      <c r="D9" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -3343,10 +3361,13 @@
         <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C10" t="s">
-        <v>202</v>
+        <v>201</v>
+      </c>
+      <c r="D10" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -3354,10 +3375,13 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C11" t="s">
         <v>170</v>
+      </c>
+      <c r="D11" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -3365,10 +3389,13 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C12" t="s">
         <v>171</v>
+      </c>
+      <c r="D12" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -3376,13 +3403,13 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C13" t="s">
-        <v>203</v>
-      </c>
-      <c r="D13" t="s">
-        <v>175</v>
+        <v>202</v>
+      </c>
+      <c r="D13" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -3390,10 +3417,13 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C14" t="s">
         <v>169</v>
+      </c>
+      <c r="D14" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -3401,10 +3431,13 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C15" t="s">
-        <v>204</v>
+        <v>203</v>
+      </c>
+      <c r="D15" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Recipe_Database_Corrected.xlsx
+++ b/Recipe_Database_Corrected.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taiyenwu/Downloads/Chef Tai/App/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taiyenwu/Downloads/Chef Tai/github/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F13F8FB4-49A8-7C4C-A32F-897D15427161}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{466174FE-1D35-8D48-B244-118BC12BCD30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15820" yWindow="680" windowWidth="51200" windowHeight="26600" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19020" yWindow="2200" windowWidth="51200" windowHeight="26600" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Recipes" sheetId="1" r:id="rId1"/>
@@ -633,9 +633,6 @@
     <t>烤盤</t>
   </si>
   <si>
-    <t>圓型模具</t>
-  </si>
-  <si>
     <t>烘焙刷</t>
   </si>
   <si>
@@ -645,7 +642,10 @@
     <t>Baking Tray</t>
   </si>
   <si>
-    <t>Round Mold</t>
+    <t>Round Cutter</t>
+  </si>
+  <si>
+    <t>圓型切割模具</t>
   </si>
 </sst>
 </file>
@@ -3221,7 +3221,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14:D15"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3361,7 +3361,7 @@
         <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C10" t="s">
         <v>201</v>
@@ -3403,10 +3403,10 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
+        <v>205</v>
+      </c>
+      <c r="C13" t="s">
         <v>206</v>
-      </c>
-      <c r="C13" t="s">
-        <v>202</v>
       </c>
       <c r="D13" t="b">
         <v>1</v>
@@ -3431,10 +3431,10 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C15" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D15" t="b">
         <v>0</v>

--- a/Recipe_Database_Corrected.xlsx
+++ b/Recipe_Database_Corrected.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taiyenwu/Downloads/Chef Tai/github/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{466174FE-1D35-8D48-B244-118BC12BCD30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB3E3A2F-65FC-E546-8ED5-D9F1FBE565C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19020" yWindow="2200" windowWidth="51200" windowHeight="26600" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17560" yWindow="500" windowWidth="51200" windowHeight="26600" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Recipes" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="231">
   <si>
     <t>RecipeID</t>
   </si>
@@ -646,6 +646,86 @@
   </si>
   <si>
     <t>圓型切割模具</t>
+  </si>
+  <si>
+    <t>將糖倒入鍋中，加入冷水，以中火加熱至滾沸。
+筆記：加熱過程中輕輕搖晃鍋子使糖均勻，勿攪拌。</t>
+  </si>
+  <si>
+    <t>滾沸後仔細觀察泡泡，當泡泡變緩且糖液逐漸變深時轉小火，持續觀察至理想的焦糖色澤。
+筆記：若偏好更濃郁口味，可煮至較深的焦糖色。</t>
+  </si>
+  <si>
+    <t>打入全蛋與蛋黃（依配方比例），攪拌均勻備用。</t>
+  </si>
+  <si>
+    <t>將牛奶、鮮奶油、糖、蜂蜜倒入鍋中攪拌均勻，以中火加熱至約60°C。
+筆記：溫度越高，布丁質地越紮實，可根據喜好調整。</t>
+  </si>
+  <si>
+    <t>將熱好的牛奶緩慢倒入蛋液中，再加入藍姆酒與一小撮鹽，充分攪勻。</t>
+  </si>
+  <si>
+    <t>將混合好的布丁液用濾網過篩2-3次，以確保口感滑順無雜質。</t>
+  </si>
+  <si>
+    <t>將冷藏的焦糖取出，按配方比例倒入模具底部。</t>
+  </si>
+  <si>
+    <t>關火後，立即倒入熱水，攪拌均勻後放入冷藏靜置約10分鐘，使其稍微凝固。</t>
+  </si>
+  <si>
+    <t>將布丁液依比例倒入模具中，蓋上鋁箔紙，並於鋁箔紙上戳6個小孔。</t>
+  </si>
+  <si>
+    <t>將模具放入稍有深度的烤盤中，於烤盤內加入約80°C的熱水，水位達模具高度的一半左右。</t>
+  </si>
+  <si>
+    <t>放入預熱130°C的烤箱中，以隔水加熱方式烤約65分鐘。
+筆記：時間到後可揭開鋁箔紙，輕晃模具檢查凝固程度，視情況再調整烘烤時間。</t>
+  </si>
+  <si>
+    <t>出爐後放涼，並冷藏數小時後即可食用。</t>
+  </si>
+  <si>
+    <t>Pour sugar into a saucepan, add cold water, and heat over medium heat until boiling.
+Note: Gently swirl the pan to distribute sugar evenly; do not stir.</t>
+  </si>
+  <si>
+    <t>Once boiling, carefully observe the bubbles. When they slow down and the syrup darkens, lower the heat and continue to cook until reaching your desired caramel color.
+Note: For a richer flavor, cook to a darker caramel.</t>
+  </si>
+  <si>
+    <t>Turn off heat, carefully pour in hot water, stir well, and place it in the freezer for about 10 minutes to slightly solidify.</t>
+  </si>
+  <si>
+    <t>Take the caramel out and add the eggs and egg yolks (according to recipe), stirring until well combined.</t>
+  </si>
+  <si>
+    <t>Mix milk, heavy cream, sugar, and honey in a saucepan. Stir gently and heat until it reaches around 60°C.
+Note: Higher temperatures yield a firmer pudding texture; adjust as desired.</t>
+  </si>
+  <si>
+    <t>Slowly pour the heated milk into the egg mixture, add rum and a pinch of salt, and mix thoroughly.</t>
+  </si>
+  <si>
+    <t>Strain the pudding mixture through a fine sieve 2-3 times to ensure a smooth and silky texture.</t>
+  </si>
+  <si>
+    <t>Take the chilled caramel out of the fridge and distribute it evenly into the bottom of the molds according to the recipe proportions.</t>
+  </si>
+  <si>
+    <t>Fill the molds with the pudding mixture accordingly, cover with aluminum foil, and poke 6 small holes on top of the foil.</t>
+  </si>
+  <si>
+    <t>Place the molds in a deep baking tray, and fill the tray halfway up the sides of the molds with approximately 80°C hot water.</t>
+  </si>
+  <si>
+    <t>Bake in a preheated oven at 130°C for about 65 minutes in a water bath.
+Note: After baking, gently shake the molds to check if pudding has set. Adjust baking time as needed.</t>
+  </si>
+  <si>
+    <t>Remove from oven, allow to cool, and refrigerate for several hours before serving.</t>
   </si>
 </sst>
 </file>
@@ -721,7 +801,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -735,6 +815,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1041,7 +1127,7 @@
   <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1293,7 +1379,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5:D6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -1447,7 +1535,7 @@
   <dimension ref="A1:F50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+      <selection activeCell="A19" sqref="A19:C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2461,7 +2549,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B31"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F63" sqref="F63"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -2722,8 +2812,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:O35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E63" sqref="E63"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3180,18 +3270,250 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="4">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="4">
+        <v>2</v>
+      </c>
+      <c r="C19" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="A20" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="4">
+        <v>3</v>
+      </c>
+      <c r="C20" t="s">
+        <v>52</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="4">
+        <v>4</v>
+      </c>
+      <c r="C21" t="s">
+        <v>55</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+      <c r="A22" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="4">
+        <v>5</v>
+      </c>
+      <c r="C22" t="s">
+        <v>55</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="A23" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="4">
+        <v>6</v>
+      </c>
+      <c r="C23" t="s">
+        <v>55</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="A24" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24" s="4">
+        <v>7</v>
+      </c>
+      <c r="C24" t="s">
+        <v>55</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>212</v>
+      </c>
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="E28" s="2"/>
+    <row r="25" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="A25" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25" s="4">
+        <v>8</v>
+      </c>
+      <c r="C25" t="s">
+        <v>55</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="F25" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="A26" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B26" s="4">
+        <v>9</v>
+      </c>
+      <c r="C26" t="s">
+        <v>55</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="A27" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B27" s="4">
+        <v>10</v>
+      </c>
+      <c r="C27" t="s">
+        <v>55</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+      <c r="A28" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B28" s="4">
+        <v>11</v>
+      </c>
+      <c r="C28" t="s">
+        <v>55</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="E29" s="2"/>
+      <c r="A29" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B29" s="4">
+        <v>12</v>
+      </c>
+      <c r="C29" t="s">
+        <v>55</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>218</v>
+      </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="E30" s="2"/>
@@ -3220,8 +3542,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{348BD390-6058-3244-B040-3ECD44D7EDBB}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F62" sqref="F62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/Recipe_Database_Corrected.xlsx
+++ b/Recipe_Database_Corrected.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taiyenwu/Downloads/Chef Tai/github/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB3E3A2F-65FC-E546-8ED5-D9F1FBE565C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DF72D3C-28E4-4C46-916E-6C6F87741F1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17560" yWindow="500" windowWidth="51200" windowHeight="26600" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1127,7 +1127,7 @@
   <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2813,7 +2813,7 @@
   <dimension ref="A1:O35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3289,6 +3289,12 @@
       <c r="F18" s="7" t="s">
         <v>207</v>
       </c>
+      <c r="G18" s="4">
+        <v>5</v>
+      </c>
+      <c r="H18" s="4" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="19" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
@@ -3309,6 +3315,12 @@
       <c r="F19" s="6" t="s">
         <v>208</v>
       </c>
+      <c r="G19" s="4">
+        <v>3</v>
+      </c>
+      <c r="H19" s="4" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="20" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
@@ -3329,6 +3341,12 @@
       <c r="F20" s="7" t="s">
         <v>214</v>
       </c>
+      <c r="G20" s="4">
+        <v>10</v>
+      </c>
+      <c r="H20" s="4" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
@@ -3349,6 +3367,12 @@
       <c r="F21" s="2" t="s">
         <v>209</v>
       </c>
+      <c r="G21" s="4">
+        <v>1</v>
+      </c>
+      <c r="H21" s="4" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="22" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
@@ -3369,6 +3393,12 @@
       <c r="F22" s="7" t="s">
         <v>210</v>
       </c>
+      <c r="G22" s="4">
+        <v>3</v>
+      </c>
+      <c r="H22" s="4" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="23" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
@@ -3389,6 +3419,12 @@
       <c r="F23" s="2" t="s">
         <v>211</v>
       </c>
+      <c r="G23" s="4">
+        <v>1</v>
+      </c>
+      <c r="H23" s="4" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="24" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
@@ -3408,6 +3444,12 @@
       </c>
       <c r="F24" s="7" t="s">
         <v>212</v>
+      </c>
+      <c r="G24" s="4">
+        <v>1</v>
+      </c>
+      <c r="H24" s="4" t="b">
+        <v>0</v>
       </c>
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
@@ -3434,6 +3476,12 @@
       <c r="F25" t="s">
         <v>213</v>
       </c>
+      <c r="G25" s="4">
+        <v>5</v>
+      </c>
+      <c r="H25" s="4" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="26" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
@@ -3454,6 +3502,12 @@
       <c r="F26" s="2" t="s">
         <v>215</v>
       </c>
+      <c r="G26" s="4">
+        <v>3</v>
+      </c>
+      <c r="H26" s="4" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="27" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
@@ -3474,6 +3528,12 @@
       <c r="F27" s="2" t="s">
         <v>216</v>
       </c>
+      <c r="G27" s="4">
+        <v>2</v>
+      </c>
+      <c r="H27" s="4" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="28" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
@@ -3494,6 +3554,12 @@
       <c r="F28" s="7" t="s">
         <v>217</v>
       </c>
+      <c r="G28" s="4">
+        <v>65</v>
+      </c>
+      <c r="H28" s="4" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
@@ -3513,6 +3579,12 @@
       </c>
       <c r="F29" s="2" t="s">
         <v>218</v>
+      </c>
+      <c r="G29" s="4">
+        <v>0</v>
+      </c>
+      <c r="H29" s="4" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.2">

--- a/Recipe_Database_Corrected.xlsx
+++ b/Recipe_Database_Corrected.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taiyenwu/Downloads/Chef Tai/github/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DF72D3C-28E4-4C46-916E-6C6F87741F1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A341366-8980-804F-9F42-3D2B2D8D780E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17560" yWindow="500" windowWidth="51200" windowHeight="26600" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20540" yWindow="500" windowWidth="48220" windowHeight="26600" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Recipes" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="249">
   <si>
     <t>RecipeID</t>
   </si>
@@ -726,6 +726,62 @@
   </si>
   <si>
     <t>Remove from oven, allow to cool, and refrigerate for several hours before serving.</t>
+  </si>
+  <si>
+    <t>將麵粉過篩後，加入糖與一小撮鹽充分混合。</t>
+  </si>
+  <si>
+    <t>加入冷凍奶油，用麵粉包裹後，以指尖將奶油輕輕按壓、搓揉成片狀。
+筆記：避免過度搓揉，以免影響餅皮酥脆口感。</t>
+  </si>
+  <si>
+    <t>分次加入冰水，輕柔混合至麵團剛好成型後，以保鮮膜包覆，冷藏靜置1小時。</t>
+  </si>
+  <si>
+    <t>草莓與藍莓洗淨後，將草莓切片備用。</t>
+  </si>
+  <si>
+    <t>將草莓片與藍莓放入玻璃碗內，加入糖、太白粉、檸檬汁，並刨入適量檸檬皮屑後輕輕混合。</t>
+  </si>
+  <si>
+    <t>將冷藏後的麵團取出，擀成約0.3-0.5公分厚度，並用適當大小的盤子壓出圓形餅皮。</t>
+  </si>
+  <si>
+    <t>將調製好的餡料置於餅皮中央，四周預留適當的空間後，將邊緣向內折疊包覆餡料。</t>
+  </si>
+  <si>
+    <t>在餅皮表面均勻刷上蛋液，並撒上一些粗顆粒糖作為裝飾。</t>
+  </si>
+  <si>
+    <t>將餡餅放入預熱至220°C的烤箱，烤約25分鐘，直至餅皮呈金黃色即可。</t>
+  </si>
+  <si>
+    <t>Sift flour, then add sugar and a pinch of salt. Mix thoroughly.</t>
+  </si>
+  <si>
+    <t>Gradually add ice water, mixing gently until dough just comes together. Wrap dough in plastic wrap and chill in the fridge for 1 hour.</t>
+  </si>
+  <si>
+    <t>Wash the strawberries and blueberries; slice strawberries thinly.</t>
+  </si>
+  <si>
+    <t>Combine sliced strawberries and blueberries in a glass bowl. Add sugar, cornstarch, lemon juice, and grated lemon zest; mix gently.</t>
+  </si>
+  <si>
+    <t>Remove chilled dough from the fridge, roll out to about 0.3-0.5 cm thickness, and use an appropriately sized plate to cut a round crust.</t>
+  </si>
+  <si>
+    <t>Place the prepared fruit filling in the center of the crust, leaving a margin around the edges. Gently fold the edges inward to partially cover the filling.</t>
+  </si>
+  <si>
+    <t>Brush the crust lightly with beaten egg, and sprinkle coarse sugar on top as decoration.</t>
+  </si>
+  <si>
+    <t>Bake in a preheated oven at 220°C for about 25 minutes, or until the crust is golden brown.</t>
+  </si>
+  <si>
+    <t>Add cold butter cubes to flour, gently pressing and rubbing with fingertips until it forms flaky pieces.
+Note: Avoid over-mixing to ensure a flaky crust texture.</t>
   </si>
 </sst>
 </file>
@@ -1127,7 +1183,7 @@
   <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1380,7 +1436,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:D6"/>
+      <selection activeCell="C7" sqref="C7:D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1535,7 +1591,7 @@
   <dimension ref="A1:F50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:C20"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2810,19 +2866,19 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:O35"/>
+  <dimension ref="A1:O38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+      <selection activeCell="E51" sqref="E51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9" customWidth="1"/>
-    <col min="4" max="4" width="9.1640625" customWidth="1"/>
+    <col min="3" max="3" width="9" style="4" customWidth="1"/>
+    <col min="4" max="4" width="9.1640625" style="4" customWidth="1"/>
     <col min="5" max="5" width="118.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="69" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="68.83203125" customWidth="1"/>
     <col min="7" max="7" width="9.1640625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="63.33203125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="60.1640625" bestFit="1" customWidth="1"/>
@@ -3277,7 +3333,7 @@
       <c r="B18" s="4">
         <v>1</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="4" t="s">
         <v>52</v>
       </c>
       <c r="D18" s="4" t="s">
@@ -3303,7 +3359,7 @@
       <c r="B19" s="4">
         <v>2</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="4" t="s">
         <v>52</v>
       </c>
       <c r="D19" s="4" t="s">
@@ -3329,7 +3385,7 @@
       <c r="B20" s="4">
         <v>3</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="4" t="s">
         <v>52</v>
       </c>
       <c r="D20" s="4" t="s">
@@ -3355,7 +3411,7 @@
       <c r="B21" s="4">
         <v>4</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="4" t="s">
         <v>55</v>
       </c>
       <c r="D21" s="4" t="s">
@@ -3381,7 +3437,7 @@
       <c r="B22" s="4">
         <v>5</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="4" t="s">
         <v>55</v>
       </c>
       <c r="D22" s="4" t="s">
@@ -3407,7 +3463,7 @@
       <c r="B23" s="4">
         <v>6</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="4" t="s">
         <v>55</v>
       </c>
       <c r="D23" s="4" t="s">
@@ -3433,7 +3489,7 @@
       <c r="B24" s="4">
         <v>7</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="4" t="s">
         <v>55</v>
       </c>
       <c r="D24" s="4" t="s">
@@ -3464,7 +3520,7 @@
       <c r="B25" s="4">
         <v>8</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="4" t="s">
         <v>55</v>
       </c>
       <c r="D25" s="4" t="s">
@@ -3490,7 +3546,7 @@
       <c r="B26" s="4">
         <v>9</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="4" t="s">
         <v>55</v>
       </c>
       <c r="D26" s="4" t="s">
@@ -3516,7 +3572,7 @@
       <c r="B27" s="4">
         <v>10</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="4" t="s">
         <v>55</v>
       </c>
       <c r="D27" s="4" t="s">
@@ -3542,7 +3598,7 @@
       <c r="B28" s="4">
         <v>11</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="4" t="s">
         <v>55</v>
       </c>
       <c r="D28" s="4" t="s">
@@ -3568,7 +3624,7 @@
       <c r="B29" s="4">
         <v>12</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="4" t="s">
         <v>55</v>
       </c>
       <c r="D29" s="4" t="s">
@@ -3588,25 +3644,242 @@
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="E30" s="2"/>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="E31" s="2"/>
+      <c r="A30" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B30" s="4">
+        <v>1</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E30" t="s">
+        <v>240</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="G30" s="4">
+        <v>1</v>
+      </c>
+      <c r="H30" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+      <c r="A31" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B31" s="4">
+        <v>2</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="G31" s="4">
+        <v>3</v>
+      </c>
+      <c r="H31" s="4" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="E32" s="2"/>
-    </row>
-    <row r="33" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E33" s="2"/>
-    </row>
-    <row r="34" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E34" s="2"/>
-    </row>
-    <row r="35" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E35" s="2"/>
+      <c r="A32" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B32" s="4">
+        <v>3</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E32" t="s">
+        <v>241</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="G32" s="4">
+        <v>60</v>
+      </c>
+      <c r="H32" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B33" s="4">
+        <v>4</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E33" t="s">
+        <v>242</v>
+      </c>
+      <c r="F33" t="s">
+        <v>234</v>
+      </c>
+      <c r="G33" s="4">
+        <v>5</v>
+      </c>
+      <c r="H33" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B34" s="4">
+        <v>5</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E34" t="s">
+        <v>243</v>
+      </c>
+      <c r="F34" t="s">
+        <v>235</v>
+      </c>
+      <c r="G34" s="4">
+        <v>3</v>
+      </c>
+      <c r="H34" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B35" s="4">
+        <v>6</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E35" t="s">
+        <v>244</v>
+      </c>
+      <c r="F35" t="s">
+        <v>236</v>
+      </c>
+      <c r="G35" s="4">
+        <v>3</v>
+      </c>
+      <c r="H35" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B36" s="4">
+        <v>7</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E36" t="s">
+        <v>245</v>
+      </c>
+      <c r="F36" t="s">
+        <v>237</v>
+      </c>
+      <c r="G36" s="4">
+        <v>5</v>
+      </c>
+      <c r="H36" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B37" s="4">
+        <v>8</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E37" t="s">
+        <v>246</v>
+      </c>
+      <c r="F37" t="s">
+        <v>238</v>
+      </c>
+      <c r="G37" s="4">
+        <v>2</v>
+      </c>
+      <c r="H37" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B38" s="4">
+        <v>9</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E38" t="s">
+        <v>247</v>
+      </c>
+      <c r="F38" t="s">
+        <v>239</v>
+      </c>
+      <c r="G38" s="4">
+        <v>25</v>
+      </c>
+      <c r="H38" s="4" t="b">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 

--- a/Recipe_Database_Corrected.xlsx
+++ b/Recipe_Database_Corrected.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taiyenwu/Downloads/Chef Tai/github/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A341366-8980-804F-9F42-3D2B2D8D780E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70BB9FF4-1EC3-7B45-8E55-8B673002124E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20540" yWindow="500" windowWidth="48220" windowHeight="26600" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20520" yWindow="500" windowWidth="48220" windowHeight="26600" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Recipes" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="256">
   <si>
     <t>RecipeID</t>
   </si>
@@ -782,6 +782,27 @@
   <si>
     <t>Add cold butter cubes to flour, gently pressing and rubbing with fingertips until it forms flaky pieces.
 Note: Avoid over-mixing to ensure a flaky crust texture.</t>
+  </si>
+  <si>
+    <t>玻璃容器(4oz)</t>
+  </si>
+  <si>
+    <t>小鍋</t>
+  </si>
+  <si>
+    <t>Saucepan</t>
+  </si>
+  <si>
+    <t>Glass Container (4oz)</t>
+  </si>
+  <si>
+    <t>Frying pan</t>
+  </si>
+  <si>
+    <t>煎炒鍋</t>
+  </si>
+  <si>
+    <t>將雞腿清洗後撒上鹽 黑白胡椒 小蘇打粉 蒜末混合後醃製10分鐘</t>
   </si>
 </sst>
 </file>
@@ -1183,7 +1204,7 @@
   <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1436,7 +1457,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:D8"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1588,10 +1609,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:F50"/>
+  <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40:E51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2138,22 +2159,22 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B28" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C28" t="s">
-        <v>67</v>
+        <v>93</v>
       </c>
       <c r="D28">
-        <v>150</v>
+        <v>1</v>
       </c>
       <c r="E28" t="s">
-        <v>68</v>
+        <v>94</v>
       </c>
       <c r="F28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
@@ -2164,10 +2185,10 @@
         <v>57</v>
       </c>
       <c r="C29" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D29">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="E29" t="s">
         <v>68</v>
@@ -2184,10 +2205,10 @@
         <v>57</v>
       </c>
       <c r="C30" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D30">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="E30" t="s">
         <v>68</v>
@@ -2204,10 +2225,10 @@
         <v>57</v>
       </c>
       <c r="C31" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D31">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="E31" t="s">
         <v>68</v>
@@ -2224,10 +2245,10 @@
         <v>57</v>
       </c>
       <c r="C32" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="D32">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="E32" t="s">
         <v>68</v>
@@ -2244,13 +2265,13 @@
         <v>57</v>
       </c>
       <c r="C33" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="D33">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="E33" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="F33" t="b">
         <v>0</v>
@@ -2261,16 +2282,16 @@
         <v>27</v>
       </c>
       <c r="B34" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C34" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="D34">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E34" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="F34" t="b">
         <v>0</v>
@@ -2284,10 +2305,10 @@
         <v>58</v>
       </c>
       <c r="C35" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="D35">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="E35" t="s">
         <v>68</v>
@@ -2304,13 +2325,13 @@
         <v>58</v>
       </c>
       <c r="C36" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D36">
-        <v>0.5</v>
+        <v>30</v>
       </c>
       <c r="E36" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="F36" t="b">
         <v>0</v>
@@ -2324,13 +2345,13 @@
         <v>58</v>
       </c>
       <c r="C37" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="D37">
-        <v>200</v>
+        <v>0.5</v>
       </c>
       <c r="E37" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="F37" t="b">
         <v>0</v>
@@ -2344,10 +2365,10 @@
         <v>58</v>
       </c>
       <c r="C38" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D38">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="E38" t="s">
         <v>68</v>
@@ -2358,19 +2379,19 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B39" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C39" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D39">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="E39" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="F39" t="b">
         <v>0</v>
@@ -2384,13 +2405,13 @@
         <v>59</v>
       </c>
       <c r="C40" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D40">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E40" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="F40" t="b">
         <v>0</v>
@@ -2404,10 +2425,10 @@
         <v>59</v>
       </c>
       <c r="C41" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D41">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E41" t="s">
         <v>68</v>
@@ -2424,10 +2445,10 @@
         <v>59</v>
       </c>
       <c r="C42" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D42">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
         <v>68</v>
@@ -2444,7 +2465,7 @@
         <v>59</v>
       </c>
       <c r="C43" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="D43">
         <v>1</v>
@@ -2461,16 +2482,16 @@
         <v>33</v>
       </c>
       <c r="B44" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C44" t="s">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="D44">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E44" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="F44" t="b">
         <v>0</v>
@@ -2484,13 +2505,13 @@
         <v>60</v>
       </c>
       <c r="C45" t="s">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="D45">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E45" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="F45" t="b">
         <v>0</v>
@@ -2504,13 +2525,13 @@
         <v>60</v>
       </c>
       <c r="C46" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="D46">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>94</v>
+        <v>68</v>
       </c>
       <c r="F46" t="b">
         <v>0</v>
@@ -2524,10 +2545,10 @@
         <v>60</v>
       </c>
       <c r="C47" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D47">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E47" t="s">
         <v>94</v>
@@ -2544,10 +2565,10 @@
         <v>60</v>
       </c>
       <c r="C48" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D48">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E48" t="s">
         <v>94</v>
@@ -2564,13 +2585,13 @@
         <v>60</v>
       </c>
       <c r="C49" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D49">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E49" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="F49" t="b">
         <v>0</v>
@@ -2584,15 +2605,35 @@
         <v>60</v>
       </c>
       <c r="C50" t="s">
+        <v>97</v>
+      </c>
+      <c r="D50">
+        <v>1</v>
+      </c>
+      <c r="E50" t="s">
+        <v>76</v>
+      </c>
+      <c r="F50" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>33</v>
+      </c>
+      <c r="B51" t="s">
+        <v>60</v>
+      </c>
+      <c r="C51" t="s">
         <v>98</v>
       </c>
-      <c r="D50">
+      <c r="D51">
         <v>5</v>
       </c>
-      <c r="E50" t="s">
+      <c r="E51" t="s">
         <v>68</v>
       </c>
-      <c r="F50" t="b">
+      <c r="F51" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2606,7 +2647,7 @@
   <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F63" sqref="F63"/>
+      <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2621,255 +2662,258 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="B2" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="B5" t="s">
-        <v>103</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B6" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B7" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>106</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="B9" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B10" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B11" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B12" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="B13" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="B14" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="B15" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="B16" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="B17" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>70</v>
+        <v>96</v>
       </c>
       <c r="B18" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>80</v>
+        <v>9</v>
       </c>
       <c r="B19" t="s">
-        <v>117</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>9</v>
+        <v>74</v>
       </c>
       <c r="B20" t="s">
-        <v>10</v>
+        <v>110</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>16</v>
+        <v>78</v>
       </c>
       <c r="B21" t="s">
-        <v>17</v>
+        <v>111</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>22</v>
+        <v>84</v>
       </c>
       <c r="B22" t="s">
-        <v>23</v>
+        <v>112</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>28</v>
+        <v>71</v>
       </c>
       <c r="B23" t="s">
-        <v>29</v>
+        <v>113</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>88</v>
+        <v>16</v>
       </c>
       <c r="B24" t="s">
-        <v>118</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>89</v>
+        <v>28</v>
       </c>
       <c r="B25" t="s">
-        <v>119</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B26" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="B27" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>93</v>
+        <v>70</v>
       </c>
       <c r="B28" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B29" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B30" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="B31" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B31">
+    <sortCondition ref="A2:A31"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:O38"/>
+  <dimension ref="A1:O39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E51" sqref="E51"/>
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3877,6 +3921,23 @@
         <v>0</v>
       </c>
     </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F39" t="s">
+        <v>255</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -3885,10 +3946,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{348BD390-6058-3244-B040-3ECD44D7EDBB}">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F62" sqref="F62"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4107,6 +4168,216 @@
         <v>0</v>
       </c>
     </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" t="s">
+        <v>177</v>
+      </c>
+      <c r="C16" t="s">
+        <v>170</v>
+      </c>
+      <c r="D16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" t="s">
+        <v>251</v>
+      </c>
+      <c r="C17" t="s">
+        <v>250</v>
+      </c>
+      <c r="D17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" t="s">
+        <v>252</v>
+      </c>
+      <c r="C18" t="s">
+        <v>249</v>
+      </c>
+      <c r="D18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" t="s">
+        <v>178</v>
+      </c>
+      <c r="C19" t="s">
+        <v>171</v>
+      </c>
+      <c r="D19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" t="s">
+        <v>176</v>
+      </c>
+      <c r="C20" t="s">
+        <v>169</v>
+      </c>
+      <c r="D20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" t="s">
+        <v>204</v>
+      </c>
+      <c r="C21" t="s">
+        <v>201</v>
+      </c>
+      <c r="D21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" t="s">
+        <v>204</v>
+      </c>
+      <c r="C22" t="s">
+        <v>201</v>
+      </c>
+      <c r="D22" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" t="s">
+        <v>177</v>
+      </c>
+      <c r="C23" t="s">
+        <v>170</v>
+      </c>
+      <c r="D23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" t="s">
+        <v>178</v>
+      </c>
+      <c r="C24" t="s">
+        <v>171</v>
+      </c>
+      <c r="D24" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" t="s">
+        <v>205</v>
+      </c>
+      <c r="C25" t="s">
+        <v>206</v>
+      </c>
+      <c r="D25" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" t="s">
+        <v>176</v>
+      </c>
+      <c r="C26" t="s">
+        <v>169</v>
+      </c>
+      <c r="D26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" t="s">
+        <v>203</v>
+      </c>
+      <c r="C27" t="s">
+        <v>202</v>
+      </c>
+      <c r="D27" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28" t="s">
+        <v>178</v>
+      </c>
+      <c r="C28" t="s">
+        <v>171</v>
+      </c>
+      <c r="D28" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29" t="s">
+        <v>204</v>
+      </c>
+      <c r="C29" t="s">
+        <v>201</v>
+      </c>
+      <c r="D29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" t="s">
+        <v>253</v>
+      </c>
+      <c r="C30" t="s">
+        <v>254</v>
+      </c>
+      <c r="D30" t="b">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Recipe_Database_Corrected.xlsx
+++ b/Recipe_Database_Corrected.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taiyenwu/Downloads/Chef Tai/github/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70BB9FF4-1EC3-7B45-8E55-8B673002124E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D33579E-BC6E-0345-AC5B-2397A86FA2EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20520" yWindow="500" windowWidth="48220" windowHeight="26600" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20520" yWindow="500" windowWidth="48220" windowHeight="26600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Recipes" sheetId="1" r:id="rId1"/>
@@ -141,9 +141,6 @@
     <t>200C/400F</t>
   </si>
   <si>
-    <t>https://i.imgur.com/TvxBgLp.jpeg</t>
-  </si>
-  <si>
     <t>ComponentID</t>
   </si>
   <si>
@@ -803,13 +800,16 @@
   </si>
   <si>
     <t>將雞腿清洗後撒上鹽 黑白胡椒 小蘇打粉 蒜末混合後醃製10分鐘</t>
+  </si>
+  <si>
+    <t>https://imgur.com/a/Ryja1g5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -827,6 +827,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -875,10 +883,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -899,8 +908,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1203,8 +1214,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1242,16 +1253,16 @@
         <v>7</v>
       </c>
       <c r="I1" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="J1" s="3" t="s">
-        <v>129</v>
-      </c>
       <c r="K1" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="L1" s="3" t="s">
         <v>132</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -1280,16 +1291,16 @@
         <v>14</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -1318,16 +1329,16 @@
         <v>20</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
@@ -1356,16 +1367,16 @@
         <v>26</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
@@ -1394,16 +1405,16 @@
         <v>32</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
@@ -1428,26 +1439,29 @@
       <c r="G6">
         <v>50</v>
       </c>
-      <c r="H6" t="s">
-        <v>38</v>
+      <c r="H6" s="8" t="s">
+        <v>255</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="J8" s="3"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H6" r:id="rId1" xr:uid="{F2DB36E1-446F-9544-A483-E4E5A80C19F2}"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -1464,142 +1478,142 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
       </c>
       <c r="C2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" t="s">
         <v>43</v>
-      </c>
-      <c r="D2" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
       </c>
       <c r="C3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" t="s">
         <v>46</v>
-      </c>
-      <c r="D3" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B4" t="s">
         <v>15</v>
       </c>
       <c r="C4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" t="s">
         <v>49</v>
-      </c>
-      <c r="D4" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B5" t="s">
         <v>21</v>
       </c>
       <c r="C5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" t="s">
         <v>52</v>
-      </c>
-      <c r="D5" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B6" t="s">
         <v>21</v>
       </c>
       <c r="C6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" t="s">
         <v>55</v>
-      </c>
-      <c r="D6" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B7" t="s">
         <v>27</v>
       </c>
       <c r="C7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" t="s">
         <v>43</v>
-      </c>
-      <c r="D7" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B8" t="s">
         <v>27</v>
       </c>
       <c r="C8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" t="s">
         <v>46</v>
-      </c>
-      <c r="D8" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B9" t="s">
         <v>33</v>
       </c>
       <c r="C9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" t="s">
         <v>49</v>
-      </c>
-      <c r="D9" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B10" t="s">
         <v>33</v>
       </c>
       <c r="C10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D10" t="s">
         <v>61</v>
-      </c>
-      <c r="D10" t="s">
-        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -1622,19 +1636,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -1642,16 +1656,16 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D2">
         <v>120</v>
       </c>
       <c r="E2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F2" t="b">
         <v>0</v>
@@ -1662,16 +1676,16 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D3">
         <v>90</v>
       </c>
       <c r="E3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F3" t="b">
         <v>0</v>
@@ -1682,16 +1696,16 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D4">
         <v>20</v>
       </c>
       <c r="E4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F4" t="b">
         <v>0</v>
@@ -1702,16 +1716,16 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F5" t="b">
         <v>1</v>
@@ -1722,16 +1736,16 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D6">
         <v>60</v>
       </c>
       <c r="E6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F6" t="b">
         <v>0</v>
@@ -1742,16 +1756,16 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D7">
         <v>80</v>
       </c>
       <c r="E7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F7" t="b">
         <v>0</v>
@@ -1762,16 +1776,16 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D8">
         <v>80</v>
       </c>
       <c r="E8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F8" t="b">
         <v>0</v>
@@ -1782,16 +1796,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D9">
         <v>2</v>
       </c>
       <c r="E9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F9" t="b">
         <v>0</v>
@@ -1802,16 +1816,16 @@
         <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D10">
         <v>210</v>
       </c>
       <c r="E10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F10" t="b">
         <v>0</v>
@@ -1822,16 +1836,16 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D11">
         <v>8</v>
       </c>
       <c r="E11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F11" t="b">
         <v>0</v>
@@ -1842,16 +1856,16 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D12">
         <v>55</v>
       </c>
       <c r="E12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F12" t="b">
         <v>0</v>
@@ -1862,16 +1876,16 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D13">
         <v>50</v>
       </c>
       <c r="E13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F13" t="b">
         <v>0</v>
@@ -1882,16 +1896,16 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D14">
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F14" t="b">
         <v>0</v>
@@ -1902,16 +1916,16 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D15">
         <v>85</v>
       </c>
       <c r="E15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F15" t="b">
         <v>0</v>
@@ -1922,16 +1936,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D16">
         <v>0.5</v>
       </c>
       <c r="E16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F16" t="b">
         <v>0</v>
@@ -1942,16 +1956,16 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D17">
         <v>1</v>
       </c>
       <c r="E17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F17" t="b">
         <v>0</v>
@@ -1962,16 +1976,16 @@
         <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D18">
         <v>60</v>
       </c>
       <c r="E18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F18" t="b">
         <v>0</v>
@@ -1982,16 +1996,16 @@
         <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D19">
         <v>25</v>
       </c>
       <c r="E19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F19" t="b">
         <v>0</v>
@@ -2002,16 +2016,16 @@
         <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D20">
         <v>50</v>
       </c>
       <c r="E20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F20" t="b">
         <v>0</v>
@@ -2022,16 +2036,16 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D21">
         <v>30</v>
       </c>
       <c r="E21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F21" t="b">
         <v>0</v>
@@ -2042,16 +2056,16 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D22">
         <v>1</v>
       </c>
       <c r="E22" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F22" t="b">
         <v>0</v>
@@ -2062,16 +2076,16 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C23" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D23">
         <v>200</v>
       </c>
       <c r="E23" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F23" t="b">
         <v>0</v>
@@ -2082,16 +2096,16 @@
         <v>21</v>
       </c>
       <c r="B24" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C24" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D24">
         <v>140</v>
       </c>
       <c r="E24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F24" t="b">
         <v>0</v>
@@ -2102,16 +2116,16 @@
         <v>21</v>
       </c>
       <c r="B25" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C25" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D25">
         <v>4</v>
       </c>
       <c r="E25" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F25" t="b">
         <v>1</v>
@@ -2122,16 +2136,16 @@
         <v>21</v>
       </c>
       <c r="B26" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C26" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D26">
         <v>2</v>
       </c>
       <c r="E26" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F26" t="b">
         <v>0</v>
@@ -2142,16 +2156,16 @@
         <v>21</v>
       </c>
       <c r="B27" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C27" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D27">
         <v>1</v>
       </c>
       <c r="E27" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F27" t="b">
         <v>0</v>
@@ -2162,16 +2176,16 @@
         <v>21</v>
       </c>
       <c r="B28" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C28" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D28">
         <v>1</v>
       </c>
       <c r="E28" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F28" t="b">
         <v>1</v>
@@ -2182,16 +2196,16 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C29" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D29">
         <v>150</v>
       </c>
       <c r="E29" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F29" t="b">
         <v>0</v>
@@ -2202,16 +2216,16 @@
         <v>27</v>
       </c>
       <c r="B30" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C30" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D30">
         <v>100</v>
       </c>
       <c r="E30" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F30" t="b">
         <v>0</v>
@@ -2222,16 +2236,16 @@
         <v>27</v>
       </c>
       <c r="B31" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C31" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D31">
         <v>20</v>
       </c>
       <c r="E31" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F31" t="b">
         <v>0</v>
@@ -2242,16 +2256,16 @@
         <v>27</v>
       </c>
       <c r="B32" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C32" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D32">
         <v>1</v>
       </c>
       <c r="E32" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F32" t="b">
         <v>0</v>
@@ -2262,16 +2276,16 @@
         <v>27</v>
       </c>
       <c r="B33" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C33" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D33">
         <v>60</v>
       </c>
       <c r="E33" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F33" t="b">
         <v>0</v>
@@ -2282,16 +2296,16 @@
         <v>27</v>
       </c>
       <c r="B34" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C34" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D34">
         <v>1</v>
       </c>
       <c r="E34" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F34" t="b">
         <v>0</v>
@@ -2302,16 +2316,16 @@
         <v>27</v>
       </c>
       <c r="B35" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C35" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D35">
         <v>6</v>
       </c>
       <c r="E35" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F35" t="b">
         <v>0</v>
@@ -2322,16 +2336,16 @@
         <v>27</v>
       </c>
       <c r="B36" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C36" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D36">
         <v>30</v>
       </c>
       <c r="E36" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F36" t="b">
         <v>0</v>
@@ -2342,16 +2356,16 @@
         <v>27</v>
       </c>
       <c r="B37" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C37" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D37">
         <v>0.5</v>
       </c>
       <c r="E37" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F37" t="b">
         <v>0</v>
@@ -2362,16 +2376,16 @@
         <v>27</v>
       </c>
       <c r="B38" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C38" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D38">
         <v>200</v>
       </c>
       <c r="E38" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F38" t="b">
         <v>0</v>
@@ -2382,16 +2396,16 @@
         <v>27</v>
       </c>
       <c r="B39" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C39" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D39">
         <v>40</v>
       </c>
       <c r="E39" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F39" t="b">
         <v>0</v>
@@ -2402,16 +2416,16 @@
         <v>33</v>
       </c>
       <c r="B40" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C40" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D40">
         <v>4</v>
       </c>
       <c r="E40" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F40" t="b">
         <v>0</v>
@@ -2422,16 +2436,16 @@
         <v>33</v>
       </c>
       <c r="B41" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D41">
         <v>1</v>
       </c>
       <c r="E41" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F41" t="b">
         <v>0</v>
@@ -2442,16 +2456,16 @@
         <v>33</v>
       </c>
       <c r="B42" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C42" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D42">
         <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F42" t="b">
         <v>0</v>
@@ -2462,16 +2476,16 @@
         <v>33</v>
       </c>
       <c r="B43" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C43" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D43">
         <v>1</v>
       </c>
       <c r="E43" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F43" t="b">
         <v>0</v>
@@ -2482,16 +2496,16 @@
         <v>33</v>
       </c>
       <c r="B44" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C44" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D44">
         <v>1</v>
       </c>
       <c r="E44" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F44" t="b">
         <v>0</v>
@@ -2502,16 +2516,16 @@
         <v>33</v>
       </c>
       <c r="B45" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C45" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D45">
         <v>3</v>
       </c>
       <c r="E45" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F45" t="b">
         <v>0</v>
@@ -2522,16 +2536,16 @@
         <v>33</v>
       </c>
       <c r="B46" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C46" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D46">
         <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F46" t="b">
         <v>0</v>
@@ -2542,16 +2556,16 @@
         <v>33</v>
       </c>
       <c r="B47" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C47" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D47">
         <v>1</v>
       </c>
       <c r="E47" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F47" t="b">
         <v>0</v>
@@ -2562,16 +2576,16 @@
         <v>33</v>
       </c>
       <c r="B48" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C48" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D48">
         <v>3</v>
       </c>
       <c r="E48" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F48" t="b">
         <v>0</v>
@@ -2582,16 +2596,16 @@
         <v>33</v>
       </c>
       <c r="B49" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C49" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D49">
         <v>2</v>
       </c>
       <c r="E49" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F49" t="b">
         <v>0</v>
@@ -2602,16 +2616,16 @@
         <v>33</v>
       </c>
       <c r="B50" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C50" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D50">
         <v>1</v>
       </c>
       <c r="E50" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F50" t="b">
         <v>0</v>
@@ -2622,16 +2636,16 @@
         <v>33</v>
       </c>
       <c r="B51" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C51" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D51">
         <v>5</v>
       </c>
       <c r="E51" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F51" t="b">
         <v>0</v>
@@ -2654,58 +2668,58 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -2718,82 +2732,82 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B13" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B15" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B16" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B18" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -2806,34 +2820,34 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B21" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B22" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B23" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
@@ -2854,50 +2868,50 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B26" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B27" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B28" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B29" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B30" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B31" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -2912,7 +2926,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:O39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
@@ -2933,25 +2947,25 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>127</v>
-      </c>
       <c r="G1" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>165</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -2962,16 +2976,16 @@
         <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G2" s="4">
         <v>2</v>
@@ -2988,16 +3002,16 @@
         <v>2</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G3" s="4">
         <v>5</v>
@@ -3014,16 +3028,16 @@
         <v>3</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G4" s="4">
         <v>2</v>
@@ -3040,16 +3054,16 @@
         <v>4</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G5" s="4">
         <v>22</v>
@@ -3066,16 +3080,16 @@
         <v>5</v>
       </c>
       <c r="C6" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>47</v>
-      </c>
       <c r="E6" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G6" s="4">
         <v>5</v>
@@ -3092,16 +3106,16 @@
         <v>6</v>
       </c>
       <c r="C7" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>47</v>
-      </c>
       <c r="E7" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G7" s="4">
         <v>1</v>
@@ -3118,16 +3132,16 @@
         <v>7</v>
       </c>
       <c r="C8" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>47</v>
-      </c>
       <c r="E8" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G8" s="4">
         <v>10</v>
@@ -3144,16 +3158,16 @@
         <v>8</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G9" s="4">
         <v>2</v>
@@ -3170,16 +3184,16 @@
         <v>1</v>
       </c>
       <c r="C10" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>50</v>
-      </c>
       <c r="E10" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G10" s="4">
         <v>3</v>
@@ -3196,16 +3210,16 @@
         <v>2</v>
       </c>
       <c r="C11" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D11" s="4" t="s">
-        <v>50</v>
-      </c>
       <c r="E11" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G11" s="4">
         <v>5</v>
@@ -3222,16 +3236,16 @@
         <v>3</v>
       </c>
       <c r="C12" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D12" s="4" t="s">
-        <v>50</v>
-      </c>
       <c r="E12" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G12" s="4">
         <v>2</v>
@@ -3248,16 +3262,16 @@
         <v>4</v>
       </c>
       <c r="C13" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D13" s="4" t="s">
-        <v>50</v>
-      </c>
       <c r="E13" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G13" s="4">
         <v>5</v>
@@ -3274,16 +3288,16 @@
         <v>5</v>
       </c>
       <c r="C14" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D14" s="4" t="s">
-        <v>50</v>
-      </c>
       <c r="E14" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G14" s="4">
         <v>3</v>
@@ -3300,16 +3314,16 @@
         <v>6</v>
       </c>
       <c r="C15" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="4" t="s">
-        <v>50</v>
-      </c>
       <c r="E15" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G15" s="4">
         <v>2</v>
@@ -3326,16 +3340,16 @@
         <v>7</v>
       </c>
       <c r="C16" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D16" s="4" t="s">
-        <v>50</v>
-      </c>
       <c r="E16" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G16" s="4">
         <v>1</v>
@@ -3352,16 +3366,16 @@
         <v>8</v>
       </c>
       <c r="C17" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D17" s="4" t="s">
-        <v>50</v>
-      </c>
       <c r="E17" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G17" s="4">
         <v>20</v>
@@ -3378,16 +3392,16 @@
         <v>1</v>
       </c>
       <c r="C18" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D18" s="4" t="s">
-        <v>53</v>
-      </c>
       <c r="E18" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G18" s="4">
         <v>5</v>
@@ -3404,16 +3418,16 @@
         <v>2</v>
       </c>
       <c r="C19" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D19" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D19" s="4" t="s">
-        <v>53</v>
-      </c>
       <c r="E19" s="6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G19" s="4">
         <v>3</v>
@@ -3430,16 +3444,16 @@
         <v>3</v>
       </c>
       <c r="C20" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D20" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D20" s="4" t="s">
-        <v>53</v>
-      </c>
       <c r="E20" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G20" s="4">
         <v>10</v>
@@ -3456,16 +3470,16 @@
         <v>4</v>
       </c>
       <c r="C21" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D21" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D21" s="4" t="s">
-        <v>56</v>
-      </c>
       <c r="E21" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G21" s="4">
         <v>1</v>
@@ -3482,16 +3496,16 @@
         <v>5</v>
       </c>
       <c r="C22" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D22" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D22" s="4" t="s">
-        <v>56</v>
-      </c>
       <c r="E22" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G22" s="4">
         <v>3</v>
@@ -3508,16 +3522,16 @@
         <v>6</v>
       </c>
       <c r="C23" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D23" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D23" s="4" t="s">
-        <v>56</v>
-      </c>
       <c r="E23" s="6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G23" s="4">
         <v>1</v>
@@ -3534,16 +3548,16 @@
         <v>7</v>
       </c>
       <c r="C24" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D24" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D24" s="4" t="s">
-        <v>56</v>
-      </c>
       <c r="E24" s="6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G24" s="4">
         <v>1</v>
@@ -3565,16 +3579,16 @@
         <v>8</v>
       </c>
       <c r="C25" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D25" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D25" s="4" t="s">
-        <v>56</v>
-      </c>
       <c r="E25" s="6" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F25" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G25" s="4">
         <v>5</v>
@@ -3591,16 +3605,16 @@
         <v>9</v>
       </c>
       <c r="C26" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D26" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D26" s="4" t="s">
-        <v>56</v>
-      </c>
       <c r="E26" s="6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G26" s="4">
         <v>3</v>
@@ -3617,16 +3631,16 @@
         <v>10</v>
       </c>
       <c r="C27" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D27" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D27" s="4" t="s">
-        <v>56</v>
-      </c>
       <c r="E27" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G27" s="4">
         <v>2</v>
@@ -3635,7 +3649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
         <v>21</v>
       </c>
@@ -3643,16 +3657,16 @@
         <v>11</v>
       </c>
       <c r="C28" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D28" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D28" s="4" t="s">
-        <v>56</v>
-      </c>
       <c r="E28" s="7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G28" s="4">
         <v>65</v>
@@ -3669,16 +3683,16 @@
         <v>12</v>
       </c>
       <c r="C29" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D29" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D29" s="4" t="s">
-        <v>56</v>
-      </c>
       <c r="E29" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G29" s="4">
         <v>0</v>
@@ -3695,16 +3709,16 @@
         <v>1</v>
       </c>
       <c r="C30" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D30" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D30" s="4" t="s">
-        <v>44</v>
-      </c>
       <c r="E30" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G30" s="4">
         <v>1</v>
@@ -3721,16 +3735,16 @@
         <v>2</v>
       </c>
       <c r="C31" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D31" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D31" s="4" t="s">
-        <v>44</v>
-      </c>
       <c r="E31" s="6" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G31" s="4">
         <v>3</v>
@@ -3747,16 +3761,16 @@
         <v>3</v>
       </c>
       <c r="C32" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D32" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D32" s="4" t="s">
-        <v>44</v>
-      </c>
       <c r="E32" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G32" s="4">
         <v>60</v>
@@ -3773,16 +3787,16 @@
         <v>4</v>
       </c>
       <c r="C33" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D33" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D33" s="4" t="s">
-        <v>47</v>
-      </c>
       <c r="E33" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F33" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G33" s="4">
         <v>5</v>
@@ -3799,16 +3813,16 @@
         <v>5</v>
       </c>
       <c r="C34" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D34" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D34" s="4" t="s">
-        <v>47</v>
-      </c>
       <c r="E34" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F34" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G34" s="4">
         <v>3</v>
@@ -3825,16 +3839,16 @@
         <v>6</v>
       </c>
       <c r="C35" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D35" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D35" s="4" t="s">
-        <v>50</v>
-      </c>
       <c r="E35" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F35" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G35" s="4">
         <v>3</v>
@@ -3851,16 +3865,16 @@
         <v>7</v>
       </c>
       <c r="C36" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D36" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D36" s="4" t="s">
-        <v>50</v>
-      </c>
       <c r="E36" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F36" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G36" s="4">
         <v>5</v>
@@ -3877,16 +3891,16 @@
         <v>8</v>
       </c>
       <c r="C37" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D37" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D37" s="4" t="s">
-        <v>50</v>
-      </c>
       <c r="E37" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F37" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G37" s="4">
         <v>2</v>
@@ -3903,16 +3917,16 @@
         <v>9</v>
       </c>
       <c r="C38" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D38" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D38" s="4" t="s">
-        <v>50</v>
-      </c>
       <c r="E38" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F38" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G38" s="4">
         <v>25</v>
@@ -3929,13 +3943,13 @@
         <v>1</v>
       </c>
       <c r="C39" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D39" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D39" s="4" t="s">
-        <v>50</v>
-      </c>
       <c r="F39" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
   </sheetData>
@@ -3963,13 +3977,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C1" t="s">
         <v>167</v>
       </c>
-      <c r="C1" t="s">
-        <v>168</v>
-      </c>
       <c r="D1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -3977,10 +3991,10 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D2" t="b">
         <v>0</v>
@@ -3991,10 +4005,10 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D3" t="b">
         <v>0</v>
@@ -4005,10 +4019,10 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D4" t="b">
         <v>0</v>
@@ -4019,10 +4033,10 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D5" t="b">
         <v>0</v>
@@ -4033,10 +4047,10 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D6" t="b">
         <v>0</v>
@@ -4047,10 +4061,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D7" t="b">
         <v>0</v>
@@ -4061,10 +4075,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C8" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D8" t="b">
         <v>0</v>
@@ -4075,10 +4089,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
+        <v>181</v>
+      </c>
+      <c r="C9" t="s">
         <v>182</v>
-      </c>
-      <c r="C9" t="s">
-        <v>183</v>
       </c>
       <c r="D9" t="b">
         <v>1</v>
@@ -4089,10 +4103,10 @@
         <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D10" t="b">
         <v>0</v>
@@ -4103,10 +4117,10 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C11" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D11" t="b">
         <v>0</v>
@@ -4117,10 +4131,10 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C12" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D12" t="b">
         <v>0</v>
@@ -4131,10 +4145,10 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
+        <v>204</v>
+      </c>
+      <c r="C13" t="s">
         <v>205</v>
-      </c>
-      <c r="C13" t="s">
-        <v>206</v>
       </c>
       <c r="D13" t="b">
         <v>1</v>
@@ -4145,10 +4159,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C14" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D14" t="b">
         <v>0</v>
@@ -4159,10 +4173,10 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D15" t="b">
         <v>0</v>
@@ -4173,10 +4187,10 @@
         <v>21</v>
       </c>
       <c r="B16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C16" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D16" t="b">
         <v>0</v>
@@ -4187,10 +4201,10 @@
         <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C17" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D17" t="b">
         <v>0</v>
@@ -4201,10 +4215,10 @@
         <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C18" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D18" t="b">
         <v>0</v>
@@ -4215,10 +4229,10 @@
         <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C19" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D19" t="b">
         <v>0</v>
@@ -4229,10 +4243,10 @@
         <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C20" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D20" t="b">
         <v>0</v>
@@ -4243,10 +4257,10 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C21" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D21" t="b">
         <v>0</v>
@@ -4257,10 +4271,10 @@
         <v>27</v>
       </c>
       <c r="B22" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C22" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D22" t="b">
         <v>0</v>
@@ -4271,10 +4285,10 @@
         <v>27</v>
       </c>
       <c r="B23" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C23" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D23" t="b">
         <v>0</v>
@@ -4285,10 +4299,10 @@
         <v>27</v>
       </c>
       <c r="B24" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C24" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D24" t="b">
         <v>0</v>
@@ -4299,10 +4313,10 @@
         <v>27</v>
       </c>
       <c r="B25" t="s">
+        <v>204</v>
+      </c>
+      <c r="C25" t="s">
         <v>205</v>
-      </c>
-      <c r="C25" t="s">
-        <v>206</v>
       </c>
       <c r="D25" t="b">
         <v>1</v>
@@ -4313,10 +4327,10 @@
         <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C26" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D26" t="b">
         <v>0</v>
@@ -4327,10 +4341,10 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C27" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D27" t="b">
         <v>0</v>
@@ -4341,10 +4355,10 @@
         <v>33</v>
       </c>
       <c r="B28" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C28" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D28" t="b">
         <v>0</v>
@@ -4355,10 +4369,10 @@
         <v>33</v>
       </c>
       <c r="B29" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C29" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D29" t="b">
         <v>0</v>
@@ -4369,10 +4383,10 @@
         <v>33</v>
       </c>
       <c r="B30" t="s">
+        <v>252</v>
+      </c>
+      <c r="C30" t="s">
         <v>253</v>
-      </c>
-      <c r="C30" t="s">
-        <v>254</v>
       </c>
       <c r="D30" t="b">
         <v>0</v>

--- a/Recipe_Database_Corrected.xlsx
+++ b/Recipe_Database_Corrected.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taiyenwu/Downloads/Chef Tai/github/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D33579E-BC6E-0345-AC5B-2397A86FA2EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D4FBA28-7DCB-2C4A-A707-6B12097D7CDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20520" yWindow="500" windowWidth="48220" windowHeight="26600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -802,7 +802,7 @@
     <t>將雞腿清洗後撒上鹽 黑白胡椒 小蘇打粉 蒜末混合後醃製10分鐘</t>
   </si>
   <si>
-    <t>https://imgur.com/a/Ryja1g5</t>
+    <t>https://i.imgur.com/Zpxq8MV.jpeg</t>
   </si>
 </sst>
 </file>
@@ -1215,7 +1215,7 @@
   <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1459,9 +1459,6 @@
       <c r="J8" s="3"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="H6" r:id="rId1" xr:uid="{F2DB36E1-446F-9544-A483-E4E5A80C19F2}"/>
-  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>

--- a/Recipe_Database_Corrected.xlsx
+++ b/Recipe_Database_Corrected.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taiyenwu/Downloads/Chef Tai/github/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D4FBA28-7DCB-2C4A-A707-6B12097D7CDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B50612A2-4A8F-C64D-83CF-C46F6D17052E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20520" yWindow="500" windowWidth="48220" windowHeight="26600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="26620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Recipes" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="684" uniqueCount="265">
   <si>
     <t>RecipeID</t>
   </si>
@@ -799,17 +799,44 @@
     <t>煎炒鍋</t>
   </si>
   <si>
-    <t>將雞腿清洗後撒上鹽 黑白胡椒 小蘇打粉 蒜末混合後醃製10分鐘</t>
-  </si>
-  <si>
     <t>https://i.imgur.com/Zpxq8MV.jpeg</t>
+  </si>
+  <si>
+    <t>將雞腿清洗乾淨後，撒上鹽、黑白胡椒、小蘇打粉與蒜末，拌勻醃製約 10 分鐘。</t>
+  </si>
+  <si>
+    <t>將雞腿放入烤箱，以 200°C / 400°F 烘烤約 50 分鐘，至表皮微酥金黃。</t>
+  </si>
+  <si>
+    <t>將番茄醬、糖、蜂蜜與韓式辣醬依比例放入平底鍋中，加入適量清水攪拌均勻。</t>
+  </si>
+  <si>
+    <t>放入烤好的雞腿，均勻沾裹醬汁，小火慢煮收汁。</t>
+  </si>
+  <si>
+    <t>起鍋擺盤後，撒上白芝麻並可依喜好加以裝飾與提味。</t>
+  </si>
+  <si>
+    <t>Rinse the chicken drumsticks thoroughly, then season with salt, black and white pepper, baking soda, and minced garlic. Mix well and marinate for about 10 minutes.</t>
+  </si>
+  <si>
+    <t>Place the drumsticks in an oven preheated to 200°C / 400°F and roast for approximately 50 minutes, until the skin turns golden and slightly crispy.</t>
+  </si>
+  <si>
+    <t>In a skillet, combine ketchup, sugar, honey, and Korean chili paste in desired proportions. Add a suitable amount of water and mix well.</t>
+  </si>
+  <si>
+    <t>Add the roasted drumsticks to the skillet, coating them evenly with the sauce. Simmer over low heat until the sauce thickens and clings to the chicken.</t>
+  </si>
+  <si>
+    <t>Plate the drumsticks, sprinkle with white sesame seeds, and garnish or season as desired before serving.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -827,14 +854,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -883,11 +902,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -908,10 +926,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1212,10 +1228,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1439,8 +1455,8 @@
       <c r="G6">
         <v>50</v>
       </c>
-      <c r="H6" s="8" t="s">
-        <v>255</v>
+      <c r="H6" t="s">
+        <v>254</v>
       </c>
       <c r="I6" s="4" t="s">
         <v>130</v>
@@ -1455,10 +1471,10 @@
         <v>140</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="J8" s="3"/>
-    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H6" r:id="rId1" xr:uid="{C76906DE-C94F-294E-9842-D036BA878300}"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -1468,7 +1484,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="H54" sqref="H54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2921,10 +2937,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:O39"/>
+  <dimension ref="A1:O43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="E53" sqref="E53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3936,7 +3952,7 @@
       <c r="A39" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="4">
         <v>1</v>
       </c>
       <c r="C39" s="4" t="s">
@@ -3945,8 +3961,121 @@
       <c r="D39" s="4" t="s">
         <v>49</v>
       </c>
+      <c r="E39" t="s">
+        <v>260</v>
+      </c>
       <c r="F39" t="s">
-        <v>254</v>
+        <v>255</v>
+      </c>
+      <c r="G39" s="4">
+        <v>10</v>
+      </c>
+      <c r="H39" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B40" s="4">
+        <v>2</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E40" t="s">
+        <v>261</v>
+      </c>
+      <c r="F40" t="s">
+        <v>256</v>
+      </c>
+      <c r="G40" s="4">
+        <v>50</v>
+      </c>
+      <c r="H40" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B41" s="4">
+        <v>3</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E41" t="s">
+        <v>262</v>
+      </c>
+      <c r="F41" t="s">
+        <v>257</v>
+      </c>
+      <c r="G41" s="4">
+        <v>5</v>
+      </c>
+      <c r="H41" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A42" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B42" s="4">
+        <v>4</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E42" t="s">
+        <v>263</v>
+      </c>
+      <c r="F42" t="s">
+        <v>258</v>
+      </c>
+      <c r="G42" s="4">
+        <v>5</v>
+      </c>
+      <c r="H42" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A43" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B43" s="4">
+        <v>5</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E43" t="s">
+        <v>264</v>
+      </c>
+      <c r="F43" t="s">
+        <v>259</v>
+      </c>
+      <c r="G43" s="4">
+        <v>1</v>
+      </c>
+      <c r="H43" s="4" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Recipe_Database_Corrected.xlsx
+++ b/Recipe_Database_Corrected.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taiyenwu/Downloads/Chef Tai/github/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B50612A2-4A8F-C64D-83CF-C46F6D17052E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92927913-724D-A14E-9161-D22C70CF24D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="26620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="26620" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Recipes" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="684" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="846" uniqueCount="311">
   <si>
     <t>RecipeID</t>
   </si>
@@ -830,13 +830,153 @@
   </si>
   <si>
     <t>Plate the drumsticks, sprinkle with white sesame seeds, and garnish or season as desired before serving.</t>
+  </si>
+  <si>
+    <t>R006</t>
+  </si>
+  <si>
+    <t>4ea</t>
+  </si>
+  <si>
+    <t>Pork Cheese Burger</t>
+  </si>
+  <si>
+    <t>豬肉起司漢堡</t>
+  </si>
+  <si>
+    <t>Fry</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/TosqXXp.jpeg</t>
+  </si>
+  <si>
+    <t>肉餡</t>
+  </si>
+  <si>
+    <t>Patty</t>
+  </si>
+  <si>
+    <t>C010</t>
+  </si>
+  <si>
+    <t>C011</t>
+  </si>
+  <si>
+    <t>C012</t>
+  </si>
+  <si>
+    <t>豬絞肉</t>
+  </si>
+  <si>
+    <t>洋蔥</t>
+  </si>
+  <si>
+    <t>漢堡麵包</t>
+  </si>
+  <si>
+    <t>生菜</t>
+  </si>
+  <si>
+    <t>美乃滋</t>
+  </si>
+  <si>
+    <t>義式香料</t>
+  </si>
+  <si>
+    <t>塔巴斯科辣椒</t>
+  </si>
+  <si>
+    <t>起司片</t>
+  </si>
+  <si>
+    <t>蘑菇</t>
+  </si>
+  <si>
+    <t>Ground pork</t>
+  </si>
+  <si>
+    <t>Onion</t>
+  </si>
+  <si>
+    <t>Burger bun</t>
+  </si>
+  <si>
+    <t>Lettuce</t>
+  </si>
+  <si>
+    <t>Mayonnaise</t>
+  </si>
+  <si>
+    <t>Tabasco sauce</t>
+  </si>
+  <si>
+    <t>Cheese slice</t>
+  </si>
+  <si>
+    <t>Mushroom</t>
+  </si>
+  <si>
+    <t>Italian seasoning</t>
+  </si>
+  <si>
+    <t>slice</t>
+  </si>
+  <si>
+    <t>將絞肉與洋蔥放入碗中，加入鹽、黑胡椒與義式香料調味。</t>
+  </si>
+  <si>
+    <t>打入雞蛋後，用手充分攪拌均勻，靜置 5 分鐘讓食材融合。</t>
+  </si>
+  <si>
+    <t>將肉餡分成等份，用雙手來回摔打塑形成圓形肉排（可排出空氣）。</t>
+  </si>
+  <si>
+    <t>將番茄醬與美乃滋以 1:1 比例混合，加入黑胡椒、義式香料、適量 Tabasco 與白蘭地調味，攪拌均勻備用。</t>
+  </si>
+  <si>
+    <t>漢堡麵包放入烤箱，預熱或加熱約 3 分鐘。</t>
+  </si>
+  <si>
+    <t>鍋中加少許油，炒香洋蔥與蘑菇，加入鹽與黑胡椒調味，可視口味加入少量白蘭地，炒好後取出備用。</t>
+  </si>
+  <si>
+    <t>組裝漢堡：漢堡麵包塗上醬料，依序放上生菜、肉排、番茄片、炒蘑菇與洋蔥，即可享用。</t>
+  </si>
+  <si>
+    <t>Place the ground pork and chopped onion in a bowl. Season with salt, black pepper, and Italian herbs.</t>
+  </si>
+  <si>
+    <t>Crack in the egg and mix thoroughly by hand. Let the mixture rest for 5 minutes.</t>
+  </si>
+  <si>
+    <t>Divide into equal portions and shape into round patties by tossing the mixture between your hands to remove excess air.</t>
+  </si>
+  <si>
+    <t>In a separate bowl, combine ketchup and mayonnaise (1:1 ratio). Add black pepper, Italian herbs, a dash of Tabasco, and a splash of brandy. Mix well to create the sauce.</t>
+  </si>
+  <si>
+    <t>Toast the burger buns in the oven for about 3 minutes.</t>
+  </si>
+  <si>
+    <t>In a pan, heat a little oil and sauté the onions and mushrooms. Season with salt and black pepper. Optional: add a splash of brandy for extra flavor. Set aside.</t>
+  </si>
+  <si>
+    <t>Assemble the burger: Spread sauce on the buns, then layer with lettuce, pork patty, tomato slices, sautéed mushrooms and onions. Enjoy!</t>
+  </si>
+  <si>
+    <t>In a heated pan with a bit of oil, cook the pork patties for about 10 minutes, flipping occasionally. Before removing from the pan, spread a little sauce on the patty and top with cheese until it melts.
+Note: Avoid overheating the pan to prevent burning the outside while leaving the inside undercooked.</t>
+  </si>
+  <si>
+    <t>熱鍋加少許油，放入豬肉排，煎約 10 分鐘，過程中需翻面。起鍋前在肉排表面抹上少量醬汁，放上起司片至融化。
+筆記：控制中火侯，避免外焦內不熟。</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -852,6 +992,28 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -902,10 +1064,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -926,8 +1089,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1228,14 +1397,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="2" max="2" width="17.1640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="28.83203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.5" customWidth="1"/>
@@ -1471,9 +1641,42 @@
         <v>140</v>
       </c>
     </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>265</v>
+      </c>
+      <c r="B7" t="s">
+        <v>267</v>
+      </c>
+      <c r="C7" t="s">
+        <v>268</v>
+      </c>
+      <c r="D7" t="s">
+        <v>266</v>
+      </c>
+      <c r="E7" t="s">
+        <v>269</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>137</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="H6" r:id="rId1" xr:uid="{C76906DE-C94F-294E-9842-D036BA878300}"/>
+    <hyperlink ref="H7" r:id="rId2" xr:uid="{9AADA651-C399-9541-8F39-30A11B5148B6}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1481,13 +1684,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H54" sqref="H54"/>
+      <selection activeCell="C71" sqref="C71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -1504,145 +1713,191 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="4" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="A3" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="4" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="A4" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="4" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="A5" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="4" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="A6" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="4" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="A7" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="4" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="A8" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="4" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="A9" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="4" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="A10" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="4" t="s">
         <v>61</v>
       </c>
     </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>271</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:F51"/>
+  <dimension ref="A1:L68"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40:E51"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C68" sqref="C68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="13.83203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -2604,7 +2859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>33</v>
       </c>
@@ -2624,7 +2879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>33</v>
       </c>
@@ -2644,7 +2899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>33</v>
       </c>
@@ -2661,6 +2916,358 @@
         <v>67</v>
       </c>
       <c r="F51" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A52" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="C52" t="s">
+        <v>287</v>
+      </c>
+      <c r="D52">
+        <v>4</v>
+      </c>
+      <c r="E52" t="s">
+        <v>75</v>
+      </c>
+      <c r="F52" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A53" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="C53" t="s">
+        <v>288</v>
+      </c>
+      <c r="D53">
+        <v>0.2</v>
+      </c>
+      <c r="E53" t="s">
+        <v>75</v>
+      </c>
+      <c r="F53" t="b">
+        <v>0</v>
+      </c>
+      <c r="I53" s="4"/>
+      <c r="J53" s="4"/>
+      <c r="K53" s="4"/>
+      <c r="L53" s="4"/>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A54" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="C54" t="s">
+        <v>286</v>
+      </c>
+      <c r="D54">
+        <v>0.2</v>
+      </c>
+      <c r="E54" t="s">
+        <v>75</v>
+      </c>
+      <c r="F54" t="b">
+        <v>0</v>
+      </c>
+      <c r="I54" s="4"/>
+      <c r="J54" s="4"/>
+      <c r="K54" s="4"/>
+      <c r="L54" s="4"/>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A55" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="C55" t="s">
+        <v>292</v>
+      </c>
+      <c r="D55">
+        <v>4</v>
+      </c>
+      <c r="E55" t="s">
+        <v>75</v>
+      </c>
+      <c r="F55" t="b">
+        <v>0</v>
+      </c>
+      <c r="I55" s="4"/>
+      <c r="J55" s="4"/>
+      <c r="K55" s="4"/>
+      <c r="L55" s="4"/>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A56" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="C56" t="s">
+        <v>291</v>
+      </c>
+      <c r="D56">
+        <v>4</v>
+      </c>
+      <c r="E56" t="s">
+        <v>294</v>
+      </c>
+      <c r="F56" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A57" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="C57" t="s">
+        <v>95</v>
+      </c>
+      <c r="D57">
+        <v>3</v>
+      </c>
+      <c r="E57" t="s">
+        <v>93</v>
+      </c>
+      <c r="F57" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A58" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="C58" t="s">
+        <v>289</v>
+      </c>
+      <c r="D58">
+        <v>3</v>
+      </c>
+      <c r="E58" t="s">
+        <v>93</v>
+      </c>
+      <c r="F58" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A59" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="C59" t="s">
+        <v>293</v>
+      </c>
+      <c r="D59">
+        <v>1</v>
+      </c>
+      <c r="E59" t="s">
+        <v>67</v>
+      </c>
+      <c r="F59" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A60" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="C60" t="s">
+        <v>290</v>
+      </c>
+      <c r="D60">
+        <v>1</v>
+      </c>
+      <c r="E60" t="s">
+        <v>67</v>
+      </c>
+      <c r="F60" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A61" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="C61" t="s">
+        <v>88</v>
+      </c>
+      <c r="D61">
+        <v>1</v>
+      </c>
+      <c r="E61" t="s">
+        <v>67</v>
+      </c>
+      <c r="F61" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A62" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="C62" t="s">
+        <v>83</v>
+      </c>
+      <c r="D62">
+        <v>2</v>
+      </c>
+      <c r="E62" t="s">
+        <v>67</v>
+      </c>
+      <c r="F62" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A63" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="C63" t="s">
+        <v>285</v>
+      </c>
+      <c r="D63">
+        <v>400</v>
+      </c>
+      <c r="E63" t="s">
+        <v>67</v>
+      </c>
+      <c r="F63" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A64" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="C64" t="s">
+        <v>286</v>
+      </c>
+      <c r="D64">
+        <v>0.5</v>
+      </c>
+      <c r="E64" t="s">
+        <v>75</v>
+      </c>
+      <c r="F64" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A65" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="C65" t="s">
+        <v>293</v>
+      </c>
+      <c r="D65">
+        <v>1</v>
+      </c>
+      <c r="E65" t="s">
+        <v>67</v>
+      </c>
+      <c r="F65" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A66" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="C66" t="s">
+        <v>88</v>
+      </c>
+      <c r="D66">
+        <v>1</v>
+      </c>
+      <c r="E66" t="s">
+        <v>67</v>
+      </c>
+      <c r="F66" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A67" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="C67" t="s">
+        <v>70</v>
+      </c>
+      <c r="D67">
+        <v>1</v>
+      </c>
+      <c r="E67" t="s">
+        <v>67</v>
+      </c>
+      <c r="F67" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A68" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="C68" t="s">
+        <v>74</v>
+      </c>
+      <c r="D68">
+        <v>1</v>
+      </c>
+      <c r="E68" t="s">
+        <v>75</v>
+      </c>
+      <c r="F68" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2671,10 +3278,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:B31"/>
+  <dimension ref="A1:M60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C51" sqref="C51"/>
+      <selection activeCell="M62" sqref="M62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2926,6 +3533,168 @@
       <c r="B31" t="s">
         <v>116</v>
       </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>285</v>
+      </c>
+      <c r="B32" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>286</v>
+      </c>
+      <c r="B33" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>287</v>
+      </c>
+      <c r="B34" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>288</v>
+      </c>
+      <c r="B35" t="s">
+        <v>279</v>
+      </c>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="4"/>
+      <c r="K35" s="4"/>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>95</v>
+      </c>
+      <c r="B36" t="s">
+        <v>122</v>
+      </c>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="4"/>
+      <c r="K36" s="4"/>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>289</v>
+      </c>
+      <c r="B37" t="s">
+        <v>280</v>
+      </c>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="4"/>
+      <c r="K37" s="4"/>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>293</v>
+      </c>
+      <c r="B38" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>290</v>
+      </c>
+      <c r="B39" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>291</v>
+      </c>
+      <c r="B40" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>292</v>
+      </c>
+      <c r="B41" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="I44" s="4"/>
+      <c r="J44" s="4"/>
+      <c r="L44" s="4"/>
+      <c r="M44" s="4"/>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="I45" s="4"/>
+      <c r="J45" s="4"/>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="I46" s="4"/>
+      <c r="J46" s="4"/>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="I47" s="4"/>
+      <c r="J47" s="4"/>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="I48" s="4"/>
+      <c r="J48" s="4"/>
+    </row>
+    <row r="49" spans="9:10" x14ac:dyDescent="0.2">
+      <c r="I49" s="4"/>
+      <c r="J49" s="4"/>
+    </row>
+    <row r="50" spans="9:10" x14ac:dyDescent="0.2">
+      <c r="I50" s="4"/>
+      <c r="J50" s="4"/>
+    </row>
+    <row r="51" spans="9:10" x14ac:dyDescent="0.2">
+      <c r="I51" s="4"/>
+      <c r="J51" s="4"/>
+    </row>
+    <row r="52" spans="9:10" x14ac:dyDescent="0.2">
+      <c r="I52" s="4"/>
+      <c r="J52" s="4"/>
+    </row>
+    <row r="53" spans="9:10" x14ac:dyDescent="0.2">
+      <c r="I53" s="4"/>
+      <c r="J53" s="4"/>
+    </row>
+    <row r="54" spans="9:10" x14ac:dyDescent="0.2">
+      <c r="I54" s="4"/>
+      <c r="J54" s="4"/>
+    </row>
+    <row r="55" spans="9:10" x14ac:dyDescent="0.2">
+      <c r="I55" s="4"/>
+      <c r="J55" s="4"/>
+    </row>
+    <row r="56" spans="9:10" x14ac:dyDescent="0.2">
+      <c r="I56" s="4"/>
+      <c r="J56" s="4"/>
+    </row>
+    <row r="57" spans="9:10" x14ac:dyDescent="0.2">
+      <c r="I57" s="4"/>
+      <c r="J57" s="4"/>
+    </row>
+    <row r="58" spans="9:10" x14ac:dyDescent="0.2">
+      <c r="I58" s="4"/>
+      <c r="J58" s="4"/>
+    </row>
+    <row r="59" spans="9:10" x14ac:dyDescent="0.2">
+      <c r="I59" s="4"/>
+      <c r="J59" s="4"/>
+    </row>
+    <row r="60" spans="9:10" x14ac:dyDescent="0.2">
+      <c r="I60" s="4"/>
+      <c r="J60" s="4"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B31">
@@ -2937,10 +3706,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:O43"/>
+  <dimension ref="A1:O70"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="E53" sqref="E53"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2949,7 +3718,7 @@
     <col min="3" max="3" width="9" style="4" customWidth="1"/>
     <col min="4" max="4" width="9.1640625" style="4" customWidth="1"/>
     <col min="5" max="5" width="118.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="68.83203125" customWidth="1"/>
+    <col min="6" max="6" width="123.83203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.1640625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="63.33203125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="60.1640625" bestFit="1" customWidth="1"/>
@@ -4045,10 +4814,10 @@
       <c r="F42" t="s">
         <v>258</v>
       </c>
-      <c r="G42" s="4">
+      <c r="G42" s="10">
         <v>5</v>
       </c>
-      <c r="H42" s="4" t="b">
+      <c r="H42" s="10" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4071,12 +4840,227 @@
       <c r="F43" t="s">
         <v>259</v>
       </c>
-      <c r="G43" s="4">
+      <c r="G43" s="10">
         <v>1</v>
       </c>
-      <c r="H43" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="H43" s="10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A44" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="B44" s="4">
+        <v>1</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="E44" t="s">
+        <v>302</v>
+      </c>
+      <c r="F44" t="s">
+        <v>295</v>
+      </c>
+      <c r="G44" s="10">
+        <v>5</v>
+      </c>
+      <c r="H44" s="10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A45" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="B45" s="4">
+        <v>2</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="E45" t="s">
+        <v>303</v>
+      </c>
+      <c r="F45" t="s">
+        <v>296</v>
+      </c>
+      <c r="G45" s="10">
+        <v>5</v>
+      </c>
+      <c r="H45" s="10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A46" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="B46" s="4">
+        <v>3</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="E46" t="s">
+        <v>304</v>
+      </c>
+      <c r="F46" t="s">
+        <v>297</v>
+      </c>
+      <c r="G46" s="10">
+        <v>3</v>
+      </c>
+      <c r="H46" s="10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A47" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="B47" s="4">
+        <v>4</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E47" t="s">
+        <v>305</v>
+      </c>
+      <c r="F47" t="s">
+        <v>298</v>
+      </c>
+      <c r="G47" s="10">
+        <v>2</v>
+      </c>
+      <c r="H47" s="10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A48" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="B48" s="4">
+        <v>5</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E48" t="s">
+        <v>306</v>
+      </c>
+      <c r="F48" t="s">
+        <v>299</v>
+      </c>
+      <c r="G48" s="10">
+        <v>3</v>
+      </c>
+      <c r="H48" s="10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A49" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="B49" s="4">
+        <v>6</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E49" t="s">
+        <v>307</v>
+      </c>
+      <c r="F49" t="s">
+        <v>300</v>
+      </c>
+      <c r="G49" s="10">
+        <v>5</v>
+      </c>
+      <c r="H49" s="10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+      <c r="A50" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="B50" s="4">
+        <v>7</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E50" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="F50" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="G50" s="10">
+        <v>10</v>
+      </c>
+      <c r="H50" s="10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A51" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="B51" s="4">
+        <v>8</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E51" t="s">
+        <v>308</v>
+      </c>
+      <c r="F51" t="s">
+        <v>301</v>
+      </c>
+      <c r="G51" s="10">
+        <v>5</v>
+      </c>
+      <c r="H51" s="10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G52" s="10"/>
+      <c r="H52" s="10"/>
+    </row>
+    <row r="70" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F70" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4086,10 +5070,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{348BD390-6058-3244-B040-3ECD44D7EDBB}">
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G50" sqref="G50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4518,6 +5502,62 @@
         <v>0</v>
       </c>
     </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="B31" t="s">
+        <v>252</v>
+      </c>
+      <c r="C31" t="s">
+        <v>253</v>
+      </c>
+      <c r="D31" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="B32" t="s">
+        <v>202</v>
+      </c>
+      <c r="C32" t="s">
+        <v>201</v>
+      </c>
+      <c r="D32" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="B33" t="s">
+        <v>177</v>
+      </c>
+      <c r="C33" t="s">
+        <v>170</v>
+      </c>
+      <c r="D33" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="B34" t="s">
+        <v>176</v>
+      </c>
+      <c r="C34" t="s">
+        <v>169</v>
+      </c>
+      <c r="D34" t="b">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Recipe_Database_Corrected.xlsx
+++ b/Recipe_Database_Corrected.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taiyenwu/Downloads/Chef Tai/github/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92927913-724D-A14E-9161-D22C70CF24D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C7E0EE7-707A-ED48-9BF5-285C9550AA13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="26620" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="26620" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Recipes" sheetId="1" r:id="rId1"/>
@@ -1068,7 +1068,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1094,6 +1094,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1890,8 +1891,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L68"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C68" sqref="C68"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2900,62 +2901,62 @@
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
+      <c r="A51" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C51" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="D51">
+      <c r="D51" s="4">
         <v>5</v>
       </c>
-      <c r="E51" t="s">
+      <c r="E51" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="F51" t="b">
+      <c r="F51" s="4" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A52" s="4" t="s">
+      <c r="A52" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="B52" s="4" t="s">
+      <c r="B52" s="11" t="s">
         <v>273</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C52" s="4" t="s">
         <v>287</v>
       </c>
-      <c r="D52">
+      <c r="D52" s="4">
         <v>4</v>
       </c>
-      <c r="E52" t="s">
+      <c r="E52" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="F52" t="b">
+      <c r="F52" s="4" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A53" s="4" t="s">
+      <c r="A53" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="B53" s="4" t="s">
+      <c r="B53" s="11" t="s">
         <v>273</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C53" s="4" t="s">
         <v>288</v>
       </c>
-      <c r="D53">
+      <c r="D53" s="4">
         <v>0.2</v>
       </c>
-      <c r="E53" t="s">
+      <c r="E53" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="F53" t="b">
+      <c r="F53" s="4" t="b">
         <v>0</v>
       </c>
       <c r="I53" s="4"/>
@@ -2964,22 +2965,22 @@
       <c r="L53" s="4"/>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A54" s="4" t="s">
+      <c r="A54" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="B54" s="4" t="s">
+      <c r="B54" s="11" t="s">
         <v>273</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C54" s="4" t="s">
         <v>286</v>
       </c>
-      <c r="D54">
+      <c r="D54" s="4">
         <v>0.2</v>
       </c>
-      <c r="E54" t="s">
+      <c r="E54" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="F54" t="b">
+      <c r="F54" s="4" t="b">
         <v>0</v>
       </c>
       <c r="I54" s="4"/>
@@ -2988,22 +2989,22 @@
       <c r="L54" s="4"/>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A55" s="4" t="s">
+      <c r="A55" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="B55" s="4" t="s">
+      <c r="B55" s="11" t="s">
         <v>273</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C55" s="4" t="s">
         <v>292</v>
       </c>
-      <c r="D55">
+      <c r="D55" s="4">
         <v>4</v>
       </c>
-      <c r="E55" t="s">
+      <c r="E55" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="F55" t="b">
+      <c r="F55" s="4" t="b">
         <v>0</v>
       </c>
       <c r="I55" s="4"/>
@@ -3012,262 +3013,262 @@
       <c r="L55" s="4"/>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A56" s="4" t="s">
+      <c r="A56" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="B56" s="4" t="s">
+      <c r="B56" s="11" t="s">
         <v>273</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C56" s="4" t="s">
         <v>291</v>
       </c>
-      <c r="D56">
+      <c r="D56" s="4">
         <v>4</v>
       </c>
-      <c r="E56" t="s">
+      <c r="E56" s="4" t="s">
         <v>294</v>
       </c>
-      <c r="F56" t="b">
+      <c r="F56" s="4" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A57" s="4" t="s">
+      <c r="A57" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="B57" s="4" t="s">
+      <c r="B57" s="11" t="s">
         <v>274</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C57" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="D57">
+      <c r="D57" s="4">
         <v>3</v>
       </c>
-      <c r="E57" t="s">
+      <c r="E57" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="F57" t="b">
+      <c r="F57" s="4" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A58" s="4" t="s">
+      <c r="A58" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="B58" s="4" t="s">
+      <c r="B58" s="11" t="s">
         <v>274</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C58" s="4" t="s">
         <v>289</v>
       </c>
-      <c r="D58">
+      <c r="D58" s="4">
         <v>3</v>
       </c>
-      <c r="E58" t="s">
+      <c r="E58" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="F58" t="b">
+      <c r="F58" s="4" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A59" s="4" t="s">
+      <c r="A59" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="B59" s="4" t="s">
+      <c r="B59" s="11" t="s">
         <v>274</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C59" s="4" t="s">
         <v>293</v>
       </c>
-      <c r="D59">
+      <c r="D59" s="4">
         <v>1</v>
       </c>
-      <c r="E59" t="s">
+      <c r="E59" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="F59" t="b">
+      <c r="F59" s="4" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A60" s="4" t="s">
+      <c r="A60" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="B60" s="4" t="s">
+      <c r="B60" s="11" t="s">
         <v>274</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C60" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="D60">
+      <c r="D60" s="4">
         <v>1</v>
       </c>
-      <c r="E60" t="s">
+      <c r="E60" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="F60" t="b">
+      <c r="F60" s="4" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A61" s="4" t="s">
+      <c r="A61" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="B61" s="4" t="s">
+      <c r="B61" s="11" t="s">
         <v>274</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C61" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="D61">
+      <c r="D61" s="4">
         <v>1</v>
       </c>
-      <c r="E61" t="s">
+      <c r="E61" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="F61" t="b">
+      <c r="F61" s="4" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A62" s="4" t="s">
+      <c r="A62" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="B62" s="4" t="s">
+      <c r="B62" s="11" t="s">
         <v>274</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C62" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="D62">
+      <c r="D62" s="4">
         <v>2</v>
       </c>
-      <c r="E62" t="s">
+      <c r="E62" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="F62" t="b">
+      <c r="F62" s="4" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A63" s="4" t="s">
+      <c r="A63" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="B63" s="4" t="s">
+      <c r="B63" s="11" t="s">
         <v>275</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C63" s="4" t="s">
         <v>285</v>
       </c>
-      <c r="D63">
+      <c r="D63" s="4">
         <v>400</v>
       </c>
-      <c r="E63" t="s">
+      <c r="E63" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="F63" t="b">
+      <c r="F63" s="4" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A64" s="4" t="s">
+      <c r="A64" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="B64" s="4" t="s">
+      <c r="B64" s="11" t="s">
         <v>275</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C64" s="4" t="s">
         <v>286</v>
       </c>
-      <c r="D64">
+      <c r="D64" s="4">
         <v>0.5</v>
       </c>
-      <c r="E64" t="s">
+      <c r="E64" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="F64" t="b">
+      <c r="F64" s="4" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A65" s="4" t="s">
+      <c r="A65" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="B65" s="4" t="s">
+      <c r="B65" s="11" t="s">
         <v>275</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C65" s="4" t="s">
         <v>293</v>
       </c>
-      <c r="D65">
+      <c r="D65" s="4">
         <v>1</v>
       </c>
-      <c r="E65" t="s">
+      <c r="E65" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="F65" t="b">
+      <c r="F65" s="4" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A66" s="4" t="s">
+      <c r="A66" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="B66" s="4" t="s">
+      <c r="B66" s="11" t="s">
         <v>275</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C66" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="D66">
+      <c r="D66" s="4">
         <v>1</v>
       </c>
-      <c r="E66" t="s">
+      <c r="E66" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="F66" t="b">
+      <c r="F66" s="4" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A67" s="4" t="s">
+      <c r="A67" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="B67" s="4" t="s">
+      <c r="B67" s="11" t="s">
         <v>275</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C67" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="D67">
+      <c r="D67" s="4">
         <v>1</v>
       </c>
-      <c r="E67" t="s">
+      <c r="E67" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="F67" t="b">
+      <c r="F67" s="4" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A68" s="4" t="s">
+      <c r="A68" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="B68" s="4" t="s">
+      <c r="B68" s="11" t="s">
         <v>275</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C68" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="D68">
+      <c r="D68" s="4">
         <v>1</v>
       </c>
-      <c r="E68" t="s">
+      <c r="E68" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="F68" t="b">
+      <c r="F68" s="4" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3708,7 +3709,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:O70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+    <sheetView topLeftCell="A18" workbookViewId="0">
       <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
@@ -4431,7 +4432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
         <v>21</v>
       </c>

--- a/Recipe_Database_Corrected.xlsx
+++ b/Recipe_Database_Corrected.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taiyenwu/Downloads/Chef Tai/github/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taiyenwu/Downloads/Chef Tai/App/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C7E0EE7-707A-ED48-9BF5-285C9550AA13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5DCF750-6BC9-0A4F-AFF6-6B289DE70A5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="26620" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="17280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Recipes" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="846" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="966" uniqueCount="350">
   <si>
     <t>RecipeID</t>
   </si>
@@ -276,9 +276,6 @@
     <t>Heavy Cream</t>
   </si>
   <si>
-    <t>Rum</t>
-  </si>
-  <si>
     <t>Cornstrach</t>
   </si>
   <si>
@@ -360,9 +357,6 @@
     <t>牛奶</t>
   </si>
   <si>
-    <t>蘭姆酒</t>
-  </si>
-  <si>
     <t>鹽</t>
   </si>
   <si>
@@ -498,9 +492,6 @@
     <t>Grease the baking mold with butter and line it with parchment paper.</t>
   </si>
   <si>
-    <t>Sift the all-purpose flour and place it in a food processor with frozen butter, powdered sugar, and salt. Process until the mixture resembles coarse crumbs.</t>
-  </si>
-  <si>
     <t>Pour the mixture into the baking mold, press it flat, and poke holes on the surface with a fork to allow the filling to penetrate later.</t>
   </si>
   <si>
@@ -577,9 +568,6 @@
   </si>
   <si>
     <t>Sift the flour and baking soda together, then mix in the sugar evenly.</t>
-  </si>
-  <si>
-    <t>Add cubed frozen butter, coat it with the flour, and rub the butter into the flour with your fingers until it resembles coarse crumbs (no need to make it very fine; it’s okay to leave some chunks).</t>
   </si>
   <si>
     <t>In a separate bowl, whisk half an egg and add it to the flour mixture, mixing well.</t>
@@ -703,9 +691,6 @@
 Note: Higher temperatures yield a firmer pudding texture; adjust as desired.</t>
   </si>
   <si>
-    <t>Slowly pour the heated milk into the egg mixture, add rum and a pinch of salt, and mix thoroughly.</t>
-  </si>
-  <si>
     <t>Strain the pudding mixture through a fine sieve 2-3 times to ensure a smooth and silky texture.</t>
   </si>
   <si>
@@ -817,19 +802,7 @@
     <t>起鍋擺盤後，撒上白芝麻並可依喜好加以裝飾與提味。</t>
   </si>
   <si>
-    <t>Rinse the chicken drumsticks thoroughly, then season with salt, black and white pepper, baking soda, and minced garlic. Mix well and marinate for about 10 minutes.</t>
-  </si>
-  <si>
-    <t>Place the drumsticks in an oven preheated to 200°C / 400°F and roast for approximately 50 minutes, until the skin turns golden and slightly crispy.</t>
-  </si>
-  <si>
     <t>In a skillet, combine ketchup, sugar, honey, and Korean chili paste in desired proportions. Add a suitable amount of water and mix well.</t>
-  </si>
-  <si>
-    <t>Add the roasted drumsticks to the skillet, coating them evenly with the sauce. Simmer over low heat until the sauce thickens and clings to the chicken.</t>
-  </si>
-  <si>
-    <t>Plate the drumsticks, sprinkle with white sesame seeds, and garnish or season as desired before serving.</t>
   </si>
   <si>
     <t>R006</t>
@@ -970,13 +943,159 @@
   <si>
     <t>熱鍋加少許油，放入豬肉排，煎約 10 分鐘，過程中需翻面。起鍋前在肉排表面抹上少量醬汁，放上起司片至融化。
 筆記：控制中火侯，避免外焦內不熟。</t>
+  </si>
+  <si>
+    <t>Brandy</t>
+  </si>
+  <si>
+    <t>白蘭地</t>
+  </si>
+  <si>
+    <t>Sift the all-purpose flour and place it in a food processor with frozen butter, powdered sugar, and salt. Process until the mixture resembles coarse cBrandybs.</t>
+  </si>
+  <si>
+    <t>Add cubed frozen butter, coat it with the flour, and rub the butter into the flour with your fingers until it resembles coarse cBrandybs (no need to make it very fine; it’s okay to leave some chunks).</t>
+  </si>
+  <si>
+    <t>Slowly pour the heated milk into the egg mixture, add Brandy and a pinch of salt, and mix thoroughly.</t>
+  </si>
+  <si>
+    <t>Rinse the chicken dBrandysticks thoroughly, then season with salt, black and white pepper, baking soda, and minced garlic. Mix well and marinate for about 10 minutes.</t>
+  </si>
+  <si>
+    <t>Place the dBrandysticks in an oven preheated to 200°C / 400°F and roast for approximately 50 minutes, until the skin turns golden and slightly crispy.</t>
+  </si>
+  <si>
+    <t>Add the roasted dBrandysticks to the skillet, coating them evenly with the sauce. Simmer over low heat until the sauce thickens and clings to the chicken.</t>
+  </si>
+  <si>
+    <t>Plate the dBrandysticks, sprinkle with white sesame seeds, and garnish or season as desired before serving.</t>
+  </si>
+  <si>
+    <t>R007</t>
+  </si>
+  <si>
+    <t>牧羊人派</t>
+  </si>
+  <si>
+    <t>1ea</t>
+  </si>
+  <si>
+    <t>Shepherd’s Pie</t>
+  </si>
+  <si>
+    <t>C013</t>
+  </si>
+  <si>
+    <t>Ground beef</t>
+  </si>
+  <si>
+    <t>Carrot</t>
+  </si>
+  <si>
+    <t>Celery</t>
+  </si>
+  <si>
+    <t>Potato</t>
+  </si>
+  <si>
+    <t>Tomato Sauce</t>
+  </si>
+  <si>
+    <t>Green Beans</t>
+  </si>
+  <si>
+    <t>牛絞肉</t>
+  </si>
+  <si>
+    <t>紅蘿蔔</t>
+  </si>
+  <si>
+    <t>毛豆</t>
+  </si>
+  <si>
+    <t>芹菜</t>
+  </si>
+  <si>
+    <t>馬鈴薯</t>
+  </si>
+  <si>
+    <t>番茄糊醬</t>
+  </si>
+  <si>
+    <t>Parsley</t>
+  </si>
+  <si>
+    <t>歐芹</t>
+  </si>
+  <si>
+    <t>bottle</t>
+  </si>
+  <si>
+    <t>pack</t>
+  </si>
+  <si>
+    <t>Baking dish</t>
+  </si>
+  <si>
+    <t>長方形烤盤</t>
+  </si>
+  <si>
+    <t>搗碎器</t>
+  </si>
+  <si>
+    <t>將所有食材清洗乾淨。馬鈴薯去皮切塊；紅蘿蔔、芹菜與洋蔥切成小丁備用。</t>
+  </si>
+  <si>
+    <t>馬鈴薯放入鍋中，加入冷水煮至沸騰，繼續煮至馬鈴薯變軟。</t>
+  </si>
+  <si>
+    <t>將馬鈴薯瀝乾後放入攪拌碗，加入奶油（可選）、牛奶、鹽與黑胡椒，用搗碎器搗成綿密馬鈴薯泥，備用。</t>
+  </si>
+  <si>
+    <t>熱鍋加油，先炒牛絞肉至變色，再加入洋蔥、紅蘿蔔、芹菜與毛豆拌炒至熟，然後加入番茄糊或番茄醬煮至滾。</t>
+  </si>
+  <si>
+    <t>將炒好的餡料舀入烤盤中，將馬鈴薯泥均勻鋪在餡料上層，完全覆蓋。</t>
+  </si>
+  <si>
+    <t>用叉子在馬鈴薯泥表面劃出紋路，讓表面烘烤後更有層次感與口感。</t>
+  </si>
+  <si>
+    <t>放入預熱至 200°C / 400°F 的烤箱，烘烤約 20 分鐘即可享用。
+筆記：最後幾分鐘可加強上火或使用烤箱上火模式，讓馬鈴薯表面略微焦脆，風味更佳！</t>
+  </si>
+  <si>
+    <t>Wash all ingredients thoroughly. Peel and cut the potatoes into chunks. Dice the carrots, celery, and onion.</t>
+  </si>
+  <si>
+    <t>Place the potatoes in a pot with cold water. Bring to a boil and cook until the potatoes are tender.</t>
+  </si>
+  <si>
+    <t>Drain the potatoes and transfer them to a mixing bowl. Add butter (optional), milk, salt, and black pepper. Mash until smooth and set aside.</t>
+  </si>
+  <si>
+    <t>Heat oil in a pan. Sauté the ground beef until browned. Add the diced onion, carrot, celery, and edamame. Cook until everything is tender, then stir in the tomato paste or sauce and bring to a boil.</t>
+  </si>
+  <si>
+    <t>Transfer the cooked filling into a baking dish. Spread the mashed potatoes evenly over the top to cover the filling completely.</t>
+  </si>
+  <si>
+    <t>Use a fork to create lines or patterns on the mashed potato surface to enhance texture after baking.</t>
+  </si>
+  <si>
+    <t>Bake in a preheated oven at 200°C / 400°F for about 20 minutes, or until golden.
+Note: You can switch to top heat or broil during the last few minutes to slightly crisp the mashed potato surface.</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/CsbzD69.jpeg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1008,14 +1127,6 @@
     </font>
     <font>
       <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1068,7 +1179,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1090,11 +1201,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1398,10 +1507,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1440,16 +1549,16 @@
         <v>7</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -1478,16 +1587,16 @@
         <v>14</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -1516,16 +1625,16 @@
         <v>20</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
@@ -1554,16 +1663,16 @@
         <v>26</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
@@ -1592,16 +1701,16 @@
         <v>32</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
@@ -1627,51 +1736,89 @@
         <v>50</v>
       </c>
       <c r="H6" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="B7" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="C7" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="D7" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="E7" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>311</v>
+      </c>
+      <c r="B8" t="s">
+        <v>314</v>
+      </c>
+      <c r="C8" t="s">
+        <v>312</v>
+      </c>
+      <c r="D8" t="s">
+        <v>313</v>
+      </c>
+      <c r="E8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G8">
+        <v>20</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>349</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -1685,10 +1832,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C71" sqref="C71"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1841,10 +1988,10 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>48</v>
@@ -1855,10 +2002,10 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>60</v>
@@ -1869,16 +2016,30 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>271</v>
+        <v>262</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -1889,10 +2050,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:L68"/>
+  <dimension ref="A1:L79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H37" sqref="H37"/>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="A77" sqref="A77:XFD77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2388,7 +2549,7 @@
         <v>53</v>
       </c>
       <c r="C25" t="s">
-        <v>83</v>
+        <v>302</v>
       </c>
       <c r="D25">
         <v>4</v>
@@ -2448,13 +2609,13 @@
         <v>53</v>
       </c>
       <c r="C28" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D28">
         <v>1</v>
       </c>
       <c r="E28" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F28" t="b">
         <v>1</v>
@@ -2588,7 +2749,7 @@
         <v>57</v>
       </c>
       <c r="C35" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D35">
         <v>6</v>
@@ -2648,7 +2809,7 @@
         <v>57</v>
       </c>
       <c r="C38" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D38">
         <v>200</v>
@@ -2668,7 +2829,7 @@
         <v>57</v>
       </c>
       <c r="C39" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D39">
         <v>40</v>
@@ -2688,7 +2849,7 @@
         <v>58</v>
       </c>
       <c r="C40" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D40">
         <v>4</v>
@@ -2708,7 +2869,7 @@
         <v>58</v>
       </c>
       <c r="C41" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D41">
         <v>1</v>
@@ -2728,7 +2889,7 @@
         <v>58</v>
       </c>
       <c r="C42" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D42">
         <v>10</v>
@@ -2748,7 +2909,7 @@
         <v>58</v>
       </c>
       <c r="C43" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D43">
         <v>1</v>
@@ -2788,7 +2949,7 @@
         <v>59</v>
       </c>
       <c r="C45" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D45">
         <v>3</v>
@@ -2828,13 +2989,13 @@
         <v>59</v>
       </c>
       <c r="C47" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D47">
         <v>1</v>
       </c>
       <c r="E47" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F47" t="b">
         <v>0</v>
@@ -2848,13 +3009,13 @@
         <v>59</v>
       </c>
       <c r="C48" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D48">
         <v>3</v>
       </c>
       <c r="E48" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F48" t="b">
         <v>0</v>
@@ -2868,13 +3029,13 @@
         <v>59</v>
       </c>
       <c r="C49" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D49">
         <v>2</v>
       </c>
       <c r="E49" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F49" t="b">
         <v>0</v>
@@ -2888,7 +3049,7 @@
         <v>59</v>
       </c>
       <c r="C50" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D50">
         <v>1</v>
@@ -2901,14 +3062,14 @@
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A51" s="11" t="s">
+      <c r="A51" t="s">
         <v>33</v>
       </c>
-      <c r="B51" s="11" t="s">
+      <c r="B51" t="s">
         <v>59</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D51" s="4">
         <v>5</v>
@@ -2921,14 +3082,14 @@
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A52" s="11" t="s">
-        <v>265</v>
-      </c>
-      <c r="B52" s="11" t="s">
-        <v>273</v>
+      <c r="A52" t="s">
+        <v>256</v>
+      </c>
+      <c r="B52" t="s">
+        <v>264</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="D52" s="4">
         <v>4</v>
@@ -2941,14 +3102,14 @@
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A53" s="11" t="s">
-        <v>265</v>
-      </c>
-      <c r="B53" s="11" t="s">
-        <v>273</v>
+      <c r="A53" t="s">
+        <v>256</v>
+      </c>
+      <c r="B53" t="s">
+        <v>264</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="D53" s="4">
         <v>0.2</v>
@@ -2965,14 +3126,14 @@
       <c r="L53" s="4"/>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A54" s="11" t="s">
-        <v>265</v>
-      </c>
-      <c r="B54" s="11" t="s">
-        <v>273</v>
+      <c r="A54" t="s">
+        <v>256</v>
+      </c>
+      <c r="B54" t="s">
+        <v>264</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="D54" s="4">
         <v>0.2</v>
@@ -2989,14 +3150,14 @@
       <c r="L54" s="4"/>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A55" s="11" t="s">
-        <v>265</v>
-      </c>
-      <c r="B55" s="11" t="s">
-        <v>273</v>
+      <c r="A55" t="s">
+        <v>256</v>
+      </c>
+      <c r="B55" t="s">
+        <v>264</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="D55" s="4">
         <v>4</v>
@@ -3013,74 +3174,74 @@
       <c r="L55" s="4"/>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A56" s="11" t="s">
-        <v>265</v>
-      </c>
-      <c r="B56" s="11" t="s">
-        <v>273</v>
+      <c r="A56" t="s">
+        <v>256</v>
+      </c>
+      <c r="B56" t="s">
+        <v>264</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="D56" s="4">
         <v>4</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="F56" s="4" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A57" s="11" t="s">
+      <c r="A57" t="s">
+        <v>256</v>
+      </c>
+      <c r="B57" t="s">
         <v>265</v>
       </c>
-      <c r="B57" s="11" t="s">
-        <v>274</v>
-      </c>
       <c r="C57" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D57" s="4">
         <v>3</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F57" s="4" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A58" s="11" t="s">
+      <c r="A58" t="s">
+        <v>256</v>
+      </c>
+      <c r="B58" t="s">
         <v>265</v>
       </c>
-      <c r="B58" s="11" t="s">
-        <v>274</v>
-      </c>
       <c r="C58" s="4" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="D58" s="4">
         <v>3</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F58" s="4" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A59" s="11" t="s">
+      <c r="A59" t="s">
+        <v>256</v>
+      </c>
+      <c r="B59" t="s">
         <v>265</v>
       </c>
-      <c r="B59" s="11" t="s">
-        <v>274</v>
-      </c>
       <c r="C59" s="4" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="D59" s="4">
         <v>1</v>
@@ -3093,14 +3254,14 @@
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A60" s="11" t="s">
+      <c r="A60" t="s">
+        <v>256</v>
+      </c>
+      <c r="B60" t="s">
         <v>265</v>
       </c>
-      <c r="B60" s="11" t="s">
-        <v>274</v>
-      </c>
       <c r="C60" s="4" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="D60" s="4">
         <v>1</v>
@@ -3113,14 +3274,14 @@
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A61" s="11" t="s">
+      <c r="A61" t="s">
+        <v>256</v>
+      </c>
+      <c r="B61" t="s">
         <v>265</v>
       </c>
-      <c r="B61" s="11" t="s">
-        <v>274</v>
-      </c>
       <c r="C61" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D61" s="4">
         <v>1</v>
@@ -3133,14 +3294,14 @@
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A62" s="11" t="s">
+      <c r="A62" t="s">
+        <v>256</v>
+      </c>
+      <c r="B62" t="s">
         <v>265</v>
       </c>
-      <c r="B62" s="11" t="s">
-        <v>274</v>
-      </c>
       <c r="C62" s="4" t="s">
-        <v>83</v>
+        <v>302</v>
       </c>
       <c r="D62" s="4">
         <v>2</v>
@@ -3153,14 +3314,14 @@
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A63" s="11" t="s">
-        <v>265</v>
-      </c>
-      <c r="B63" s="11" t="s">
-        <v>275</v>
+      <c r="A63" t="s">
+        <v>256</v>
+      </c>
+      <c r="B63" t="s">
+        <v>266</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="D63" s="4">
         <v>400</v>
@@ -3173,14 +3334,14 @@
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A64" s="11" t="s">
-        <v>265</v>
-      </c>
-      <c r="B64" s="11" t="s">
-        <v>275</v>
+      <c r="A64" t="s">
+        <v>256</v>
+      </c>
+      <c r="B64" t="s">
+        <v>266</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="D64" s="4">
         <v>0.5</v>
@@ -3193,14 +3354,14 @@
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A65" s="11" t="s">
-        <v>265</v>
-      </c>
-      <c r="B65" s="11" t="s">
-        <v>275</v>
+      <c r="A65" t="s">
+        <v>256</v>
+      </c>
+      <c r="B65" t="s">
+        <v>266</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="D65" s="4">
         <v>1</v>
@@ -3213,14 +3374,14 @@
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A66" s="11" t="s">
-        <v>265</v>
-      </c>
-      <c r="B66" s="11" t="s">
-        <v>275</v>
+      <c r="A66" t="s">
+        <v>256</v>
+      </c>
+      <c r="B66" t="s">
+        <v>266</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D66" s="4">
         <v>1</v>
@@ -3233,11 +3394,11 @@
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A67" s="11" t="s">
-        <v>265</v>
-      </c>
-      <c r="B67" s="11" t="s">
-        <v>275</v>
+      <c r="A67" t="s">
+        <v>256</v>
+      </c>
+      <c r="B67" t="s">
+        <v>266</v>
       </c>
       <c r="C67" s="4" t="s">
         <v>70</v>
@@ -3253,11 +3414,11 @@
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A68" s="11" t="s">
-        <v>265</v>
-      </c>
-      <c r="B68" s="11" t="s">
-        <v>275</v>
+      <c r="A68" t="s">
+        <v>256</v>
+      </c>
+      <c r="B68" t="s">
+        <v>266</v>
       </c>
       <c r="C68" s="4" t="s">
         <v>74</v>
@@ -3269,6 +3430,226 @@
         <v>75</v>
       </c>
       <c r="F68" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>311</v>
+      </c>
+      <c r="B69" t="s">
+        <v>315</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="D69" s="4">
+        <v>200</v>
+      </c>
+      <c r="E69" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F69" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>311</v>
+      </c>
+      <c r="B70" t="s">
+        <v>315</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="D70" s="4">
+        <v>2</v>
+      </c>
+      <c r="E70" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F70" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>311</v>
+      </c>
+      <c r="B71" t="s">
+        <v>315</v>
+      </c>
+      <c r="C71" t="s">
+        <v>321</v>
+      </c>
+      <c r="D71" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="E71" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="F71" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>311</v>
+      </c>
+      <c r="B72" t="s">
+        <v>315</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="D72" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="E72" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F72" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>311</v>
+      </c>
+      <c r="B73" t="s">
+        <v>315</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="D73" s="4">
+        <v>3</v>
+      </c>
+      <c r="E73" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F73" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>311</v>
+      </c>
+      <c r="B74" t="s">
+        <v>315</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="D74" s="4">
+        <v>1</v>
+      </c>
+      <c r="E74" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F74" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>311</v>
+      </c>
+      <c r="B75" t="s">
+        <v>315</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="D75" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="E75" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="F75" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>311</v>
+      </c>
+      <c r="B76" t="s">
+        <v>315</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D76" s="4">
+        <v>30</v>
+      </c>
+      <c r="E76" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F76" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>311</v>
+      </c>
+      <c r="B77" t="s">
+        <v>315</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="D77" s="4">
+        <v>1</v>
+      </c>
+      <c r="E77" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F77" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>311</v>
+      </c>
+      <c r="B78" t="s">
+        <v>315</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D78" s="4">
+        <v>1</v>
+      </c>
+      <c r="E78" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F78" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>311</v>
+      </c>
+      <c r="B79" t="s">
+        <v>315</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D79" s="4">
+        <v>1</v>
+      </c>
+      <c r="E79" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F79" s="4" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3279,10 +3660,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:M60"/>
+  <dimension ref="A1:M58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M62" sqref="M62"/>
+    <sheetView topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3292,7 +3673,7 @@
         <v>62</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -3300,15 +3681,15 @@
         <v>66</v>
       </c>
       <c r="B2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -3316,23 +3697,23 @@
         <v>76</v>
       </c>
       <c r="B4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -3340,7 +3721,7 @@
         <v>71</v>
       </c>
       <c r="B7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -3353,10 +3734,10 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B9" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -3364,15 +3745,15 @@
         <v>80</v>
       </c>
       <c r="B10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -3380,7 +3761,7 @@
         <v>74</v>
       </c>
       <c r="B12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -3388,15 +3769,15 @@
         <v>68</v>
       </c>
       <c r="B13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B14" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -3404,15 +3785,15 @@
         <v>82</v>
       </c>
       <c r="B15" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B16" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -3420,15 +3801,15 @@
         <v>81</v>
       </c>
       <c r="B17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B18" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -3444,7 +3825,7 @@
         <v>73</v>
       </c>
       <c r="B20" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
@@ -3452,15 +3833,15 @@
         <v>77</v>
       </c>
       <c r="B21" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>83</v>
+        <v>302</v>
       </c>
       <c r="B22" t="s">
-        <v>111</v>
+        <v>303</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
@@ -3468,7 +3849,7 @@
         <v>70</v>
       </c>
       <c r="B23" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
@@ -3489,10 +3870,10 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B26" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
@@ -3500,7 +3881,7 @@
         <v>72</v>
       </c>
       <c r="B27" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
@@ -3508,23 +3889,23 @@
         <v>69</v>
       </c>
       <c r="B28" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B29" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B30" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
@@ -3532,39 +3913,39 @@
         <v>79</v>
       </c>
       <c r="B31" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="B32" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="B33" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="B34" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="B35" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="H35" s="4"/>
       <c r="I35" s="4"/>
@@ -3573,10 +3954,10 @@
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B36" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="H36" s="4"/>
       <c r="I36" s="4"/>
@@ -3585,10 +3966,10 @@
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="B37" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="H37" s="4"/>
       <c r="I37" s="4"/>
@@ -3597,105 +3978,150 @@
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="B38" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="B39" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="B40" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="B41" t="s">
-        <v>284</v>
+        <v>275</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A42" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="B42" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A43" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="B43" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>321</v>
+      </c>
+      <c r="B44" t="s">
+        <v>324</v>
+      </c>
       <c r="I44" s="4"/>
       <c r="J44" s="4"/>
       <c r="L44" s="4"/>
       <c r="M44" s="4"/>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A45" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="B45" t="s">
+        <v>268</v>
+      </c>
       <c r="I45" s="4"/>
       <c r="J45" s="4"/>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A46" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="B46" t="s">
+        <v>325</v>
+      </c>
       <c r="I46" s="4"/>
       <c r="J46" s="4"/>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A47" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="B47" t="s">
+        <v>326</v>
+      </c>
       <c r="I47" s="4"/>
       <c r="J47" s="4"/>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A48" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="B48" t="s">
+        <v>327</v>
+      </c>
+      <c r="G48" s="2"/>
       <c r="I48" s="4"/>
       <c r="J48" s="4"/>
     </row>
-    <row r="49" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A49" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="B49" t="s">
+        <v>329</v>
+      </c>
       <c r="I49" s="4"/>
       <c r="J49" s="4"/>
     </row>
-    <row r="50" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="I50" s="4"/>
       <c r="J50" s="4"/>
     </row>
-    <row r="51" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="I51" s="4"/>
       <c r="J51" s="4"/>
     </row>
-    <row r="52" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="I52" s="4"/>
       <c r="J52" s="4"/>
     </row>
-    <row r="53" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="I53" s="4"/>
       <c r="J53" s="4"/>
     </row>
-    <row r="54" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="I54" s="4"/>
       <c r="J54" s="4"/>
     </row>
-    <row r="55" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="I55" s="4"/>
       <c r="J55" s="4"/>
     </row>
-    <row r="56" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="I56" s="4"/>
       <c r="J56" s="4"/>
     </row>
-    <row r="57" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="I57" s="4"/>
       <c r="J57" s="4"/>
     </row>
-    <row r="58" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="I58" s="4"/>
       <c r="J58" s="4"/>
-    </row>
-    <row r="59" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I59" s="4"/>
-      <c r="J59" s="4"/>
-    </row>
-    <row r="60" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I60" s="4"/>
-      <c r="J60" s="4"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B31">
@@ -3707,10 +4133,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:O70"/>
+  <dimension ref="A1:O58"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3730,25 +4156,25 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>126</v>
-      </c>
       <c r="G1" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -3759,16 +4185,16 @@
         <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>43</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G2" s="4">
         <v>2</v>
@@ -3785,16 +4211,16 @@
         <v>2</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>43</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>157</v>
+        <v>304</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G3" s="4">
         <v>5</v>
@@ -3811,16 +4237,16 @@
         <v>3</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>43</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G4" s="4">
         <v>2</v>
@@ -3837,16 +4263,16 @@
         <v>4</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>43</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G5" s="4">
         <v>22</v>
@@ -3869,10 +4295,10 @@
         <v>46</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G6" s="4">
         <v>5</v>
@@ -3895,10 +4321,10 @@
         <v>46</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G7" s="4">
         <v>1</v>
@@ -3921,10 +4347,10 @@
         <v>46</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G8" s="4">
         <v>10</v>
@@ -3941,16 +4367,16 @@
         <v>8</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G9" s="4">
         <v>2</v>
@@ -3973,10 +4399,10 @@
         <v>49</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="G10" s="4">
         <v>3</v>
@@ -3999,10 +4425,10 @@
         <v>49</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>184</v>
+        <v>305</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="G11" s="4">
         <v>5</v>
@@ -4025,10 +4451,10 @@
         <v>49</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="G12" s="4">
         <v>2</v>
@@ -4051,10 +4477,10 @@
         <v>49</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="G13" s="4">
         <v>5</v>
@@ -4077,10 +4503,10 @@
         <v>49</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="G14" s="4">
         <v>3</v>
@@ -4103,10 +4529,10 @@
         <v>49</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="G15" s="4">
         <v>2</v>
@@ -4129,10 +4555,10 @@
         <v>49</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="G16" s="4">
         <v>1</v>
@@ -4155,10 +4581,10 @@
         <v>49</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="G17" s="4">
         <v>20</v>
@@ -4181,10 +4607,10 @@
         <v>52</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="G18" s="4">
         <v>5</v>
@@ -4207,10 +4633,10 @@
         <v>52</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="G19" s="4">
         <v>3</v>
@@ -4233,10 +4659,10 @@
         <v>52</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="G20" s="4">
         <v>10</v>
@@ -4259,10 +4685,10 @@
         <v>55</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="G21" s="4">
         <v>1</v>
@@ -4285,10 +4711,10 @@
         <v>55</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="G22" s="4">
         <v>3</v>
@@ -4311,10 +4737,10 @@
         <v>55</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>223</v>
+        <v>306</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="G23" s="4">
         <v>1</v>
@@ -4337,10 +4763,10 @@
         <v>55</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="G24" s="4">
         <v>1</v>
@@ -4368,10 +4794,10 @@
         <v>55</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="F25" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="G25" s="4">
         <v>5</v>
@@ -4394,10 +4820,10 @@
         <v>55</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="G26" s="4">
         <v>3</v>
@@ -4420,10 +4846,10 @@
         <v>55</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="G27" s="4">
         <v>2</v>
@@ -4446,10 +4872,10 @@
         <v>55</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="G28" s="4">
         <v>65</v>
@@ -4472,10 +4898,10 @@
         <v>55</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="G29" s="4">
         <v>0</v>
@@ -4498,10 +4924,10 @@
         <v>43</v>
       </c>
       <c r="E30" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="G30" s="4">
         <v>1</v>
@@ -4524,10 +4950,10 @@
         <v>43</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="G31" s="4">
         <v>3</v>
@@ -4550,10 +4976,10 @@
         <v>43</v>
       </c>
       <c r="E32" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="G32" s="4">
         <v>60</v>
@@ -4576,10 +5002,10 @@
         <v>46</v>
       </c>
       <c r="E33" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="F33" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="G33" s="4">
         <v>5</v>
@@ -4602,10 +5028,10 @@
         <v>46</v>
       </c>
       <c r="E34" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="F34" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="G34" s="4">
         <v>3</v>
@@ -4628,10 +5054,10 @@
         <v>49</v>
       </c>
       <c r="E35" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="F35" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="G35" s="4">
         <v>3</v>
@@ -4654,10 +5080,10 @@
         <v>49</v>
       </c>
       <c r="E36" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="F36" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="G36" s="4">
         <v>5</v>
@@ -4680,10 +5106,10 @@
         <v>49</v>
       </c>
       <c r="E37" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="F37" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="G37" s="4">
         <v>2</v>
@@ -4706,10 +5132,10 @@
         <v>49</v>
       </c>
       <c r="E38" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="F38" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="G38" s="4">
         <v>25</v>
@@ -4732,10 +5158,10 @@
         <v>49</v>
       </c>
       <c r="E39" t="s">
-        <v>260</v>
+        <v>307</v>
       </c>
       <c r="F39" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="G39" s="4">
         <v>10</v>
@@ -4758,10 +5184,10 @@
         <v>49</v>
       </c>
       <c r="E40" t="s">
-        <v>261</v>
+        <v>308</v>
       </c>
       <c r="F40" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="G40" s="4">
         <v>50</v>
@@ -4784,10 +5210,10 @@
         <v>61</v>
       </c>
       <c r="E41" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="F41" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="G41" s="4">
         <v>5</v>
@@ -4810,15 +5236,15 @@
         <v>49</v>
       </c>
       <c r="E42" t="s">
-        <v>263</v>
+        <v>309</v>
       </c>
       <c r="F42" t="s">
-        <v>258</v>
-      </c>
-      <c r="G42" s="10">
+        <v>253</v>
+      </c>
+      <c r="G42" s="9">
         <v>5</v>
       </c>
-      <c r="H42" s="10" t="b">
+      <c r="H42" s="9" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4836,99 +5262,99 @@
         <v>49</v>
       </c>
       <c r="E43" t="s">
-        <v>264</v>
+        <v>310</v>
       </c>
       <c r="F43" t="s">
-        <v>259</v>
-      </c>
-      <c r="G43" s="10">
+        <v>254</v>
+      </c>
+      <c r="G43" s="9">
         <v>1</v>
       </c>
-      <c r="H43" s="10" t="b">
+      <c r="H43" s="9" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="B44" s="4">
         <v>1</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="E44" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="F44" t="s">
-        <v>295</v>
-      </c>
-      <c r="G44" s="10">
+        <v>286</v>
+      </c>
+      <c r="G44" s="9">
         <v>5</v>
       </c>
-      <c r="H44" s="10" t="b">
+      <c r="H44" s="9" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="B45" s="4">
         <v>2</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="E45" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="F45" t="s">
-        <v>296</v>
-      </c>
-      <c r="G45" s="10">
+        <v>287</v>
+      </c>
+      <c r="G45" s="9">
         <v>5</v>
       </c>
-      <c r="H45" s="10" t="b">
+      <c r="H45" s="9" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="B46" s="4">
         <v>3</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="E46" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="F46" t="s">
-        <v>297</v>
-      </c>
-      <c r="G46" s="10">
+        <v>288</v>
+      </c>
+      <c r="G46" s="9">
         <v>3</v>
       </c>
-      <c r="H46" s="10" t="b">
+      <c r="H46" s="9" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="B47" s="4">
         <v>4</v>
@@ -4940,21 +5366,21 @@
         <v>61</v>
       </c>
       <c r="E47" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="F47" t="s">
-        <v>298</v>
-      </c>
-      <c r="G47" s="10">
+        <v>289</v>
+      </c>
+      <c r="G47" s="9">
         <v>2</v>
       </c>
-      <c r="H47" s="10" t="b">
+      <c r="H47" s="9" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="B48" s="4">
         <v>5</v>
@@ -4966,21 +5392,21 @@
         <v>49</v>
       </c>
       <c r="E48" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="F48" t="s">
-        <v>299</v>
-      </c>
-      <c r="G48" s="10">
+        <v>290</v>
+      </c>
+      <c r="G48" s="9">
         <v>3</v>
       </c>
-      <c r="H48" s="10" t="b">
+      <c r="H48" s="9" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="B49" s="4">
         <v>6</v>
@@ -4992,21 +5418,21 @@
         <v>49</v>
       </c>
       <c r="E49" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="F49" t="s">
-        <v>300</v>
-      </c>
-      <c r="G49" s="10">
+        <v>291</v>
+      </c>
+      <c r="G49" s="9">
         <v>5</v>
       </c>
-      <c r="H49" s="10" t="b">
+      <c r="H49" s="9" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="B50" s="4">
         <v>7</v>
@@ -5018,21 +5444,21 @@
         <v>49</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="F50" s="6" t="s">
-        <v>310</v>
-      </c>
-      <c r="G50" s="10">
+        <v>301</v>
+      </c>
+      <c r="G50" s="9">
         <v>10</v>
       </c>
-      <c r="H50" s="10" t="b">
+      <c r="H50" s="9" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="B51" s="4">
         <v>8</v>
@@ -5044,24 +5470,199 @@
         <v>49</v>
       </c>
       <c r="E51" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="F51" t="s">
-        <v>301</v>
-      </c>
-      <c r="G51" s="10">
+        <v>292</v>
+      </c>
+      <c r="G51" s="9">
         <v>5</v>
       </c>
-      <c r="H51" s="10" t="b">
+      <c r="H51" s="9" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="G52" s="10"/>
-      <c r="H52" s="10"/>
-    </row>
-    <row r="70" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F70" s="9"/>
+      <c r="A52" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="B52" s="4">
+        <v>1</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E52" t="s">
+        <v>342</v>
+      </c>
+      <c r="F52" t="s">
+        <v>335</v>
+      </c>
+      <c r="G52" s="9">
+        <v>10</v>
+      </c>
+      <c r="H52" s="9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A53" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="B53" s="4">
+        <v>2</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E53" t="s">
+        <v>343</v>
+      </c>
+      <c r="F53" t="s">
+        <v>336</v>
+      </c>
+      <c r="G53" s="9">
+        <v>10</v>
+      </c>
+      <c r="H53" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A54" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="B54" s="4">
+        <v>3</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E54" t="s">
+        <v>344</v>
+      </c>
+      <c r="F54" t="s">
+        <v>337</v>
+      </c>
+      <c r="G54" s="9">
+        <v>5</v>
+      </c>
+      <c r="H54" s="9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A55" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="B55" s="4">
+        <v>4</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E55" t="s">
+        <v>345</v>
+      </c>
+      <c r="F55" t="s">
+        <v>338</v>
+      </c>
+      <c r="G55" s="9">
+        <v>10</v>
+      </c>
+      <c r="H55" s="9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A56" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="B56" s="4">
+        <v>5</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E56" t="s">
+        <v>346</v>
+      </c>
+      <c r="F56" t="s">
+        <v>339</v>
+      </c>
+      <c r="G56" s="9">
+        <v>5</v>
+      </c>
+      <c r="H56" s="9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A57" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="B57" s="4">
+        <v>6</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E57" t="s">
+        <v>347</v>
+      </c>
+      <c r="F57" t="s">
+        <v>340</v>
+      </c>
+      <c r="G57" s="9">
+        <v>1</v>
+      </c>
+      <c r="H57" s="9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="A58" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="B58" s="4">
+        <v>7</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E58" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="F58" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="G58" s="9">
+        <v>20</v>
+      </c>
+      <c r="H58" s="9" t="b">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5071,10 +5672,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{348BD390-6058-3244-B040-3ECD44D7EDBB}">
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G50" sqref="G50"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="D39" sqref="A39:D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5088,10 +5689,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D1" t="s">
         <v>65</v>
@@ -5102,10 +5703,10 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C2" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="D2" t="b">
         <v>0</v>
@@ -5116,10 +5717,10 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C3" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D3" t="b">
         <v>0</v>
@@ -5130,10 +5731,10 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C4" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D4" t="b">
         <v>0</v>
@@ -5144,10 +5745,10 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C5" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D5" t="b">
         <v>0</v>
@@ -5158,10 +5759,10 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C6" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D6" t="b">
         <v>0</v>
@@ -5172,10 +5773,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D7" t="b">
         <v>0</v>
@@ -5186,10 +5787,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C8" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D8" t="b">
         <v>0</v>
@@ -5200,10 +5801,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C9" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D9" t="b">
         <v>1</v>
@@ -5214,10 +5815,10 @@
         <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C10" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="D10" t="b">
         <v>0</v>
@@ -5228,10 +5829,10 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C11" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D11" t="b">
         <v>0</v>
@@ -5242,10 +5843,10 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C12" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D12" t="b">
         <v>0</v>
@@ -5256,10 +5857,10 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C13" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="D13" t="b">
         <v>1</v>
@@ -5270,10 +5871,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C14" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D14" t="b">
         <v>0</v>
@@ -5284,10 +5885,10 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C15" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="D15" t="b">
         <v>0</v>
@@ -5298,10 +5899,10 @@
         <v>21</v>
       </c>
       <c r="B16" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C16" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D16" t="b">
         <v>0</v>
@@ -5312,10 +5913,10 @@
         <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="C17" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="D17" t="b">
         <v>0</v>
@@ -5326,10 +5927,10 @@
         <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="C18" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="D18" t="b">
         <v>0</v>
@@ -5340,10 +5941,10 @@
         <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C19" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D19" t="b">
         <v>0</v>
@@ -5354,10 +5955,10 @@
         <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C20" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D20" t="b">
         <v>0</v>
@@ -5368,10 +5969,10 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C21" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="D21" t="b">
         <v>0</v>
@@ -5382,10 +5983,10 @@
         <v>27</v>
       </c>
       <c r="B22" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C22" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="D22" t="b">
         <v>0</v>
@@ -5396,10 +5997,10 @@
         <v>27</v>
       </c>
       <c r="B23" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C23" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D23" t="b">
         <v>0</v>
@@ -5410,10 +6011,10 @@
         <v>27</v>
       </c>
       <c r="B24" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C24" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D24" t="b">
         <v>0</v>
@@ -5424,10 +6025,10 @@
         <v>27</v>
       </c>
       <c r="B25" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C25" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="D25" t="b">
         <v>1</v>
@@ -5438,10 +6039,10 @@
         <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C26" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D26" t="b">
         <v>0</v>
@@ -5452,10 +6053,10 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C27" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="D27" t="b">
         <v>0</v>
@@ -5466,10 +6067,10 @@
         <v>33</v>
       </c>
       <c r="B28" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C28" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D28" t="b">
         <v>0</v>
@@ -5480,10 +6081,10 @@
         <v>33</v>
       </c>
       <c r="B29" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C29" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="D29" t="b">
         <v>0</v>
@@ -5494,10 +6095,10 @@
         <v>33</v>
       </c>
       <c r="B30" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="C30" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="D30" t="b">
         <v>0</v>
@@ -5505,13 +6106,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="B31" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="C31" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="D31" t="b">
         <v>0</v>
@@ -5519,13 +6120,13 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="B32" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C32" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="D32" t="b">
         <v>1</v>
@@ -5533,13 +6134,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="B33" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C33" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D33" t="b">
         <v>0</v>
@@ -5547,15 +6148,65 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="B34" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C34" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D34" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="B35" t="s">
+        <v>173</v>
+      </c>
+      <c r="C35" t="s">
+        <v>166</v>
+      </c>
+      <c r="D35" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="B36" t="s">
+        <v>332</v>
+      </c>
+      <c r="C36" t="s">
+        <v>333</v>
+      </c>
+      <c r="D36" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="B37" t="s">
+        <v>174</v>
+      </c>
+      <c r="C37" t="s">
+        <v>167</v>
+      </c>
+      <c r="D37" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C38" t="s">
+        <v>334</v>
+      </c>
+      <c r="D38" t="b">
         <v>0</v>
       </c>
     </row>

--- a/Recipe_Database_Corrected.xlsx
+++ b/Recipe_Database_Corrected.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taiyenwu/Downloads/Chef Tai/App/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5DCF750-6BC9-0A4F-AFF6-6B289DE70A5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFF266F1-4B53-AE4C-95D9-120AFB1B7E13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="17280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10160" yWindow="7460" windowWidth="29400" windowHeight="17280" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Recipes" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,25 @@
     <sheet name="Steps" sheetId="5" r:id="rId5"/>
     <sheet name="Tools" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="966" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1076" uniqueCount="383">
   <si>
     <t>RecipeID</t>
   </si>
@@ -978,9 +991,6 @@
     <t>牧羊人派</t>
   </si>
   <si>
-    <t>1ea</t>
-  </si>
-  <si>
     <t>Shepherd’s Pie</t>
   </si>
   <si>
@@ -1039,9 +1049,6 @@
   </si>
   <si>
     <t>長方形烤盤</t>
-  </si>
-  <si>
-    <t>搗碎器</t>
   </si>
   <si>
     <t>將所有食材清洗乾淨。馬鈴薯去皮切塊；紅蘿蔔、芹菜與洋蔥切成小丁備用。</t>
@@ -1089,6 +1096,115 @@
   </si>
   <si>
     <t>https://i.imgur.com/CsbzD69.jpeg</t>
+  </si>
+  <si>
+    <t>R008</t>
+  </si>
+  <si>
+    <t>1000 ml</t>
+  </si>
+  <si>
+    <t>Simmer</t>
+  </si>
+  <si>
+    <t>Pumpkin Soup</t>
+  </si>
+  <si>
+    <t>南瓜湯</t>
+  </si>
+  <si>
+    <t>C014</t>
+  </si>
+  <si>
+    <t>Pumpkin</t>
+  </si>
+  <si>
+    <t>Tomato</t>
+  </si>
+  <si>
+    <t>番茄</t>
+  </si>
+  <si>
+    <t>南瓜</t>
+  </si>
+  <si>
+    <t>將南瓜、紅蘿蔔、洋蔥清洗並去皮，與蕃茄一同切塊備用。</t>
+  </si>
+  <si>
+    <t>將所有食材放入可加熱的料理機中，加入 800 cc 水。
+筆記：若作為麵或燉飯的醬汁，建議將水量減半，後續可依喜好調整濃稠度。</t>
+  </si>
+  <si>
+    <t>啟動料理機，加熱並打碎成湯狀。</t>
+  </si>
+  <si>
+    <t>Wash and peel the pumpkin, carrot, and onion. Cut them into chunks along with the tomato.</t>
+  </si>
+  <si>
+    <t>Place all ingredients into a heatable blender and add 800 cc of water.
+Note: If using the mixture as a sauce for pasta or risotto, reduce the water by half. You can adjust the thickness later to your liking.</t>
+  </si>
+  <si>
+    <t>Start the blender to heat and blend everything into a soup.</t>
+  </si>
+  <si>
+    <t>Blender</t>
+  </si>
+  <si>
+    <t>湯鍋</t>
+  </si>
+  <si>
+    <t xml:space="preserve">食物調理機 </t>
+  </si>
+  <si>
+    <t>Soup pot</t>
+  </si>
+  <si>
+    <t>將湯倒入鍋中，加入鹽、黑胡椒與義式香料調味，即可享用。
+筆記：若使用的料理機無加熱功能，請將湯煮至沸騰後再食用。</t>
+  </si>
+  <si>
+    <t>Pour the soup into a pot, season with salt, black pepper, and Italian herbs. Serve and enjoy.
+Note:If your blender does not have a heating function, bring the soup to a boil before serving.</t>
+  </si>
+  <si>
+    <t>R009</t>
+  </si>
+  <si>
+    <t>Pumpkin Risotto</t>
+  </si>
+  <si>
+    <t>南瓜燉飯</t>
+  </si>
+  <si>
+    <t>2 Serves</t>
+  </si>
+  <si>
+    <t>Soup</t>
+  </si>
+  <si>
+    <t>湯品</t>
+  </si>
+  <si>
+    <t>醬汁</t>
+  </si>
+  <si>
+    <t>C015</t>
+  </si>
+  <si>
+    <t>C016</t>
+  </si>
+  <si>
+    <t>bacon</t>
+  </si>
+  <si>
+    <t>Bacon</t>
+  </si>
+  <si>
+    <t>培根</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/nFDrjqe.jpeg</t>
   </si>
 </sst>
 </file>
@@ -1507,10 +1623,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1788,13 +1904,13 @@
         <v>311</v>
       </c>
       <c r="B8" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C8" t="s">
         <v>312</v>
       </c>
       <c r="D8" t="s">
-        <v>313</v>
+        <v>373</v>
       </c>
       <c r="E8" t="s">
         <v>12</v>
@@ -1806,7 +1922,7 @@
         <v>20</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="I8" s="4" t="s">
         <v>128</v>
@@ -1818,6 +1934,76 @@
         <v>131</v>
       </c>
       <c r="L8" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>348</v>
+      </c>
+      <c r="B9" t="s">
+        <v>351</v>
+      </c>
+      <c r="C9" t="s">
+        <v>352</v>
+      </c>
+      <c r="D9" t="s">
+        <v>349</v>
+      </c>
+      <c r="E9" t="s">
+        <v>350</v>
+      </c>
+      <c r="G9">
+        <v>20</v>
+      </c>
+      <c r="H9" t="s">
+        <v>382</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>370</v>
+      </c>
+      <c r="B10" t="s">
+        <v>371</v>
+      </c>
+      <c r="C10" t="s">
+        <v>372</v>
+      </c>
+      <c r="D10" t="s">
+        <v>373</v>
+      </c>
+      <c r="E10" t="s">
+        <v>350</v>
+      </c>
+      <c r="G10">
+        <v>40</v>
+      </c>
+      <c r="H10" t="s">
+        <v>382</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="L10" s="4" t="s">
         <v>136</v>
       </c>
     </row>
@@ -1832,10 +2018,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2030,7 +2216,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>311</v>
@@ -2039,6 +2225,48 @@
         <v>48</v>
       </c>
       <c r="D14" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" s="4" t="s">
         <v>49</v>
       </c>
     </row>
@@ -2050,10 +2278,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:L79"/>
+  <dimension ref="A1:L91"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="A77" sqref="A77:XFD77"/>
+    <sheetView topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="C91" sqref="C91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3438,10 +3666,10 @@
         <v>311</v>
       </c>
       <c r="B69" t="s">
+        <v>314</v>
+      </c>
+      <c r="C69" s="4" t="s">
         <v>315</v>
-      </c>
-      <c r="C69" s="4" t="s">
-        <v>316</v>
       </c>
       <c r="D69" s="4">
         <v>200</v>
@@ -3458,10 +3686,10 @@
         <v>311</v>
       </c>
       <c r="B70" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D70" s="4">
         <v>2</v>
@@ -3478,16 +3706,16 @@
         <v>311</v>
       </c>
       <c r="B71" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C71" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D71" s="4">
         <v>0.5</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F71" s="4" t="b">
         <v>0</v>
@@ -3498,7 +3726,7 @@
         <v>311</v>
       </c>
       <c r="B72" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C72" s="4" t="s">
         <v>277</v>
@@ -3518,10 +3746,10 @@
         <v>311</v>
       </c>
       <c r="B73" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D73" s="4">
         <v>3</v>
@@ -3538,10 +3766,10 @@
         <v>311</v>
       </c>
       <c r="B74" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D74" s="4">
         <v>1</v>
@@ -3558,16 +3786,16 @@
         <v>311</v>
       </c>
       <c r="B75" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D75" s="4">
         <v>0.5</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F75" s="4" t="b">
         <v>0</v>
@@ -3578,7 +3806,7 @@
         <v>311</v>
       </c>
       <c r="B76" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C76" s="4" t="s">
         <v>77</v>
@@ -3598,10 +3826,10 @@
         <v>311</v>
       </c>
       <c r="B77" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D77" s="4">
         <v>1</v>
@@ -3618,7 +3846,7 @@
         <v>311</v>
       </c>
       <c r="B78" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C78" s="4" t="s">
         <v>70</v>
@@ -3638,7 +3866,7 @@
         <v>311</v>
       </c>
       <c r="B79" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C79" s="4" t="s">
         <v>87</v>
@@ -3651,6 +3879,237 @@
       </c>
       <c r="F79" s="4" t="b">
         <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>348</v>
+      </c>
+      <c r="B80" t="s">
+        <v>353</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D80" s="4">
+        <v>1</v>
+      </c>
+      <c r="E80" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F80" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>348</v>
+      </c>
+      <c r="B81" t="s">
+        <v>353</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D81" s="4">
+        <v>1</v>
+      </c>
+      <c r="E81" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F81" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>348</v>
+      </c>
+      <c r="B82" t="s">
+        <v>353</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="D82" s="4">
+        <v>1</v>
+      </c>
+      <c r="E82" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F82" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>348</v>
+      </c>
+      <c r="B83" t="s">
+        <v>353</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="D83" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="E83" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F83" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>348</v>
+      </c>
+      <c r="B84" t="s">
+        <v>353</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="D84" s="4">
+        <v>1</v>
+      </c>
+      <c r="E84" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F84" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>348</v>
+      </c>
+      <c r="B85" t="s">
+        <v>353</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="D85" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="E85" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F85" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>348</v>
+      </c>
+      <c r="B86" t="s">
+        <v>353</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="D86" s="4">
+        <v>1</v>
+      </c>
+      <c r="E86" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F86" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>370</v>
+      </c>
+      <c r="B87" t="s">
+        <v>377</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="D87" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="E87" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F87" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>370</v>
+      </c>
+      <c r="B88" t="s">
+        <v>377</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="D88" s="4">
+        <v>1</v>
+      </c>
+      <c r="E88" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F88" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>370</v>
+      </c>
+      <c r="B89" t="s">
+        <v>377</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="D89" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="E89" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F89" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>370</v>
+      </c>
+      <c r="B90" t="s">
+        <v>377</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="D90" s="4">
+        <v>1</v>
+      </c>
+      <c r="E90" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F90" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>370</v>
+      </c>
+      <c r="B91" t="s">
+        <v>378</v>
+      </c>
+      <c r="C91" t="s">
+        <v>379</v>
       </c>
     </row>
   </sheetData>
@@ -3662,8 +4121,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:M58"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50"/>
+    <sheetView topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="N62" sqref="N62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4010,26 +4469,26 @@
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B42" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B43" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B44" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I44" s="4"/>
       <c r="J44" s="4"/>
@@ -4048,30 +4507,30 @@
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B46" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I46" s="4"/>
       <c r="J46" s="4"/>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B47" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I47" s="4"/>
       <c r="J47" s="4"/>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B48" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G48" s="2"/>
       <c r="I48" s="4"/>
@@ -4079,23 +4538,41 @@
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="B49" t="s">
         <v>328</v>
-      </c>
-      <c r="B49" t="s">
-        <v>329</v>
       </c>
       <c r="I49" s="4"/>
       <c r="J49" s="4"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A50" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="B50" t="s">
+        <v>356</v>
+      </c>
       <c r="I50" s="4"/>
       <c r="J50" s="4"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A51" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="B51" t="s">
+        <v>357</v>
+      </c>
       <c r="I51" s="4"/>
       <c r="J51" s="4"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>380</v>
+      </c>
+      <c r="B52" t="s">
+        <v>381</v>
+      </c>
       <c r="I52" s="4"/>
       <c r="J52" s="4"/>
     </row>
@@ -4133,10 +4610,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:O58"/>
+  <dimension ref="A1:O62"/>
   <sheetViews>
-    <sheetView topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="C60" sqref="C60"/>
+    <sheetView topLeftCell="E39" workbookViewId="0">
+      <selection activeCell="E63" sqref="E63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5496,10 +5973,10 @@
         <v>49</v>
       </c>
       <c r="E52" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="F52" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="G52" s="9">
         <v>10</v>
@@ -5522,10 +5999,10 @@
         <v>49</v>
       </c>
       <c r="E53" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="F53" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="G53" s="9">
         <v>10</v>
@@ -5548,10 +6025,10 @@
         <v>49</v>
       </c>
       <c r="E54" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="F54" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="G54" s="9">
         <v>5</v>
@@ -5574,10 +6051,10 @@
         <v>49</v>
       </c>
       <c r="E55" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="F55" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="G55" s="9">
         <v>10</v>
@@ -5600,10 +6077,10 @@
         <v>49</v>
       </c>
       <c r="E56" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="F56" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="G56" s="9">
         <v>5</v>
@@ -5626,10 +6103,10 @@
         <v>49</v>
       </c>
       <c r="E57" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F57" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="G57" s="9">
         <v>1</v>
@@ -5652,16 +6129,96 @@
         <v>49</v>
       </c>
       <c r="E58" s="6" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="F58" s="6" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="G58" s="9">
         <v>20</v>
       </c>
       <c r="H58" s="9" t="b">
         <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A59" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="B59" s="4">
+        <v>1</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="F59" s="6" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="A60" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="B60" s="4">
+        <v>2</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E60" s="6" t="s">
+        <v>362</v>
+      </c>
+      <c r="F60" s="6" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A61" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="B61" s="4">
+        <v>3</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E61" t="s">
+        <v>363</v>
+      </c>
+      <c r="F61" s="6" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="A62" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="B62" s="4">
+        <v>4</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E62" s="6" t="s">
+        <v>369</v>
+      </c>
+      <c r="F62" s="6" t="s">
+        <v>368</v>
       </c>
     </row>
   </sheetData>
@@ -5672,10 +6229,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{348BD390-6058-3244-B040-3ECD44D7EDBB}">
-  <dimension ref="A1:D38"/>
+  <dimension ref="A1:D39"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="D39" sqref="A39:D40"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6179,10 +6736,10 @@
         <v>311</v>
       </c>
       <c r="B36" t="s">
+        <v>331</v>
+      </c>
+      <c r="C36" t="s">
         <v>332</v>
-      </c>
-      <c r="C36" t="s">
-        <v>333</v>
       </c>
       <c r="D36" t="b">
         <v>0</v>
@@ -6203,10 +6760,30 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="B38" t="s">
+        <v>364</v>
+      </c>
       <c r="C38" t="s">
-        <v>334</v>
+        <v>366</v>
       </c>
       <c r="D38" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="B39" t="s">
+        <v>367</v>
+      </c>
+      <c r="C39" t="s">
+        <v>365</v>
+      </c>
+      <c r="D39" t="b">
         <v>0</v>
       </c>
     </row>

--- a/Recipe_Database_Corrected.xlsx
+++ b/Recipe_Database_Corrected.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taiyenwu/Downloads/Chef Tai/App/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taiyenwu/Downloads/Chef Tai/github/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFF266F1-4B53-AE4C-95D9-120AFB1B7E13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEB2BC04-0017-364C-B858-D151926660CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10160" yWindow="7460" windowWidth="29400" windowHeight="17280" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10160" yWindow="7460" windowWidth="29400" windowHeight="17280" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Recipes" sheetId="1" r:id="rId1"/>
@@ -2020,7 +2020,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
@@ -4612,8 +4612,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:O62"/>
   <sheetViews>
-    <sheetView topLeftCell="E39" workbookViewId="0">
-      <selection activeCell="E63" sqref="E63"/>
+    <sheetView tabSelected="1" topLeftCell="F39" workbookViewId="0">
+      <selection activeCell="G59" sqref="G59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6160,6 +6160,12 @@
       <c r="F59" s="6" t="s">
         <v>358</v>
       </c>
+      <c r="G59" s="9">
+        <v>10</v>
+      </c>
+      <c r="H59" s="9" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="60" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A60" s="4" t="s">
@@ -6180,6 +6186,12 @@
       <c r="F60" s="6" t="s">
         <v>359</v>
       </c>
+      <c r="G60" s="9">
+        <v>1</v>
+      </c>
+      <c r="H60" s="9" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="61" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A61" s="4" t="s">
@@ -6200,6 +6212,12 @@
       <c r="F61" s="6" t="s">
         <v>360</v>
       </c>
+      <c r="G61" s="9">
+        <v>20</v>
+      </c>
+      <c r="H61" s="9" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="62" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A62" s="4" t="s">
@@ -6219,6 +6237,12 @@
       </c>
       <c r="F62" s="6" t="s">
         <v>368</v>
+      </c>
+      <c r="G62" s="9">
+        <v>1</v>
+      </c>
+      <c r="H62" s="9" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Recipe_Database_Corrected.xlsx
+++ b/Recipe_Database_Corrected.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taiyenwu/Downloads/Chef Tai/github/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEB2BC04-0017-364C-B858-D151926660CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{272DE809-DD32-6D4F-909A-2824696532BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10160" yWindow="7460" windowWidth="29400" windowHeight="17280" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="26660" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Recipes" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1076" uniqueCount="383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1307" uniqueCount="456">
   <si>
     <t>RecipeID</t>
   </si>
@@ -1195,9 +1195,6 @@
     <t>C016</t>
   </si>
   <si>
-    <t>bacon</t>
-  </si>
-  <si>
     <t>Bacon</t>
   </si>
   <si>
@@ -1205,6 +1202,230 @@
   </si>
   <si>
     <t>https://i.imgur.com/nFDrjqe.jpeg</t>
+  </si>
+  <si>
+    <t>R010</t>
+  </si>
+  <si>
+    <t>Seafood Congee</t>
+  </si>
+  <si>
+    <t>台式海鮮粥</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/n66YFNB.jpeg</t>
+  </si>
+  <si>
+    <t>Taiwaness-style</t>
+  </si>
+  <si>
+    <t>台式</t>
+  </si>
+  <si>
+    <t>C017</t>
+  </si>
+  <si>
+    <t>米飯</t>
+  </si>
+  <si>
+    <t>魚塊</t>
+  </si>
+  <si>
+    <t>小管</t>
+  </si>
+  <si>
+    <t>Squid</t>
+  </si>
+  <si>
+    <t>高麗菜</t>
+  </si>
+  <si>
+    <t>Cabbage</t>
+  </si>
+  <si>
+    <t>蔥</t>
+  </si>
+  <si>
+    <t>薑絲</t>
+  </si>
+  <si>
+    <t>米酒</t>
+  </si>
+  <si>
+    <t>Rice wine</t>
+  </si>
+  <si>
+    <t>香菇</t>
+  </si>
+  <si>
+    <t>Shiitake mushrooms</t>
+  </si>
+  <si>
+    <t>油蔥酥</t>
+  </si>
+  <si>
+    <t>Fried shallots</t>
+  </si>
+  <si>
+    <t>Rice</t>
+  </si>
+  <si>
+    <t>Fish</t>
+  </si>
+  <si>
+    <t>Green onion</t>
+  </si>
+  <si>
+    <t>Ginger</t>
+  </si>
+  <si>
+    <t>cup</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ea</t>
+  </si>
+  <si>
+    <t>Dried scallop</t>
+  </si>
+  <si>
+    <t>干貝乾</t>
+  </si>
+  <si>
+    <t>Dried shrimp</t>
+  </si>
+  <si>
+    <t>dried shrimp</t>
+  </si>
+  <si>
+    <t>蝦米</t>
+  </si>
+  <si>
+    <t>洗米煮飯，備好白飯。</t>
+  </si>
+  <si>
+    <t>清洗並處理所有食材：魚與小管切塊，高麗菜與薑切絲，芹菜切丁，香菇泡水後切片。</t>
+  </si>
+  <si>
+    <t>鍋中加少許油，將魚塊與小管炒香至微微上色，起鍋備用。</t>
+  </si>
+  <si>
+    <t>原鍋加入香菇與蝦米炒香，再加入高麗菜拌炒至略軟，倒入 1000 ml 水煮滾。</t>
+  </si>
+  <si>
+    <t>放入干貝，以及剛才炒過的魚與小管，蓋鍋煮約 10 分鐘。</t>
+  </si>
+  <si>
+    <t>加入鹽、白胡椒與米酒調味，最後加入芹菜丁，關火。</t>
+  </si>
+  <si>
+    <t>將湯汁淋在熱飯上即成海鮮粥，撒上蔥花與油蔥酥即可享用。</t>
+  </si>
+  <si>
+    <t>Rinse the rice and cook it in advance to prepare plain white rice.</t>
+  </si>
+  <si>
+    <t>Clean and prepare all ingredients: cut fish and squid into chunks, shred cabbage and ginger, dice celery, and slice soaked shiitake mushrooms.</t>
+  </si>
+  <si>
+    <t>In a pot, heat a bit of oil and stir-fry the squid and fish until lightly browned. Remove and set aside.</t>
+  </si>
+  <si>
+    <t>In the same pot, sauté the mushrooms and dried shrimp until fragrant. Add cabbage and cook until slightly softened. Pour in 1000 ml of water and bring to a boil.</t>
+  </si>
+  <si>
+    <t>Add dried scallops, the pre-cooked fish and squid. Cover and simmer for about 10 minutes.</t>
+  </si>
+  <si>
+    <t>Season with salt, white pepper, and rice wine. Add diced celery and turn off the heat.</t>
+  </si>
+  <si>
+    <t>To serve, ladle the seafood broth over hot cooked rice to make congee. Garnish with chopped scallions and crispy shallots.</t>
+  </si>
+  <si>
+    <t>Zucchini</t>
+  </si>
+  <si>
+    <t>Cheese powder</t>
+  </si>
+  <si>
+    <t>Mixed Nuts</t>
+  </si>
+  <si>
+    <t>櫛瓜</t>
+  </si>
+  <si>
+    <t>起司粉</t>
+  </si>
+  <si>
+    <t>綜合堅果</t>
+  </si>
+  <si>
+    <t>參考南瓜湯食譜製作南瓜醬汁
+備註：因為用作醬汁，建議減少原食譜中的水量，以增加濃稠度。</t>
+  </si>
+  <si>
+    <t>洗米後提前浸泡10分鐘。</t>
+  </si>
+  <si>
+    <t>清洗並準備食材：蒜頭切片、香菇切片、櫛瓜切片、培根切條、洋蔥切丁。</t>
+  </si>
+  <si>
+    <t>熱鍋後放入培根煎至金黃，盛起備用。</t>
+  </si>
+  <si>
+    <t>放入蒜片煎至金黃，再加入洋蔥丁炒至金黃透明。</t>
+  </si>
+  <si>
+    <t>加入蘑菇與櫛瓜炒熟。</t>
+  </si>
+  <si>
+    <t>放入泡好的米，倒入南瓜醬汁，醬汁需蓋過米和食材。</t>
+  </si>
+  <si>
+    <t>煮滾後轉小火慢煮，適時翻攪，讓醬汁慢慢收乾。</t>
+  </si>
+  <si>
+    <t>加入鹽、黑胡椒及義式香料調味。</t>
+  </si>
+  <si>
+    <t>起鍋前加入培根拌勻。</t>
+  </si>
+  <si>
+    <t>裝盤後撒上起司粉與綜合堅果即可享用。</t>
+  </si>
+  <si>
+    <t>Plate the dish and sprinkle with grated cheese and mixed nuts. Enjoy!</t>
+  </si>
+  <si>
+    <t>Just before serving, stir the bacon back into the risotto.</t>
+  </si>
+  <si>
+    <t>Season with salt, black pepper, and Italian seasoning.</t>
+  </si>
+  <si>
+    <t>Bring to a boil, then reduce to low heat and simmer gently. Stir occasionally as the sauce thickens and reduces.</t>
+  </si>
+  <si>
+    <t>Add the soaked rice to the pan, then pour in the pumpkin sauce, making sure the sauce covers the rice and ingredients.</t>
+  </si>
+  <si>
+    <t>Add the mushrooms and zucchini, stir-fry until cooked through.</t>
+  </si>
+  <si>
+    <t>In the same pan, sauté the garlic slices until golden, then add the diced onion and cook until translucent and golden.</t>
+  </si>
+  <si>
+    <t>Heat a pan and fry the bacon until golden brown, then remove and set aside.</t>
+  </si>
+  <si>
+    <t>Prepare the ingredients: slice garlic, slice shiitake mushrooms, slice zucchini, cut bacon into strips, dice the onion.</t>
+  </si>
+  <si>
+    <t>Rinse the rice and soak it in water for 10 minutes in advance.</t>
+  </si>
+  <si>
+    <t>Prepare the pumpkin sauce based on a pumpkin soup recipe.
+Note: Since this sauce will be used as a cooking sauce, it’s recommended to reduce the amount of water from the original recipe to achieve a thicker consistency.</t>
   </si>
 </sst>
 </file>
@@ -1623,10 +1844,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="A10" sqref="A10:C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1957,7 +2178,7 @@
         <v>20</v>
       </c>
       <c r="H9" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="I9" s="4" t="s">
         <v>374</v>
@@ -1992,7 +2213,7 @@
         <v>40</v>
       </c>
       <c r="H10" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="I10" s="4" t="s">
         <v>128</v>
@@ -2005,12 +2226,45 @@
       </c>
       <c r="L10" s="4" t="s">
         <v>136</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>382</v>
+      </c>
+      <c r="B11" t="s">
+        <v>383</v>
+      </c>
+      <c r="C11" t="s">
+        <v>384</v>
+      </c>
+      <c r="D11" t="s">
+        <v>373</v>
+      </c>
+      <c r="E11" t="s">
+        <v>350</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>385</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>387</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="H6" r:id="rId1" xr:uid="{C76906DE-C94F-294E-9842-D036BA878300}"/>
     <hyperlink ref="H7" r:id="rId2" xr:uid="{9AADA651-C399-9541-8F39-30A11B5148B6}"/>
+    <hyperlink ref="H11" r:id="rId3" xr:uid="{3CABA0B3-95D4-E64C-B354-F6EE37A5A39C}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -2018,10 +2272,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+      <selection activeCell="D16" sqref="C16:D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2270,6 +2524,20 @@
         <v>49</v>
       </c>
     </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2278,10 +2546,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:L91"/>
+  <dimension ref="A1:L114"/>
   <sheetViews>
-    <sheetView topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="C91" sqref="C91"/>
+    <sheetView topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="E100" sqref="E100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4108,8 +4376,477 @@
       <c r="B91" t="s">
         <v>378</v>
       </c>
-      <c r="C91" t="s">
+      <c r="C91" s="4" t="s">
         <v>379</v>
+      </c>
+      <c r="D91" s="4">
+        <v>4</v>
+      </c>
+      <c r="E91" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F91" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>370</v>
+      </c>
+      <c r="B92" t="s">
+        <v>378</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="D92" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="E92" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F92" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>370</v>
+      </c>
+      <c r="B93" t="s">
+        <v>378</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>428</v>
+      </c>
+      <c r="D93" s="4">
+        <v>1</v>
+      </c>
+      <c r="E93" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F93" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>370</v>
+      </c>
+      <c r="B94" t="s">
+        <v>378</v>
+      </c>
+      <c r="C94" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="D94" s="4">
+        <v>5</v>
+      </c>
+      <c r="E94" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F94" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>370</v>
+      </c>
+      <c r="B95" t="s">
+        <v>378</v>
+      </c>
+      <c r="C95" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="D95" s="4">
+        <v>10</v>
+      </c>
+      <c r="E95" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F95" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>370</v>
+      </c>
+      <c r="B96" t="s">
+        <v>378</v>
+      </c>
+      <c r="C96" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D96" s="4">
+        <v>2</v>
+      </c>
+      <c r="E96" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F96" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>370</v>
+      </c>
+      <c r="B97" t="s">
+        <v>378</v>
+      </c>
+      <c r="C97" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="D97">
+        <v>2</v>
+      </c>
+      <c r="E97" t="s">
+        <v>75</v>
+      </c>
+      <c r="F97" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>370</v>
+      </c>
+      <c r="B98" t="s">
+        <v>378</v>
+      </c>
+      <c r="C98" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D98">
+        <v>1</v>
+      </c>
+      <c r="E98" t="s">
+        <v>67</v>
+      </c>
+      <c r="F98" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>370</v>
+      </c>
+      <c r="B99" t="s">
+        <v>378</v>
+      </c>
+      <c r="C99" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="D99">
+        <v>1</v>
+      </c>
+      <c r="E99" t="s">
+        <v>67</v>
+      </c>
+      <c r="F99" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>370</v>
+      </c>
+      <c r="B100" t="s">
+        <v>388</v>
+      </c>
+      <c r="C100" t="s">
+        <v>403</v>
+      </c>
+      <c r="D100" s="4">
+        <v>1</v>
+      </c>
+      <c r="E100" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="F100" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>382</v>
+      </c>
+      <c r="B101" t="s">
+        <v>388</v>
+      </c>
+      <c r="C101" t="s">
+        <v>403</v>
+      </c>
+      <c r="D101" s="4">
+        <v>1</v>
+      </c>
+      <c r="E101" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="F101" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>382</v>
+      </c>
+      <c r="B102" t="s">
+        <v>388</v>
+      </c>
+      <c r="C102" t="s">
+        <v>404</v>
+      </c>
+      <c r="D102" s="4">
+        <v>80</v>
+      </c>
+      <c r="E102" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F102" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>382</v>
+      </c>
+      <c r="B103" t="s">
+        <v>388</v>
+      </c>
+      <c r="C103" t="s">
+        <v>392</v>
+      </c>
+      <c r="D103" s="4">
+        <v>2</v>
+      </c>
+      <c r="E103" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="F103" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>382</v>
+      </c>
+      <c r="B104" t="s">
+        <v>388</v>
+      </c>
+      <c r="C104" t="s">
+        <v>394</v>
+      </c>
+      <c r="D104" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="E104" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F104" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>382</v>
+      </c>
+      <c r="B105" t="s">
+        <v>388</v>
+      </c>
+      <c r="C105" t="s">
+        <v>405</v>
+      </c>
+      <c r="D105" s="4">
+        <v>1</v>
+      </c>
+      <c r="E105" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F105" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>382</v>
+      </c>
+      <c r="B106" t="s">
+        <v>388</v>
+      </c>
+      <c r="C106" t="s">
+        <v>317</v>
+      </c>
+      <c r="D106" s="4">
+        <v>1</v>
+      </c>
+      <c r="E106" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F106" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>382</v>
+      </c>
+      <c r="B107" t="s">
+        <v>388</v>
+      </c>
+      <c r="C107" t="s">
+        <v>406</v>
+      </c>
+      <c r="D107" s="4">
+        <v>1</v>
+      </c>
+      <c r="E107" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F107" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>382</v>
+      </c>
+      <c r="B108" t="s">
+        <v>388</v>
+      </c>
+      <c r="C108" t="s">
+        <v>398</v>
+      </c>
+      <c r="D108" s="4">
+        <v>5</v>
+      </c>
+      <c r="E108" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F108" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>382</v>
+      </c>
+      <c r="B109" t="s">
+        <v>388</v>
+      </c>
+      <c r="C109" t="s">
+        <v>400</v>
+      </c>
+      <c r="D109" s="4">
+        <v>4</v>
+      </c>
+      <c r="E109" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F109" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>382</v>
+      </c>
+      <c r="B110" t="s">
+        <v>388</v>
+      </c>
+      <c r="C110" t="s">
+        <v>402</v>
+      </c>
+      <c r="D110" s="4">
+        <v>1</v>
+      </c>
+      <c r="E110" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F110" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>382</v>
+      </c>
+      <c r="B111" t="s">
+        <v>388</v>
+      </c>
+      <c r="C111" t="s">
+        <v>409</v>
+      </c>
+      <c r="D111" s="4">
+        <v>6</v>
+      </c>
+      <c r="E111" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F111" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>382</v>
+      </c>
+      <c r="B112" t="s">
+        <v>388</v>
+      </c>
+      <c r="C112" t="s">
+        <v>411</v>
+      </c>
+      <c r="D112">
+        <v>6</v>
+      </c>
+      <c r="E112" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F112" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>382</v>
+      </c>
+      <c r="B113" t="s">
+        <v>388</v>
+      </c>
+      <c r="C113" t="s">
+        <v>89</v>
+      </c>
+      <c r="D113" s="4">
+        <v>1</v>
+      </c>
+      <c r="E113" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F113" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>382</v>
+      </c>
+      <c r="B114" t="s">
+        <v>388</v>
+      </c>
+      <c r="C114" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D114" s="4">
+        <v>1</v>
+      </c>
+      <c r="E114" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F114" s="4" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4119,10 +4856,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:M58"/>
+  <dimension ref="A1:M66"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="N62" sqref="N62"/>
+    <sheetView topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="A67" sqref="A67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4568,37 +5305,135 @@
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
+        <v>379</v>
+      </c>
+      <c r="B52" t="s">
         <v>380</v>
-      </c>
-      <c r="B52" t="s">
-        <v>381</v>
       </c>
       <c r="I52" s="4"/>
       <c r="J52" s="4"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>403</v>
+      </c>
+      <c r="B53" t="s">
+        <v>389</v>
+      </c>
       <c r="I53" s="4"/>
       <c r="J53" s="4"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>404</v>
+      </c>
+      <c r="B54" t="s">
+        <v>390</v>
+      </c>
       <c r="I54" s="4"/>
       <c r="J54" s="4"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>392</v>
+      </c>
+      <c r="B55" t="s">
+        <v>391</v>
+      </c>
       <c r="I55" s="4"/>
       <c r="J55" s="4"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>394</v>
+      </c>
+      <c r="B56" t="s">
+        <v>393</v>
+      </c>
       <c r="I56" s="4"/>
       <c r="J56" s="4"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>405</v>
+      </c>
+      <c r="B57" t="s">
+        <v>395</v>
+      </c>
       <c r="I57" s="4"/>
       <c r="J57" s="4"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="I58" s="4"/>
-      <c r="J58" s="4"/>
+      <c r="A58" t="s">
+        <v>406</v>
+      </c>
+      <c r="B58" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>398</v>
+      </c>
+      <c r="B59" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>400</v>
+      </c>
+      <c r="B60" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>402</v>
+      </c>
+      <c r="B61" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>409</v>
+      </c>
+      <c r="B62" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>412</v>
+      </c>
+      <c r="B63" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A64" s="4" t="s">
+        <v>428</v>
+      </c>
+      <c r="B64" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="B65" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="B66" t="s">
+        <v>433</v>
+      </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B31">
@@ -4610,10 +5445,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:O62"/>
+  <dimension ref="A1:O80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F39" workbookViewId="0">
-      <selection activeCell="G59" sqref="G59"/>
+    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="E81" sqref="E81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6245,6 +7080,474 @@
         <v>0</v>
       </c>
     </row>
+    <row r="63" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+      <c r="A63" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="B63" s="4">
+        <v>1</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="E63" s="6" t="s">
+        <v>455</v>
+      </c>
+      <c r="F63" s="6" t="s">
+        <v>434</v>
+      </c>
+      <c r="G63" s="9">
+        <v>32</v>
+      </c>
+      <c r="H63" s="9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A64" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="B64" s="4">
+        <v>1</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E64" t="s">
+        <v>454</v>
+      </c>
+      <c r="F64" s="6" t="s">
+        <v>435</v>
+      </c>
+      <c r="G64" s="9">
+        <v>10</v>
+      </c>
+      <c r="H64" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A65" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="B65" s="4">
+        <v>2</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E65" t="s">
+        <v>453</v>
+      </c>
+      <c r="F65" t="s">
+        <v>436</v>
+      </c>
+      <c r="G65" s="9">
+        <v>5</v>
+      </c>
+      <c r="H65" s="9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A66" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="B66" s="4">
+        <v>3</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E66" t="s">
+        <v>452</v>
+      </c>
+      <c r="F66" t="s">
+        <v>437</v>
+      </c>
+      <c r="G66" s="9">
+        <v>3</v>
+      </c>
+      <c r="H66" s="9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A67" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="B67" s="4">
+        <v>4</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E67" t="s">
+        <v>451</v>
+      </c>
+      <c r="F67" t="s">
+        <v>438</v>
+      </c>
+      <c r="G67" s="9">
+        <v>3</v>
+      </c>
+      <c r="H67" s="9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A68" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="B68" s="4">
+        <v>5</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E68" t="s">
+        <v>450</v>
+      </c>
+      <c r="F68" t="s">
+        <v>439</v>
+      </c>
+      <c r="G68" s="9">
+        <v>3</v>
+      </c>
+      <c r="H68" s="9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A69" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="B69" s="4">
+        <v>6</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E69" t="s">
+        <v>449</v>
+      </c>
+      <c r="F69" t="s">
+        <v>440</v>
+      </c>
+      <c r="G69" s="4">
+        <v>1</v>
+      </c>
+      <c r="H69" s="9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A70" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="B70" s="4">
+        <v>7</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E70" t="s">
+        <v>448</v>
+      </c>
+      <c r="F70" t="s">
+        <v>441</v>
+      </c>
+      <c r="G70" s="4">
+        <v>20</v>
+      </c>
+      <c r="H70" s="9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A71" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="B71" s="4">
+        <v>8</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E71" t="s">
+        <v>447</v>
+      </c>
+      <c r="F71" t="s">
+        <v>442</v>
+      </c>
+      <c r="G71" s="4">
+        <v>0</v>
+      </c>
+      <c r="H71" s="9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A72" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="B72" s="4">
+        <v>9</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E72" t="s">
+        <v>446</v>
+      </c>
+      <c r="F72" t="s">
+        <v>443</v>
+      </c>
+      <c r="G72" s="4">
+        <v>0</v>
+      </c>
+      <c r="H72" s="9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A73" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="B73" s="4">
+        <v>10</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E73" t="s">
+        <v>445</v>
+      </c>
+      <c r="F73" t="s">
+        <v>444</v>
+      </c>
+      <c r="G73" s="4">
+        <v>1</v>
+      </c>
+      <c r="H73" s="9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A74" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="B74" s="4">
+        <v>1</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E74" t="s">
+        <v>421</v>
+      </c>
+      <c r="F74" t="s">
+        <v>414</v>
+      </c>
+      <c r="G74" s="9">
+        <v>50</v>
+      </c>
+      <c r="H74" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A75" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="B75" s="4">
+        <v>2</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E75" s="6" t="s">
+        <v>422</v>
+      </c>
+      <c r="F75" t="s">
+        <v>415</v>
+      </c>
+      <c r="G75" s="9">
+        <v>10</v>
+      </c>
+      <c r="H75" s="9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A76" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="B76" s="4">
+        <v>3</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D76" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E76" t="s">
+        <v>423</v>
+      </c>
+      <c r="F76" t="s">
+        <v>416</v>
+      </c>
+      <c r="G76" s="9">
+        <v>10</v>
+      </c>
+      <c r="H76" s="9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="A77" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="B77" s="4">
+        <v>4</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E77" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="F77" t="s">
+        <v>417</v>
+      </c>
+      <c r="G77" s="9">
+        <v>10</v>
+      </c>
+      <c r="H77" s="9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A78" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="B78" s="4">
+        <v>5</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D78" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E78" t="s">
+        <v>425</v>
+      </c>
+      <c r="F78" t="s">
+        <v>418</v>
+      </c>
+      <c r="G78" s="9">
+        <v>10</v>
+      </c>
+      <c r="H78" s="9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A79" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="B79" s="4">
+        <v>6</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D79" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E79" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="F79" t="s">
+        <v>419</v>
+      </c>
+      <c r="G79" s="9">
+        <v>1</v>
+      </c>
+      <c r="H79" s="9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A80" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="B80" s="4">
+        <v>7</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D80" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E80" t="s">
+        <v>427</v>
+      </c>
+      <c r="F80" t="s">
+        <v>420</v>
+      </c>
+      <c r="G80" s="9">
+        <v>1</v>
+      </c>
+      <c r="H80" s="9" t="b">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -6253,10 +7556,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{348BD390-6058-3244-B040-3ECD44D7EDBB}">
-  <dimension ref="A1:D39"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6811,6 +8114,34 @@
         <v>0</v>
       </c>
     </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="B40" t="s">
+        <v>247</v>
+      </c>
+      <c r="C40" t="s">
+        <v>248</v>
+      </c>
+      <c r="D40" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="B41" t="s">
+        <v>367</v>
+      </c>
+      <c r="C41" t="s">
+        <v>365</v>
+      </c>
+      <c r="D41" t="b">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Recipe_Database_Corrected.xlsx
+++ b/Recipe_Database_Corrected.xlsx
@@ -8,17 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taiyenwu/Downloads/Chef Tai/github/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{272DE809-DD32-6D4F-909A-2824696532BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E7F7FBC-E0B1-9B41-852E-0686FC8A93CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="26660" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="21360" yWindow="6880" windowWidth="38560" windowHeight="19060" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Recipes" sheetId="1" r:id="rId1"/>
     <sheet name="Components" sheetId="2" r:id="rId2"/>
     <sheet name="Ingredients" sheetId="3" r:id="rId3"/>
     <sheet name="IngredientDict" sheetId="4" r:id="rId4"/>
-    <sheet name="Steps" sheetId="5" r:id="rId5"/>
-    <sheet name="Tools" sheetId="6" r:id="rId6"/>
+    <sheet name="Tools" sheetId="6" r:id="rId5"/>
+    <sheet name="Steps" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1307" uniqueCount="456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1426" uniqueCount="491">
   <si>
     <t>RecipeID</t>
   </si>
@@ -1426,13 +1426,122 @@
   <si>
     <t>Prepare the pumpkin sauce based on a pumpkin soup recipe.
 Note: Since this sauce will be used as a cooking sauce, it’s recommended to reduce the amount of water from the original recipe to achieve a thicker consistency.</t>
+  </si>
+  <si>
+    <t>R011</t>
+  </si>
+  <si>
+    <t>Cheery Pie</t>
+  </si>
+  <si>
+    <t>櫻桃派</t>
+  </si>
+  <si>
+    <t>4 Serves</t>
+  </si>
+  <si>
+    <t>Cherry</t>
+  </si>
+  <si>
+    <t>Almind flour</t>
+  </si>
+  <si>
+    <t>Melting Butter</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/BtC3cL4.jpeg</t>
+  </si>
+  <si>
+    <t>C018</t>
+  </si>
+  <si>
+    <t>C019</t>
+  </si>
+  <si>
+    <t>Vanilla extract</t>
+  </si>
+  <si>
+    <t>c杏仁麵粉</t>
+  </si>
+  <si>
+    <t>香草精</t>
+  </si>
+  <si>
+    <t>融化奶油</t>
+  </si>
+  <si>
+    <t>櫻桃</t>
+  </si>
+  <si>
+    <t>Pie Dish</t>
+  </si>
+  <si>
+    <t>派模</t>
+  </si>
+  <si>
+    <t>去核器</t>
+  </si>
+  <si>
+    <t>Pitter</t>
+  </si>
+  <si>
+    <t>將櫻桃洗淨擦乾後，去核置入碗中。
+筆記：若無去核器，可使用金屬吸管代替。</t>
+  </si>
+  <si>
+    <t>加入糖粉與檸檬汁，混合均勻後，放入冰箱醃製至少 30 分鐘。</t>
+  </si>
+  <si>
+    <t>在派模內部塗上一層奶油，撒上些許砂糖，搖晃使糖粒均勻附著。</t>
+  </si>
+  <si>
+    <t>打入雞蛋，加入一小撮鹽，接著過篩麵粉、杏仁粉與糖粉後倒入，一起攪拌均勻。</t>
+  </si>
+  <si>
+    <t>加入牛奶、香草精與融化奶油，再次拌勻成滑順麵糊。</t>
+  </si>
+  <si>
+    <t>將醃製好的櫻桃倒入派模中，再倒入麵糊。
+筆記：麵糊加入至櫻桃稍微浮起即可。</t>
+  </si>
+  <si>
+    <t>放入預熱至 180°C 的烤箱，烘烤約 40 分鐘，表面上色且中心熟透即可。放涼後即可享用。置入烤箱 180度c 烤40分鐘左右出爐，放涼即可享用</t>
+  </si>
+  <si>
+    <t>食用前可撒上糖粉，增加風味與美感。</t>
+  </si>
+  <si>
+    <t>Wash and dry the cherries thoroughly, then pit them and place into a bowl.
+Note: If you don't have a cherry pitter, a metal straw works well as an alternative.</t>
+  </si>
+  <si>
+    <t>Add powdered sugar and lemon juice. Mix well, then refrigerate for at least 30 minutes.</t>
+  </si>
+  <si>
+    <t>Grease the inside of the pie dish with butter, then sprinkle a little granulated sugar. Shake gently to coat evenly.</t>
+  </si>
+  <si>
+    <t>Crack the eggs into a bowl and add a small pinch of salt. Sift in the flour, almond flour, and powdered sugar. Mix until smooth.</t>
+  </si>
+  <si>
+    <t>Add milk, vanilla extract, and melted butter, and stir until fully combined and smooth.</t>
+  </si>
+  <si>
+    <t>Spread the marinated cherries evenly in the pie dish, then pour in the batter.
+Note: Pour just enough batter so the cherries begin to slightly float.</t>
+  </si>
+  <si>
+    <t>Bake in a preheated oven at 180°C (360°F) for about 40 minutes, or until golden and set in the center. Let cool before serving.</t>
+  </si>
+  <si>
+    <t>Dust with powdered sugar before serving for extra flavor and a beautiful finish.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1467,6 +1576,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1516,7 +1638,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1540,6 +1662,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1844,10 +1972,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:Y45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:C10"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1858,6 +1986,12 @@
     <col min="10" max="10" width="10.5" customWidth="1"/>
     <col min="11" max="11" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
@@ -2259,6 +2393,257 @@
       <c r="L11" s="4" t="s">
         <v>387</v>
       </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>456</v>
+      </c>
+      <c r="B12" t="s">
+        <v>457</v>
+      </c>
+      <c r="C12" t="s">
+        <v>458</v>
+      </c>
+      <c r="D12" t="s">
+        <v>459</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12">
+        <v>40</v>
+      </c>
+      <c r="H12" t="s">
+        <v>463</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="26" spans="14:19" ht="18" x14ac:dyDescent="0.2">
+      <c r="N26" s="10"/>
+      <c r="O26" s="10"/>
+      <c r="P26" s="10"/>
+      <c r="R26" s="10"/>
+      <c r="S26" s="10"/>
+    </row>
+    <row r="27" spans="14:19" ht="18" x14ac:dyDescent="0.2">
+      <c r="N27" s="11"/>
+      <c r="O27" s="12"/>
+      <c r="P27" s="11"/>
+      <c r="Q27" s="11"/>
+      <c r="R27" s="11"/>
+    </row>
+    <row r="28" spans="14:19" ht="18" x14ac:dyDescent="0.2">
+      <c r="N28" s="11"/>
+      <c r="O28" s="12"/>
+      <c r="P28" s="11"/>
+      <c r="Q28" s="11"/>
+      <c r="R28" s="11"/>
+    </row>
+    <row r="29" spans="14:19" ht="18" x14ac:dyDescent="0.2">
+      <c r="N29" s="11"/>
+      <c r="O29" s="12"/>
+      <c r="P29" s="11"/>
+      <c r="Q29" s="11"/>
+      <c r="R29" s="11"/>
+    </row>
+    <row r="30" spans="14:19" ht="18" x14ac:dyDescent="0.2">
+      <c r="O30" s="12"/>
+      <c r="R30" s="11"/>
+    </row>
+    <row r="31" spans="14:19" ht="18" x14ac:dyDescent="0.2">
+      <c r="N31" s="11"/>
+      <c r="O31" s="12"/>
+      <c r="P31" s="11"/>
+      <c r="Q31" s="11"/>
+      <c r="R31" s="11"/>
+    </row>
+    <row r="32" spans="14:19" ht="18" x14ac:dyDescent="0.2">
+      <c r="N32" s="11"/>
+      <c r="O32" s="12"/>
+      <c r="P32" s="11"/>
+      <c r="Q32" s="11"/>
+      <c r="R32" s="11"/>
+    </row>
+    <row r="33" spans="14:25" ht="18" x14ac:dyDescent="0.2">
+      <c r="N33" s="11"/>
+      <c r="O33" s="12"/>
+      <c r="P33" s="11"/>
+      <c r="Q33" s="11"/>
+      <c r="R33" s="11"/>
+    </row>
+    <row r="34" spans="14:25" ht="18" x14ac:dyDescent="0.2">
+      <c r="N34" s="11"/>
+      <c r="O34" s="12"/>
+      <c r="P34" s="11"/>
+      <c r="Q34" s="11"/>
+      <c r="R34" s="11"/>
+    </row>
+    <row r="35" spans="14:25" ht="18" x14ac:dyDescent="0.2">
+      <c r="O35" s="12"/>
+      <c r="R35" s="11"/>
+    </row>
+    <row r="36" spans="14:25" ht="18" x14ac:dyDescent="0.2">
+      <c r="N36" s="11"/>
+      <c r="O36" s="12"/>
+      <c r="P36" s="11"/>
+      <c r="Q36" s="11"/>
+      <c r="R36" s="11"/>
+      <c r="T36">
+        <v>20</v>
+      </c>
+      <c r="U36">
+        <f>T36*31</f>
+        <v>620</v>
+      </c>
+      <c r="V36">
+        <f>U36*0.3</f>
+        <v>186</v>
+      </c>
+      <c r="W36">
+        <v>130</v>
+      </c>
+      <c r="X36">
+        <v>300</v>
+      </c>
+      <c r="Y36">
+        <f>U36+W36+X36</f>
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="37" spans="14:25" ht="18" x14ac:dyDescent="0.2">
+      <c r="N37" s="11"/>
+      <c r="O37" s="12"/>
+      <c r="P37" s="11"/>
+      <c r="Q37" s="11"/>
+      <c r="R37" s="11"/>
+      <c r="T37">
+        <v>14.1</v>
+      </c>
+      <c r="U37">
+        <f t="shared" ref="U37:U39" si="0">T37*31</f>
+        <v>437.09999999999997</v>
+      </c>
+      <c r="V37">
+        <f t="shared" ref="V37:V39" si="1">U37*0.3</f>
+        <v>131.13</v>
+      </c>
+      <c r="W37">
+        <v>200</v>
+      </c>
+      <c r="X37">
+        <v>300</v>
+      </c>
+      <c r="Y37">
+        <f t="shared" ref="Y37:Y39" si="2">U37+W37+X37</f>
+        <v>937.09999999999991</v>
+      </c>
+    </row>
+    <row r="38" spans="14:25" ht="18" x14ac:dyDescent="0.2">
+      <c r="N38" s="11"/>
+      <c r="O38" s="12"/>
+      <c r="P38" s="11"/>
+      <c r="Q38" s="11"/>
+      <c r="R38" s="11"/>
+      <c r="T38">
+        <v>40</v>
+      </c>
+      <c r="U38">
+        <f t="shared" si="0"/>
+        <v>1240</v>
+      </c>
+      <c r="V38">
+        <f t="shared" si="1"/>
+        <v>372</v>
+      </c>
+      <c r="W38">
+        <v>250</v>
+      </c>
+      <c r="X38">
+        <v>500</v>
+      </c>
+      <c r="Y38">
+        <f t="shared" si="2"/>
+        <v>1990</v>
+      </c>
+    </row>
+    <row r="39" spans="14:25" ht="18" x14ac:dyDescent="0.2">
+      <c r="O39" s="12"/>
+      <c r="R39" s="11"/>
+      <c r="T39">
+        <v>34</v>
+      </c>
+      <c r="U39">
+        <f t="shared" si="0"/>
+        <v>1054</v>
+      </c>
+      <c r="V39">
+        <f t="shared" si="1"/>
+        <v>316.2</v>
+      </c>
+      <c r="W39">
+        <v>250</v>
+      </c>
+      <c r="X39">
+        <v>500</v>
+      </c>
+      <c r="Y39">
+        <f t="shared" si="2"/>
+        <v>1804</v>
+      </c>
+    </row>
+    <row r="40" spans="14:25" ht="18" x14ac:dyDescent="0.2">
+      <c r="N40" s="11"/>
+      <c r="O40" s="12"/>
+      <c r="P40" s="11"/>
+      <c r="Q40" s="11"/>
+      <c r="R40" s="11"/>
+    </row>
+    <row r="41" spans="14:25" ht="18" x14ac:dyDescent="0.2">
+      <c r="N41" s="11"/>
+      <c r="O41" s="12"/>
+      <c r="P41" s="11"/>
+      <c r="Q41" s="11"/>
+      <c r="R41" s="11"/>
+    </row>
+    <row r="42" spans="14:25" ht="18" x14ac:dyDescent="0.2">
+      <c r="N42" s="11"/>
+      <c r="O42" s="12"/>
+      <c r="P42" s="11"/>
+      <c r="Q42" s="11"/>
+      <c r="R42" s="11"/>
+    </row>
+    <row r="43" spans="14:25" ht="18" x14ac:dyDescent="0.2">
+      <c r="N43" s="11"/>
+      <c r="O43" s="12"/>
+      <c r="P43" s="11"/>
+      <c r="Q43" s="11"/>
+      <c r="R43" s="11"/>
+    </row>
+    <row r="44" spans="14:25" ht="18" x14ac:dyDescent="0.2">
+      <c r="O44" s="12"/>
+      <c r="P44" s="11"/>
+      <c r="R44" s="11"/>
+    </row>
+    <row r="45" spans="14:25" ht="18" x14ac:dyDescent="0.2">
+      <c r="N45" s="11"/>
+      <c r="O45" s="12"/>
+      <c r="P45" s="11"/>
+      <c r="Q45" s="11"/>
+      <c r="R45" s="11"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2272,10 +2657,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="C16:D16"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2538,6 +2923,34 @@
         <v>49</v>
       </c>
     </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
+        <v>464</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>456</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="4" t="s">
+        <v>465</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>456</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2546,1074 +2959,1076 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:L114"/>
+  <dimension ref="A1:L124"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="E100" sqref="E100"/>
+    <sheetView topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="C116" sqref="C116:C124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="8.83203125" style="5"/>
+    <col min="3" max="3" width="13.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="8.83203125" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="13" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="5">
         <v>120</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="F2" t="b">
+      <c r="F2" s="5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="A3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="5">
         <v>90</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="F3" t="b">
+      <c r="F3" s="5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="A4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="5">
         <v>20</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="F4" t="b">
+      <c r="F4" s="5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="A5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="D5" s="5">
+        <v>1</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="F5" t="b">
+      <c r="F5" s="5" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="A6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="5">
         <v>60</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="F6" t="b">
+      <c r="F6" s="5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="A7" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="5">
         <v>80</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="F7" t="b">
+      <c r="F7" s="5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="A8" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="5">
         <v>80</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="F8" t="b">
+      <c r="F8" s="5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="A9" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="5">
         <v>2</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="F9" t="b">
+      <c r="F9" s="5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="A10" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="5">
         <v>210</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="F10" t="b">
+      <c r="F10" s="5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="A11" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="5">
         <v>8</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="F11" t="b">
+      <c r="F11" s="5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="A12" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="5">
         <v>55</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="F12" t="b">
+      <c r="F12" s="5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="A13" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="5">
         <v>50</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="F13" t="b">
+      <c r="F13" s="5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="A14" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="E14" t="s">
+      <c r="D14" s="5">
+        <v>1</v>
+      </c>
+      <c r="E14" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="F14" t="b">
+      <c r="F14" s="5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+      <c r="A15" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="5">
         <v>85</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="F15" t="b">
+      <c r="F15" s="5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+      <c r="A16" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="5">
         <v>0.5</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="F16" t="b">
+      <c r="F16" s="5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+      <c r="A17" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-      <c r="E17" t="s">
+      <c r="D17" s="5">
+        <v>1</v>
+      </c>
+      <c r="E17" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="F17" t="b">
+      <c r="F17" s="5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+      <c r="A18" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="5">
         <v>60</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="F18" t="b">
+      <c r="F18" s="5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+      <c r="A19" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="5">
         <v>25</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="F19" t="b">
+      <c r="F19" s="5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+      <c r="A20" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="5">
         <v>50</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="F20" t="b">
+      <c r="F20" s="5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+      <c r="A21" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="5">
         <v>30</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="F21" t="b">
+      <c r="F21" s="5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+      <c r="A22" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="D22">
-        <v>1</v>
-      </c>
-      <c r="E22" t="s">
+      <c r="D22" s="5">
+        <v>1</v>
+      </c>
+      <c r="E22" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="F22" t="b">
+      <c r="F22" s="5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+      <c r="A23" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="5">
         <v>200</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E23" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="F23" t="b">
+      <c r="F23" s="5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+      <c r="A24" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="5">
         <v>140</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E24" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="F24" t="b">
+      <c r="F24" s="5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+      <c r="A25" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="5" t="s">
         <v>302</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="5">
         <v>4</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E25" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="F25" t="b">
+      <c r="F25" s="5" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+      <c r="A26" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="5">
         <v>2</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E26" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="F26" t="b">
+      <c r="F26" s="5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+      <c r="A27" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="D27">
-        <v>1</v>
-      </c>
-      <c r="E27" t="s">
+      <c r="D27" s="5">
+        <v>1</v>
+      </c>
+      <c r="E27" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="F27" t="b">
+      <c r="F27" s="5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+      <c r="A28" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="D28">
-        <v>1</v>
-      </c>
-      <c r="E28" t="s">
+      <c r="D28" s="5">
+        <v>1</v>
+      </c>
+      <c r="E28" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="F28" t="b">
+      <c r="F28" s="5" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
+      <c r="A29" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="5">
         <v>150</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E29" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="F29" t="b">
+      <c r="F29" s="5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
+      <c r="A30" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="5">
         <v>100</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E30" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="F30" t="b">
+      <c r="F30" s="5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
+      <c r="A31" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="5">
         <v>20</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E31" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="F31" t="b">
+      <c r="F31" s="5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
+      <c r="A32" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="D32">
-        <v>1</v>
-      </c>
-      <c r="E32" t="s">
+      <c r="D32" s="5">
+        <v>1</v>
+      </c>
+      <c r="E32" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="F32" t="b">
+      <c r="F32" s="5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
+      <c r="A33" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="5">
         <v>60</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E33" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="F33" t="b">
+      <c r="F33" s="5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
+      <c r="A34" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="D34">
-        <v>1</v>
-      </c>
-      <c r="E34" t="s">
+      <c r="D34" s="5">
+        <v>1</v>
+      </c>
+      <c r="E34" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="F34" t="b">
+      <c r="F34" s="5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
+      <c r="A35" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="5">
         <v>6</v>
       </c>
-      <c r="E35" t="s">
+      <c r="E35" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="F35" t="b">
+      <c r="F35" s="5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
+      <c r="A36" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="D36">
+      <c r="D36" s="5">
         <v>30</v>
       </c>
-      <c r="E36" t="s">
+      <c r="E36" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="F36" t="b">
+      <c r="F36" s="5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
+      <c r="A37" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="D37">
+      <c r="D37" s="5">
         <v>0.5</v>
       </c>
-      <c r="E37" t="s">
+      <c r="E37" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="F37" t="b">
+      <c r="F37" s="5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
+      <c r="A38" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="D38">
+      <c r="D38" s="5">
         <v>200</v>
       </c>
-      <c r="E38" t="s">
+      <c r="E38" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="F38" t="b">
+      <c r="F38" s="5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
+      <c r="A39" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="D39">
+      <c r="D39" s="5">
         <v>40</v>
       </c>
-      <c r="E39" t="s">
+      <c r="E39" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="F39" t="b">
+      <c r="F39" s="5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
+      <c r="A40" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="D40">
+      <c r="D40" s="5">
         <v>4</v>
       </c>
-      <c r="E40" t="s">
+      <c r="E40" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="F40" t="b">
+      <c r="F40" s="5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
+      <c r="A41" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C41" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="D41">
-        <v>1</v>
-      </c>
-      <c r="E41" t="s">
+      <c r="D41" s="5">
+        <v>1</v>
+      </c>
+      <c r="E41" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="F41" t="b">
+      <c r="F41" s="5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
+      <c r="A42" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="D42">
+      <c r="D42" s="5">
         <v>10</v>
       </c>
-      <c r="E42" t="s">
+      <c r="E42" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="F42" t="b">
+      <c r="F42" s="5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
+      <c r="A43" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C43" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="D43">
-        <v>1</v>
-      </c>
-      <c r="E43" t="s">
+      <c r="D43" s="5">
+        <v>1</v>
+      </c>
+      <c r="E43" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="F43" t="b">
+      <c r="F43" s="5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
+      <c r="A44" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C44" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="D44">
-        <v>1</v>
-      </c>
-      <c r="E44" t="s">
+      <c r="D44" s="5">
+        <v>1</v>
+      </c>
+      <c r="E44" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="F44" t="b">
+      <c r="F44" s="5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
+      <c r="A45" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C45" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="D45">
+      <c r="D45" s="5">
         <v>3</v>
       </c>
-      <c r="E45" t="s">
+      <c r="E45" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="F45" t="b">
+      <c r="F45" s="5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
+      <c r="A46" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C46" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="D46">
+      <c r="D46" s="5">
         <v>10</v>
       </c>
-      <c r="E46" t="s">
+      <c r="E46" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="F46" t="b">
+      <c r="F46" s="5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
+      <c r="A47" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C47" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="D47">
-        <v>1</v>
-      </c>
-      <c r="E47" t="s">
+      <c r="D47" s="5">
+        <v>1</v>
+      </c>
+      <c r="E47" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="F47" t="b">
+      <c r="F47" s="5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
+      <c r="A48" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C48" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="D48">
+      <c r="D48" s="5">
         <v>3</v>
       </c>
-      <c r="E48" t="s">
+      <c r="E48" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="F48" t="b">
+      <c r="F48" s="5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
+      <c r="A49" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C49" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="D49">
+      <c r="D49" s="5">
         <v>2</v>
       </c>
-      <c r="E49" t="s">
+      <c r="E49" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="F49" t="b">
+      <c r="F49" s="5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
+      <c r="A50" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C50" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="D50">
-        <v>1</v>
-      </c>
-      <c r="E50" t="s">
+      <c r="D50" s="5">
+        <v>1</v>
+      </c>
+      <c r="E50" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="F50" t="b">
+      <c r="F50" s="5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
+      <c r="A51" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C51" s="4" t="s">
+      <c r="C51" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="D51" s="4">
+      <c r="D51" s="5">
         <v>5</v>
       </c>
-      <c r="E51" s="4" t="s">
+      <c r="E51" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="F51" s="4" t="b">
+      <c r="F51" s="5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
+      <c r="A52" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="C52" s="4" t="s">
+      <c r="C52" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="D52" s="4">
+      <c r="D52" s="5">
         <v>4</v>
       </c>
-      <c r="E52" s="4" t="s">
+      <c r="E52" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="F52" s="4" t="b">
+      <c r="F52" s="5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
+      <c r="A53" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="C53" s="4" t="s">
+      <c r="C53" s="5" t="s">
         <v>279</v>
       </c>
-      <c r="D53" s="4">
+      <c r="D53" s="5">
         <v>0.2</v>
       </c>
-      <c r="E53" s="4" t="s">
+      <c r="E53" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="F53" s="4" t="b">
+      <c r="F53" s="5" t="b">
         <v>0</v>
       </c>
       <c r="I53" s="4"/>
@@ -3622,22 +4037,22 @@
       <c r="L53" s="4"/>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
+      <c r="A54" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="C54" s="4" t="s">
+      <c r="C54" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="D54" s="4">
+      <c r="D54" s="5">
         <v>0.2</v>
       </c>
-      <c r="E54" s="4" t="s">
+      <c r="E54" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="F54" s="4" t="b">
+      <c r="F54" s="5" t="b">
         <v>0</v>
       </c>
       <c r="I54" s="4"/>
@@ -3646,22 +4061,22 @@
       <c r="L54" s="4"/>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
+      <c r="A55" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="C55" s="4" t="s">
+      <c r="C55" s="5" t="s">
         <v>283</v>
       </c>
-      <c r="D55" s="4">
+      <c r="D55" s="5">
         <v>4</v>
       </c>
-      <c r="E55" s="4" t="s">
+      <c r="E55" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="F55" s="4" t="b">
+      <c r="F55" s="5" t="b">
         <v>0</v>
       </c>
       <c r="I55" s="4"/>
@@ -3670,1182 +4085,1382 @@
       <c r="L55" s="4"/>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
+      <c r="A56" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="C56" s="4" t="s">
+      <c r="C56" s="5" t="s">
         <v>282</v>
       </c>
-      <c r="D56" s="4">
+      <c r="D56" s="5">
         <v>4</v>
       </c>
-      <c r="E56" s="4" t="s">
+      <c r="E56" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="F56" s="4" t="b">
+      <c r="F56" s="5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
+      <c r="A57" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="C57" s="4" t="s">
+      <c r="C57" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="D57" s="4">
+      <c r="D57" s="5">
         <v>3</v>
       </c>
-      <c r="E57" s="4" t="s">
+      <c r="E57" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="F57" s="4" t="b">
+      <c r="F57" s="5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
+      <c r="A58" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B58" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="C58" s="4" t="s">
+      <c r="C58" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="D58" s="4">
+      <c r="D58" s="5">
         <v>3</v>
       </c>
-      <c r="E58" s="4" t="s">
+      <c r="E58" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="F58" s="4" t="b">
+      <c r="F58" s="5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
+      <c r="A59" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B59" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="C59" s="4" t="s">
+      <c r="C59" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="D59" s="4">
-        <v>1</v>
-      </c>
-      <c r="E59" s="4" t="s">
+      <c r="D59" s="5">
+        <v>1</v>
+      </c>
+      <c r="E59" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="F59" s="4" t="b">
+      <c r="F59" s="5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
+      <c r="A60" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B60" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="C60" s="4" t="s">
+      <c r="C60" s="5" t="s">
         <v>281</v>
       </c>
-      <c r="D60" s="4">
-        <v>1</v>
-      </c>
-      <c r="E60" s="4" t="s">
+      <c r="D60" s="5">
+        <v>1</v>
+      </c>
+      <c r="E60" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="F60" s="4" t="b">
+      <c r="F60" s="5" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
+      <c r="A61" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B61" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="C61" s="4" t="s">
+      <c r="C61" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="D61" s="4">
-        <v>1</v>
-      </c>
-      <c r="E61" s="4" t="s">
+      <c r="D61" s="5">
+        <v>1</v>
+      </c>
+      <c r="E61" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="F61" s="4" t="b">
+      <c r="F61" s="5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
+      <c r="A62" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B62" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="C62" s="4" t="s">
+      <c r="C62" s="5" t="s">
         <v>302</v>
       </c>
-      <c r="D62" s="4">
+      <c r="D62" s="5">
         <v>2</v>
       </c>
-      <c r="E62" s="4" t="s">
+      <c r="E62" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="F62" s="4" t="b">
+      <c r="F62" s="5" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
+      <c r="A63" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B63" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="C63" s="4" t="s">
+      <c r="C63" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="D63" s="4">
+      <c r="D63" s="5">
         <v>400</v>
       </c>
-      <c r="E63" s="4" t="s">
+      <c r="E63" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="F63" s="4" t="b">
+      <c r="F63" s="5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
+      <c r="A64" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B64" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="C64" s="4" t="s">
+      <c r="C64" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="D64" s="4">
+      <c r="D64" s="5">
         <v>0.5</v>
       </c>
-      <c r="E64" s="4" t="s">
+      <c r="E64" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="F64" s="4" t="b">
+      <c r="F64" s="5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
+      <c r="A65" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B65" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="C65" s="4" t="s">
+      <c r="C65" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="D65" s="4">
-        <v>1</v>
-      </c>
-      <c r="E65" s="4" t="s">
+      <c r="D65" s="5">
+        <v>1</v>
+      </c>
+      <c r="E65" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="F65" s="4" t="b">
+      <c r="F65" s="5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
+      <c r="A66" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B66" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="C66" s="4" t="s">
+      <c r="C66" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="D66" s="4">
-        <v>1</v>
-      </c>
-      <c r="E66" s="4" t="s">
+      <c r="D66" s="5">
+        <v>1</v>
+      </c>
+      <c r="E66" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="F66" s="4" t="b">
+      <c r="F66" s="5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
+      <c r="A67" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B67" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="C67" s="4" t="s">
+      <c r="C67" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="D67" s="4">
-        <v>1</v>
-      </c>
-      <c r="E67" s="4" t="s">
+      <c r="D67" s="5">
+        <v>1</v>
+      </c>
+      <c r="E67" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="F67" s="4" t="b">
+      <c r="F67" s="5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
+      <c r="A68" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B68" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="C68" s="4" t="s">
+      <c r="C68" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="D68" s="4">
-        <v>1</v>
-      </c>
-      <c r="E68" s="4" t="s">
+      <c r="D68" s="5">
+        <v>1</v>
+      </c>
+      <c r="E68" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="F68" s="4" t="b">
+      <c r="F68" s="5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
+      <c r="A69" s="5" t="s">
         <v>311</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B69" s="5" t="s">
         <v>314</v>
       </c>
-      <c r="C69" s="4" t="s">
+      <c r="C69" s="5" t="s">
         <v>315</v>
       </c>
-      <c r="D69" s="4">
+      <c r="D69" s="5">
         <v>200</v>
       </c>
-      <c r="E69" s="4" t="s">
+      <c r="E69" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="F69" s="4" t="b">
+      <c r="F69" s="5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
+      <c r="A70" s="5" t="s">
         <v>311</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B70" s="5" t="s">
         <v>314</v>
       </c>
-      <c r="C70" s="4" t="s">
+      <c r="C70" s="5" t="s">
         <v>316</v>
       </c>
-      <c r="D70" s="4">
+      <c r="D70" s="5">
         <v>2</v>
       </c>
-      <c r="E70" s="4" t="s">
+      <c r="E70" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="F70" s="4" t="b">
+      <c r="F70" s="5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
+      <c r="A71" s="5" t="s">
         <v>311</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B71" s="5" t="s">
         <v>314</v>
       </c>
-      <c r="C71" t="s">
+      <c r="C71" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="D71" s="4">
+      <c r="D71" s="5">
         <v>0.5</v>
       </c>
-      <c r="E71" s="4" t="s">
+      <c r="E71" s="5" t="s">
         <v>330</v>
       </c>
-      <c r="F71" s="4" t="b">
+      <c r="F71" s="5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
+      <c r="A72" s="5" t="s">
         <v>311</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B72" s="5" t="s">
         <v>314</v>
       </c>
-      <c r="C72" s="4" t="s">
+      <c r="C72" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="D72" s="4">
+      <c r="D72" s="5">
         <v>0.5</v>
       </c>
-      <c r="E72" s="4" t="s">
+      <c r="E72" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="F72" s="4" t="b">
+      <c r="F72" s="5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
+      <c r="A73" s="5" t="s">
         <v>311</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B73" s="5" t="s">
         <v>314</v>
       </c>
-      <c r="C73" s="4" t="s">
+      <c r="C73" s="5" t="s">
         <v>317</v>
       </c>
-      <c r="D73" s="4">
+      <c r="D73" s="5">
         <v>3</v>
       </c>
-      <c r="E73" s="4" t="s">
+      <c r="E73" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="F73" s="4" t="b">
+      <c r="F73" s="5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
+      <c r="A74" s="5" t="s">
         <v>311</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B74" s="5" t="s">
         <v>314</v>
       </c>
-      <c r="C74" s="4" t="s">
+      <c r="C74" s="5" t="s">
         <v>318</v>
       </c>
-      <c r="D74" s="4">
-        <v>1</v>
-      </c>
-      <c r="E74" s="4" t="s">
+      <c r="D74" s="5">
+        <v>1</v>
+      </c>
+      <c r="E74" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="F74" s="4" t="b">
+      <c r="F74" s="5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A75" t="s">
+      <c r="A75" s="5" t="s">
         <v>311</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B75" s="5" t="s">
         <v>314</v>
       </c>
-      <c r="C75" s="4" t="s">
+      <c r="C75" s="5" t="s">
         <v>319</v>
       </c>
-      <c r="D75" s="4">
+      <c r="D75" s="5">
         <v>0.5</v>
       </c>
-      <c r="E75" s="4" t="s">
+      <c r="E75" s="5" t="s">
         <v>329</v>
       </c>
-      <c r="F75" s="4" t="b">
+      <c r="F75" s="5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
+      <c r="A76" s="5" t="s">
         <v>311</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B76" s="5" t="s">
         <v>314</v>
       </c>
-      <c r="C76" s="4" t="s">
+      <c r="C76" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="D76" s="4">
+      <c r="D76" s="5">
         <v>30</v>
       </c>
-      <c r="E76" s="4" t="s">
+      <c r="E76" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="F76" s="4" t="b">
+      <c r="F76" s="5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A77" t="s">
+      <c r="A77" s="5" t="s">
         <v>311</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B77" s="5" t="s">
         <v>314</v>
       </c>
-      <c r="C77" s="4" t="s">
+      <c r="C77" s="5" t="s">
         <v>327</v>
       </c>
-      <c r="D77" s="4">
-        <v>1</v>
-      </c>
-      <c r="E77" s="4" t="s">
+      <c r="D77" s="5">
+        <v>1</v>
+      </c>
+      <c r="E77" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="F77" s="4" t="b">
+      <c r="F77" s="5" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A78" t="s">
+      <c r="A78" s="5" t="s">
         <v>311</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B78" s="5" t="s">
         <v>314</v>
       </c>
-      <c r="C78" s="4" t="s">
+      <c r="C78" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="D78" s="4">
-        <v>1</v>
-      </c>
-      <c r="E78" s="4" t="s">
+      <c r="D78" s="5">
+        <v>1</v>
+      </c>
+      <c r="E78" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="F78" s="4" t="b">
+      <c r="F78" s="5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A79" t="s">
+      <c r="A79" s="5" t="s">
         <v>311</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B79" s="5" t="s">
         <v>314</v>
       </c>
-      <c r="C79" s="4" t="s">
+      <c r="C79" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="D79" s="4">
-        <v>1</v>
-      </c>
-      <c r="E79" s="4" t="s">
+      <c r="D79" s="5">
+        <v>1</v>
+      </c>
+      <c r="E79" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="F79" s="4" t="b">
+      <c r="F79" s="5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A80" t="s">
+      <c r="A80" s="5" t="s">
         <v>348</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B80" s="5" t="s">
         <v>353</v>
       </c>
-      <c r="C80" s="4" t="s">
+      <c r="C80" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="D80" s="4">
-        <v>1</v>
-      </c>
-      <c r="E80" s="4" t="s">
+      <c r="D80" s="5">
+        <v>1</v>
+      </c>
+      <c r="E80" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="F80" s="4" t="b">
+      <c r="F80" s="5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A81" t="s">
+      <c r="A81" s="5" t="s">
         <v>348</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B81" s="5" t="s">
         <v>353</v>
       </c>
-      <c r="C81" s="4" t="s">
+      <c r="C81" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="D81" s="4">
-        <v>1</v>
-      </c>
-      <c r="E81" s="4" t="s">
+      <c r="D81" s="5">
+        <v>1</v>
+      </c>
+      <c r="E81" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="F81" s="4" t="b">
+      <c r="F81" s="5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A82" t="s">
+      <c r="A82" s="5" t="s">
         <v>348</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B82" s="5" t="s">
         <v>353</v>
       </c>
-      <c r="C82" s="4" t="s">
+      <c r="C82" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="D82" s="4">
-        <v>1</v>
-      </c>
-      <c r="E82" s="4" t="s">
+      <c r="D82" s="5">
+        <v>1</v>
+      </c>
+      <c r="E82" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="F82" s="4" t="b">
+      <c r="F82" s="5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A83" t="s">
+      <c r="A83" s="5" t="s">
         <v>348</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B83" s="5" t="s">
         <v>353</v>
       </c>
-      <c r="C83" s="4" t="s">
+      <c r="C83" s="5" t="s">
         <v>354</v>
       </c>
-      <c r="D83" s="4">
+      <c r="D83" s="5">
         <v>0.5</v>
       </c>
-      <c r="E83" s="4" t="s">
+      <c r="E83" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="F83" s="4" t="b">
+      <c r="F83" s="5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A84" t="s">
+      <c r="A84" s="5" t="s">
         <v>348</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B84" s="5" t="s">
         <v>353</v>
       </c>
-      <c r="C84" s="4" t="s">
+      <c r="C84" s="5" t="s">
         <v>316</v>
       </c>
-      <c r="D84" s="4">
-        <v>1</v>
-      </c>
-      <c r="E84" s="4" t="s">
+      <c r="D84" s="5">
+        <v>1</v>
+      </c>
+      <c r="E84" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="F84" s="4" t="b">
+      <c r="F84" s="5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A85" t="s">
+      <c r="A85" s="5" t="s">
         <v>348</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B85" s="5" t="s">
         <v>353</v>
       </c>
-      <c r="C85" s="4" t="s">
+      <c r="C85" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="D85" s="4">
+      <c r="D85" s="5">
         <v>0.5</v>
       </c>
-      <c r="E85" s="4" t="s">
+      <c r="E85" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="F85" s="4" t="b">
+      <c r="F85" s="5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A86" t="s">
+      <c r="A86" s="5" t="s">
         <v>348</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B86" s="5" t="s">
         <v>353</v>
       </c>
-      <c r="C86" s="4" t="s">
+      <c r="C86" s="5" t="s">
         <v>355</v>
       </c>
-      <c r="D86" s="4">
-        <v>1</v>
-      </c>
-      <c r="E86" s="4" t="s">
+      <c r="D86" s="5">
+        <v>1</v>
+      </c>
+      <c r="E86" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="F86" s="4" t="b">
+      <c r="F86" s="5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A87" t="s">
+      <c r="A87" s="5" t="s">
         <v>370</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B87" s="5" t="s">
         <v>377</v>
       </c>
-      <c r="C87" s="4" t="s">
+      <c r="C87" s="5" t="s">
         <v>354</v>
       </c>
-      <c r="D87" s="4">
+      <c r="D87" s="5">
         <v>0.5</v>
       </c>
-      <c r="E87" s="4" t="s">
+      <c r="E87" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="F87" s="4" t="b">
+      <c r="F87" s="5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A88" t="s">
+      <c r="A88" s="5" t="s">
         <v>370</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B88" s="5" t="s">
         <v>377</v>
       </c>
-      <c r="C88" s="4" t="s">
+      <c r="C88" s="5" t="s">
         <v>316</v>
       </c>
-      <c r="D88" s="4">
-        <v>1</v>
-      </c>
-      <c r="E88" s="4" t="s">
+      <c r="D88" s="5">
+        <v>1</v>
+      </c>
+      <c r="E88" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="F88" s="4" t="b">
+      <c r="F88" s="5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A89" t="s">
+      <c r="A89" s="5" t="s">
         <v>370</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B89" s="5" t="s">
         <v>377</v>
       </c>
-      <c r="C89" s="4" t="s">
+      <c r="C89" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="D89" s="4">
+      <c r="D89" s="5">
         <v>0.5</v>
       </c>
-      <c r="E89" s="4" t="s">
+      <c r="E89" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="F89" s="4" t="b">
+      <c r="F89" s="5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A90" t="s">
+      <c r="A90" s="5" t="s">
         <v>370</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B90" s="5" t="s">
         <v>377</v>
       </c>
-      <c r="C90" s="4" t="s">
+      <c r="C90" s="5" t="s">
         <v>355</v>
       </c>
-      <c r="D90" s="4">
-        <v>1</v>
-      </c>
-      <c r="E90" s="4" t="s">
+      <c r="D90" s="5">
+        <v>1</v>
+      </c>
+      <c r="E90" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="F90" s="4" t="b">
+      <c r="F90" s="5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A91" t="s">
+      <c r="A91" s="5" t="s">
         <v>370</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B91" s="5" t="s">
         <v>378</v>
       </c>
-      <c r="C91" s="4" t="s">
+      <c r="C91" s="5" t="s">
         <v>379</v>
       </c>
-      <c r="D91" s="4">
+      <c r="D91" s="5">
         <v>4</v>
       </c>
-      <c r="E91" s="4" t="s">
+      <c r="E91" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="F91" s="4" t="b">
+      <c r="F91" s="5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A92" t="s">
+      <c r="A92" s="5" t="s">
         <v>370</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B92" s="5" t="s">
         <v>378</v>
       </c>
-      <c r="C92" s="4" t="s">
+      <c r="C92" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="D92" s="4">
+      <c r="D92" s="5">
         <v>0.5</v>
       </c>
-      <c r="E92" s="4" t="s">
+      <c r="E92" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="F92" s="4" t="b">
+      <c r="F92" s="5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A93" t="s">
+      <c r="A93" s="5" t="s">
         <v>370</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B93" s="5" t="s">
         <v>378</v>
       </c>
-      <c r="C93" s="4" t="s">
+      <c r="C93" s="5" t="s">
         <v>428</v>
       </c>
-      <c r="D93" s="4">
-        <v>1</v>
-      </c>
-      <c r="E93" s="4" t="s">
+      <c r="D93" s="5">
+        <v>1</v>
+      </c>
+      <c r="E93" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="F93" s="4" t="b">
+      <c r="F93" s="5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A94" t="s">
+      <c r="A94" s="5" t="s">
         <v>370</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B94" s="5" t="s">
         <v>378</v>
       </c>
-      <c r="C94" s="4" t="s">
+      <c r="C94" s="5" t="s">
         <v>429</v>
       </c>
-      <c r="D94" s="4">
+      <c r="D94" s="5">
         <v>5</v>
       </c>
-      <c r="E94" s="4" t="s">
+      <c r="E94" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="F94" s="4" t="b">
+      <c r="F94" s="5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A95" t="s">
+      <c r="A95" s="5" t="s">
         <v>370</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B95" s="5" t="s">
         <v>378</v>
       </c>
-      <c r="C95" s="4" t="s">
+      <c r="C95" s="5" t="s">
         <v>430</v>
       </c>
-      <c r="D95" s="4">
+      <c r="D95" s="5">
         <v>10</v>
       </c>
-      <c r="E95" s="4" t="s">
+      <c r="E95" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="F95" s="4" t="b">
+      <c r="F95" s="5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A96" t="s">
+      <c r="A96" s="5" t="s">
         <v>370</v>
       </c>
-      <c r="B96" t="s">
+      <c r="B96" s="5" t="s">
         <v>378</v>
       </c>
-      <c r="C96" s="4" t="s">
+      <c r="C96" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="D96" s="4">
+      <c r="D96" s="5">
         <v>2</v>
       </c>
-      <c r="E96" s="4" t="s">
+      <c r="E96" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="F96" s="4" t="b">
+      <c r="F96" s="5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A97" t="s">
+      <c r="A97" s="5" t="s">
         <v>370</v>
       </c>
-      <c r="B97" t="s">
+      <c r="B97" s="5" t="s">
         <v>378</v>
       </c>
-      <c r="C97" s="4" t="s">
+      <c r="C97" s="5" t="s">
         <v>283</v>
       </c>
-      <c r="D97">
+      <c r="D97" s="5">
         <v>2</v>
       </c>
-      <c r="E97" t="s">
+      <c r="E97" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="F97" s="4" t="b">
+      <c r="F97" s="5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A98" t="s">
+      <c r="A98" s="5" t="s">
         <v>370</v>
       </c>
-      <c r="B98" t="s">
+      <c r="B98" s="5" t="s">
         <v>378</v>
       </c>
-      <c r="C98" s="4" t="s">
+      <c r="C98" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="D98">
-        <v>1</v>
-      </c>
-      <c r="E98" t="s">
+      <c r="D98" s="5">
+        <v>1</v>
+      </c>
+      <c r="E98" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="F98" s="4" t="b">
+      <c r="F98" s="5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A99" t="s">
+      <c r="A99" s="5" t="s">
         <v>370</v>
       </c>
-      <c r="B99" t="s">
+      <c r="B99" s="5" t="s">
         <v>378</v>
       </c>
-      <c r="C99" s="4" t="s">
+      <c r="C99" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="D99">
-        <v>1</v>
-      </c>
-      <c r="E99" t="s">
+      <c r="D99" s="5">
+        <v>1</v>
+      </c>
+      <c r="E99" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="F99" s="4" t="b">
+      <c r="F99" s="5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A100" t="s">
+      <c r="A100" s="5" t="s">
         <v>370</v>
       </c>
-      <c r="B100" t="s">
+      <c r="B100" s="5" t="s">
         <v>388</v>
       </c>
-      <c r="C100" t="s">
+      <c r="C100" s="5" t="s">
         <v>403</v>
       </c>
-      <c r="D100" s="4">
-        <v>1</v>
-      </c>
-      <c r="E100" s="4" t="s">
+      <c r="D100" s="5">
+        <v>1</v>
+      </c>
+      <c r="E100" s="5" t="s">
         <v>407</v>
       </c>
-      <c r="F100" s="4" t="b">
+      <c r="F100" s="5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A101" t="s">
+      <c r="A101" s="5" t="s">
         <v>382</v>
       </c>
-      <c r="B101" t="s">
+      <c r="B101" s="5" t="s">
         <v>388</v>
       </c>
-      <c r="C101" t="s">
+      <c r="C101" s="5" t="s">
         <v>403</v>
       </c>
-      <c r="D101" s="4">
-        <v>1</v>
-      </c>
-      <c r="E101" s="4" t="s">
+      <c r="D101" s="5">
+        <v>1</v>
+      </c>
+      <c r="E101" s="5" t="s">
         <v>407</v>
       </c>
-      <c r="F101" s="4" t="b">
+      <c r="F101" s="5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A102" t="s">
+      <c r="A102" s="5" t="s">
         <v>382</v>
       </c>
-      <c r="B102" t="s">
+      <c r="B102" s="5" t="s">
         <v>388</v>
       </c>
-      <c r="C102" t="s">
+      <c r="C102" s="5" t="s">
         <v>404</v>
       </c>
-      <c r="D102" s="4">
+      <c r="D102" s="5">
         <v>80</v>
       </c>
-      <c r="E102" s="4" t="s">
+      <c r="E102" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="F102" s="4" t="b">
+      <c r="F102" s="5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A103" t="s">
+      <c r="A103" s="5" t="s">
         <v>382</v>
       </c>
-      <c r="B103" t="s">
+      <c r="B103" s="5" t="s">
         <v>388</v>
       </c>
-      <c r="C103" t="s">
+      <c r="C103" s="5" t="s">
         <v>392</v>
       </c>
-      <c r="D103" s="4">
+      <c r="D103" s="5">
         <v>2</v>
       </c>
-      <c r="E103" s="4" t="s">
+      <c r="E103" s="5" t="s">
         <v>408</v>
       </c>
-      <c r="F103" s="4" t="b">
+      <c r="F103" s="5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A104" t="s">
+      <c r="A104" s="5" t="s">
         <v>382</v>
       </c>
-      <c r="B104" t="s">
+      <c r="B104" s="5" t="s">
         <v>388</v>
       </c>
-      <c r="C104" t="s">
+      <c r="C104" s="5" t="s">
         <v>394</v>
       </c>
-      <c r="D104" s="4">
+      <c r="D104" s="5">
         <v>0.25</v>
       </c>
-      <c r="E104" s="4" t="s">
+      <c r="E104" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="F104" s="4" t="b">
+      <c r="F104" s="5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A105" t="s">
+      <c r="A105" s="5" t="s">
         <v>382</v>
       </c>
-      <c r="B105" t="s">
+      <c r="B105" s="5" t="s">
         <v>388</v>
       </c>
-      <c r="C105" t="s">
+      <c r="C105" s="5" t="s">
         <v>405</v>
       </c>
-      <c r="D105" s="4">
-        <v>1</v>
-      </c>
-      <c r="E105" s="4" t="s">
+      <c r="D105" s="5">
+        <v>1</v>
+      </c>
+      <c r="E105" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="F105" s="4" t="b">
+      <c r="F105" s="5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A106" t="s">
+      <c r="A106" s="5" t="s">
         <v>382</v>
       </c>
-      <c r="B106" t="s">
+      <c r="B106" s="5" t="s">
         <v>388</v>
       </c>
-      <c r="C106" t="s">
+      <c r="C106" s="5" t="s">
         <v>317</v>
       </c>
-      <c r="D106" s="4">
-        <v>1</v>
-      </c>
-      <c r="E106" s="4" t="s">
+      <c r="D106" s="5">
+        <v>1</v>
+      </c>
+      <c r="E106" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="F106" s="4" t="b">
+      <c r="F106" s="5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A107" t="s">
+      <c r="A107" s="5" t="s">
         <v>382</v>
       </c>
-      <c r="B107" t="s">
+      <c r="B107" s="5" t="s">
         <v>388</v>
       </c>
-      <c r="C107" t="s">
+      <c r="C107" s="5" t="s">
         <v>406</v>
       </c>
-      <c r="D107" s="4">
-        <v>1</v>
-      </c>
-      <c r="E107" s="4" t="s">
+      <c r="D107" s="5">
+        <v>1</v>
+      </c>
+      <c r="E107" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="F107" s="4" t="b">
+      <c r="F107" s="5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A108" t="s">
+      <c r="A108" s="5" t="s">
         <v>382</v>
       </c>
-      <c r="B108" t="s">
+      <c r="B108" s="5" t="s">
         <v>388</v>
       </c>
-      <c r="C108" t="s">
+      <c r="C108" s="5" t="s">
         <v>398</v>
       </c>
-      <c r="D108" s="4">
+      <c r="D108" s="5">
         <v>5</v>
       </c>
-      <c r="E108" s="4" t="s">
+      <c r="E108" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="F108" s="4" t="b">
+      <c r="F108" s="5" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A109" t="s">
+      <c r="A109" s="5" t="s">
         <v>382</v>
       </c>
-      <c r="B109" t="s">
+      <c r="B109" s="5" t="s">
         <v>388</v>
       </c>
-      <c r="C109" t="s">
+      <c r="C109" s="5" t="s">
         <v>400</v>
       </c>
-      <c r="D109" s="4">
+      <c r="D109" s="5">
         <v>4</v>
       </c>
-      <c r="E109" s="4" t="s">
+      <c r="E109" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="F109" s="4" t="b">
+      <c r="F109" s="5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A110" t="s">
+      <c r="A110" s="5" t="s">
         <v>382</v>
       </c>
-      <c r="B110" t="s">
+      <c r="B110" s="5" t="s">
         <v>388</v>
       </c>
-      <c r="C110" t="s">
+      <c r="C110" s="5" t="s">
         <v>402</v>
       </c>
-      <c r="D110" s="4">
-        <v>1</v>
-      </c>
-      <c r="E110" s="4" t="s">
+      <c r="D110" s="5">
+        <v>1</v>
+      </c>
+      <c r="E110" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="F110" s="4" t="b">
+      <c r="F110" s="5" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A111" t="s">
+      <c r="A111" s="5" t="s">
         <v>382</v>
       </c>
-      <c r="B111" t="s">
+      <c r="B111" s="5" t="s">
         <v>388</v>
       </c>
-      <c r="C111" t="s">
+      <c r="C111" s="5" t="s">
         <v>409</v>
       </c>
-      <c r="D111" s="4">
+      <c r="D111" s="5">
         <v>6</v>
       </c>
-      <c r="E111" s="4" t="s">
+      <c r="E111" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="F111" s="4" t="b">
+      <c r="F111" s="5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A112" t="s">
+      <c r="A112" s="5" t="s">
         <v>382</v>
       </c>
-      <c r="B112" t="s">
+      <c r="B112" s="5" t="s">
         <v>388</v>
       </c>
-      <c r="C112" t="s">
+      <c r="C112" s="5" t="s">
         <v>411</v>
       </c>
-      <c r="D112">
+      <c r="D112" s="5">
         <v>6</v>
       </c>
-      <c r="E112" s="4" t="s">
+      <c r="E112" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="F112" s="4" t="b">
+      <c r="F112" s="5" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A113" t="s">
+      <c r="A113" s="5" t="s">
         <v>382</v>
       </c>
-      <c r="B113" t="s">
+      <c r="B113" s="5" t="s">
         <v>388</v>
       </c>
-      <c r="C113" t="s">
+      <c r="C113" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="D113" s="4">
-        <v>1</v>
-      </c>
-      <c r="E113" s="4" t="s">
+      <c r="D113" s="5">
+        <v>1</v>
+      </c>
+      <c r="E113" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="F113" s="4" t="b">
+      <c r="F113" s="5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A114" t="s">
+      <c r="A114" s="5" t="s">
         <v>382</v>
       </c>
-      <c r="B114" t="s">
+      <c r="B114" s="5" t="s">
         <v>388</v>
       </c>
-      <c r="C114" s="4" t="s">
+      <c r="C114" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="D114" s="4">
-        <v>1</v>
-      </c>
-      <c r="E114" s="4" t="s">
+      <c r="D114" s="5">
+        <v>1</v>
+      </c>
+      <c r="E114" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="F114" s="4" t="b">
+      <c r="F114" s="5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A115" s="5" t="s">
+        <v>456</v>
+      </c>
+      <c r="B115" s="5" t="s">
+        <v>464</v>
+      </c>
+      <c r="C115" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D115" s="5">
+        <v>40</v>
+      </c>
+      <c r="E115" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F115" s="5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A116" s="5" t="s">
+        <v>456</v>
+      </c>
+      <c r="B116" s="5" t="s">
+        <v>464</v>
+      </c>
+      <c r="C116" s="5" t="s">
+        <v>461</v>
+      </c>
+      <c r="D116" s="5">
+        <v>60</v>
+      </c>
+      <c r="E116" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F116" s="5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A117" s="5" t="s">
+        <v>456</v>
+      </c>
+      <c r="B117" s="5" t="s">
+        <v>464</v>
+      </c>
+      <c r="C117" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D117" s="5">
+        <v>100</v>
+      </c>
+      <c r="E117" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F117" s="5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A118" s="5" t="s">
+        <v>456</v>
+      </c>
+      <c r="B118" s="5" t="s">
+        <v>464</v>
+      </c>
+      <c r="C118" s="5" t="s">
+        <v>466</v>
+      </c>
+      <c r="D118" s="5">
+        <v>10</v>
+      </c>
+      <c r="E118" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F118" s="5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A119" s="5" t="s">
+        <v>456</v>
+      </c>
+      <c r="B119" s="5" t="s">
+        <v>464</v>
+      </c>
+      <c r="C119" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D119" s="5">
+        <v>1</v>
+      </c>
+      <c r="E119" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F119" s="5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A120" s="5" t="s">
+        <v>456</v>
+      </c>
+      <c r="B120" s="5" t="s">
+        <v>464</v>
+      </c>
+      <c r="C120" s="5" t="s">
+        <v>462</v>
+      </c>
+      <c r="D120" s="5">
+        <v>10</v>
+      </c>
+      <c r="E120" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F120" s="5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A121" s="5" t="s">
+        <v>456</v>
+      </c>
+      <c r="B121" s="5" t="s">
+        <v>464</v>
+      </c>
+      <c r="C121" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D121" s="5">
+        <v>4</v>
+      </c>
+      <c r="E121" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="F121" s="5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A122" s="5" t="s">
+        <v>456</v>
+      </c>
+      <c r="B122" s="5" t="s">
+        <v>465</v>
+      </c>
+      <c r="C122" s="5" t="s">
+        <v>460</v>
+      </c>
+      <c r="D122" s="5">
+        <v>24</v>
+      </c>
+      <c r="E122" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="F122" s="5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A123" s="5" t="s">
+        <v>456</v>
+      </c>
+      <c r="B123" s="5" t="s">
+        <v>465</v>
+      </c>
+      <c r="C123" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D123" s="5">
+        <v>40</v>
+      </c>
+      <c r="E123" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F123" s="5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A124" s="5" t="s">
+        <v>456</v>
+      </c>
+      <c r="B124" s="5" t="s">
+        <v>465</v>
+      </c>
+      <c r="C124" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D124" s="5">
+        <v>1</v>
+      </c>
+      <c r="E124" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="F124" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4856,10 +5471,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:M66"/>
+  <dimension ref="A1:M70"/>
   <sheetViews>
     <sheetView topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="A67" sqref="A67"/>
+      <selection activeCell="D76" sqref="D76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5433,6 +6048,38 @@
       </c>
       <c r="B66" t="s">
         <v>433</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67" s="5" t="s">
+        <v>461</v>
+      </c>
+      <c r="B67" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68" s="5" t="s">
+        <v>466</v>
+      </c>
+      <c r="B68" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69" s="5" t="s">
+        <v>462</v>
+      </c>
+      <c r="B69" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70" s="5" t="s">
+        <v>460</v>
+      </c>
+      <c r="B70" t="s">
+        <v>470</v>
       </c>
     </row>
   </sheetData>
@@ -5444,11 +6091,660 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{348BD390-6058-3244-B040-3ECD44D7EDBB}">
+  <dimension ref="A1:D45"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="4"/>
+    <col min="3" max="3" width="12.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C2" t="s">
+        <v>195</v>
+      </c>
+      <c r="D2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C3" t="s">
+        <v>165</v>
+      </c>
+      <c r="D3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>173</v>
+      </c>
+      <c r="C4" t="s">
+        <v>166</v>
+      </c>
+      <c r="D4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>174</v>
+      </c>
+      <c r="C5" t="s">
+        <v>167</v>
+      </c>
+      <c r="D5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>175</v>
+      </c>
+      <c r="C6" t="s">
+        <v>168</v>
+      </c>
+      <c r="D6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>176</v>
+      </c>
+      <c r="C7" t="s">
+        <v>169</v>
+      </c>
+      <c r="D7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>177</v>
+      </c>
+      <c r="C8" t="s">
+        <v>170</v>
+      </c>
+      <c r="D8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>178</v>
+      </c>
+      <c r="C9" t="s">
+        <v>179</v>
+      </c>
+      <c r="D9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" t="s">
+        <v>199</v>
+      </c>
+      <c r="C10" t="s">
+        <v>196</v>
+      </c>
+      <c r="D10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" t="s">
+        <v>173</v>
+      </c>
+      <c r="C11" t="s">
+        <v>166</v>
+      </c>
+      <c r="D11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" t="s">
+        <v>174</v>
+      </c>
+      <c r="C12" t="s">
+        <v>167</v>
+      </c>
+      <c r="D12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" t="s">
+        <v>200</v>
+      </c>
+      <c r="C13" t="s">
+        <v>201</v>
+      </c>
+      <c r="D13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" t="s">
+        <v>172</v>
+      </c>
+      <c r="C14" t="s">
+        <v>165</v>
+      </c>
+      <c r="D14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" t="s">
+        <v>198</v>
+      </c>
+      <c r="C15" t="s">
+        <v>197</v>
+      </c>
+      <c r="D15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" t="s">
+        <v>173</v>
+      </c>
+      <c r="C16" t="s">
+        <v>166</v>
+      </c>
+      <c r="D16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" t="s">
+        <v>245</v>
+      </c>
+      <c r="C17" t="s">
+        <v>244</v>
+      </c>
+      <c r="D17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" t="s">
+        <v>246</v>
+      </c>
+      <c r="C18" t="s">
+        <v>243</v>
+      </c>
+      <c r="D18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" t="s">
+        <v>174</v>
+      </c>
+      <c r="C19" t="s">
+        <v>167</v>
+      </c>
+      <c r="D19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" t="s">
+        <v>172</v>
+      </c>
+      <c r="C20" t="s">
+        <v>165</v>
+      </c>
+      <c r="D20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" t="s">
+        <v>199</v>
+      </c>
+      <c r="C21" t="s">
+        <v>196</v>
+      </c>
+      <c r="D21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" t="s">
+        <v>199</v>
+      </c>
+      <c r="C22" t="s">
+        <v>196</v>
+      </c>
+      <c r="D22" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" t="s">
+        <v>173</v>
+      </c>
+      <c r="C23" t="s">
+        <v>166</v>
+      </c>
+      <c r="D23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" t="s">
+        <v>174</v>
+      </c>
+      <c r="C24" t="s">
+        <v>167</v>
+      </c>
+      <c r="D24" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" t="s">
+        <v>200</v>
+      </c>
+      <c r="C25" t="s">
+        <v>201</v>
+      </c>
+      <c r="D25" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" t="s">
+        <v>172</v>
+      </c>
+      <c r="C26" t="s">
+        <v>165</v>
+      </c>
+      <c r="D26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" t="s">
+        <v>198</v>
+      </c>
+      <c r="C27" t="s">
+        <v>197</v>
+      </c>
+      <c r="D27" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28" t="s">
+        <v>174</v>
+      </c>
+      <c r="C28" t="s">
+        <v>167</v>
+      </c>
+      <c r="D28" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29" t="s">
+        <v>199</v>
+      </c>
+      <c r="C29" t="s">
+        <v>196</v>
+      </c>
+      <c r="D29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" t="s">
+        <v>247</v>
+      </c>
+      <c r="C30" t="s">
+        <v>248</v>
+      </c>
+      <c r="D30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="B31" t="s">
+        <v>247</v>
+      </c>
+      <c r="C31" t="s">
+        <v>248</v>
+      </c>
+      <c r="D31" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="B32" t="s">
+        <v>198</v>
+      </c>
+      <c r="C32" t="s">
+        <v>197</v>
+      </c>
+      <c r="D32" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="B33" t="s">
+        <v>174</v>
+      </c>
+      <c r="C33" t="s">
+        <v>167</v>
+      </c>
+      <c r="D33" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="B34" t="s">
+        <v>173</v>
+      </c>
+      <c r="C34" t="s">
+        <v>166</v>
+      </c>
+      <c r="D34" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="B35" t="s">
+        <v>173</v>
+      </c>
+      <c r="C35" t="s">
+        <v>166</v>
+      </c>
+      <c r="D35" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="B36" t="s">
+        <v>331</v>
+      </c>
+      <c r="C36" t="s">
+        <v>332</v>
+      </c>
+      <c r="D36" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="B37" t="s">
+        <v>174</v>
+      </c>
+      <c r="C37" t="s">
+        <v>167</v>
+      </c>
+      <c r="D37" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="B38" t="s">
+        <v>364</v>
+      </c>
+      <c r="C38" t="s">
+        <v>366</v>
+      </c>
+      <c r="D38" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="B39" t="s">
+        <v>367</v>
+      </c>
+      <c r="C39" t="s">
+        <v>365</v>
+      </c>
+      <c r="D39" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="B40" t="s">
+        <v>247</v>
+      </c>
+      <c r="C40" t="s">
+        <v>248</v>
+      </c>
+      <c r="D40" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="B41" t="s">
+        <v>367</v>
+      </c>
+      <c r="C41" t="s">
+        <v>365</v>
+      </c>
+      <c r="D41" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" s="4" t="s">
+        <v>456</v>
+      </c>
+      <c r="B42" t="s">
+        <v>198</v>
+      </c>
+      <c r="C42" t="s">
+        <v>197</v>
+      </c>
+      <c r="D42" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" s="4" t="s">
+        <v>456</v>
+      </c>
+      <c r="B43" t="s">
+        <v>471</v>
+      </c>
+      <c r="C43" t="s">
+        <v>472</v>
+      </c>
+      <c r="D43" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" s="4" t="s">
+        <v>456</v>
+      </c>
+      <c r="B44" t="s">
+        <v>174</v>
+      </c>
+      <c r="C44" t="s">
+        <v>167</v>
+      </c>
+      <c r="D44" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" s="4" t="s">
+        <v>456</v>
+      </c>
+      <c r="B45" t="s">
+        <v>474</v>
+      </c>
+      <c r="C45" t="s">
+        <v>473</v>
+      </c>
+      <c r="D45" t="b">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:O80"/>
+  <dimension ref="A1:O88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="E81" sqref="E81"/>
+    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
+      <selection activeCell="B83" sqref="B83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7548,601 +8844,168 @@
         <v>0</v>
       </c>
     </row>
+    <row r="81" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="A81" s="4" t="s">
+        <v>456</v>
+      </c>
+      <c r="B81" s="4">
+        <v>1</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D81" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E81" s="6" t="s">
+        <v>483</v>
+      </c>
+      <c r="F81" s="6" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A82" s="4" t="s">
+        <v>456</v>
+      </c>
+      <c r="B82" s="4">
+        <v>2</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D82" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E82" t="s">
+        <v>484</v>
+      </c>
+      <c r="F82" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A83" s="4" t="s">
+        <v>456</v>
+      </c>
+      <c r="B83" s="4">
+        <v>3</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D83" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E83" s="6" t="s">
+        <v>485</v>
+      </c>
+      <c r="F83" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A84" s="4" t="s">
+        <v>456</v>
+      </c>
+      <c r="B84" s="4">
+        <v>4</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D84" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E84" t="s">
+        <v>486</v>
+      </c>
+      <c r="F84" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A85" s="4" t="s">
+        <v>456</v>
+      </c>
+      <c r="B85" s="4">
+        <v>5</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D85" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E85" s="6" t="s">
+        <v>487</v>
+      </c>
+      <c r="F85" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="A86" s="4" t="s">
+        <v>456</v>
+      </c>
+      <c r="B86" s="4">
+        <v>6</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D86" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E86" s="6" t="s">
+        <v>488</v>
+      </c>
+      <c r="F86" s="6" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A87" s="4" t="s">
+        <v>456</v>
+      </c>
+      <c r="B87" s="4">
+        <v>7</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D87" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E87" s="6" t="s">
+        <v>489</v>
+      </c>
+      <c r="F87" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A88" s="4" t="s">
+        <v>456</v>
+      </c>
+      <c r="B88" s="4">
+        <v>8</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D88" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E88" s="6" t="s">
+        <v>490</v>
+      </c>
+      <c r="F88" t="s">
+        <v>482</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{348BD390-6058-3244-B040-3ECD44D7EDBB}">
-  <dimension ref="A1:D41"/>
-  <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="F44" sqref="F44"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="10.83203125" style="4"/>
-    <col min="3" max="3" width="12.1640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>163</v>
-      </c>
-      <c r="C1" t="s">
-        <v>164</v>
-      </c>
-      <c r="D1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" t="s">
-        <v>171</v>
-      </c>
-      <c r="C2" t="s">
-        <v>195</v>
-      </c>
-      <c r="D2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>172</v>
-      </c>
-      <c r="C3" t="s">
-        <v>165</v>
-      </c>
-      <c r="D3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s">
-        <v>173</v>
-      </c>
-      <c r="C4" t="s">
-        <v>166</v>
-      </c>
-      <c r="D4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>174</v>
-      </c>
-      <c r="C5" t="s">
-        <v>167</v>
-      </c>
-      <c r="D5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" t="s">
-        <v>175</v>
-      </c>
-      <c r="C6" t="s">
-        <v>168</v>
-      </c>
-      <c r="D6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" t="s">
-        <v>176</v>
-      </c>
-      <c r="C7" t="s">
-        <v>169</v>
-      </c>
-      <c r="D7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>177</v>
-      </c>
-      <c r="C8" t="s">
-        <v>170</v>
-      </c>
-      <c r="D8" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>178</v>
-      </c>
-      <c r="C9" t="s">
-        <v>179</v>
-      </c>
-      <c r="D9" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" t="s">
-        <v>199</v>
-      </c>
-      <c r="C10" t="s">
-        <v>196</v>
-      </c>
-      <c r="D10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" t="s">
-        <v>173</v>
-      </c>
-      <c r="C11" t="s">
-        <v>166</v>
-      </c>
-      <c r="D11" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" t="s">
-        <v>174</v>
-      </c>
-      <c r="C12" t="s">
-        <v>167</v>
-      </c>
-      <c r="D12" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" t="s">
-        <v>200</v>
-      </c>
-      <c r="C13" t="s">
-        <v>201</v>
-      </c>
-      <c r="D13" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" t="s">
-        <v>172</v>
-      </c>
-      <c r="C14" t="s">
-        <v>165</v>
-      </c>
-      <c r="D14" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" t="s">
-        <v>198</v>
-      </c>
-      <c r="C15" t="s">
-        <v>197</v>
-      </c>
-      <c r="D15" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" t="s">
-        <v>173</v>
-      </c>
-      <c r="C16" t="s">
-        <v>166</v>
-      </c>
-      <c r="D16" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17" t="s">
-        <v>245</v>
-      </c>
-      <c r="C17" t="s">
-        <v>244</v>
-      </c>
-      <c r="D17" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" t="s">
-        <v>246</v>
-      </c>
-      <c r="C18" t="s">
-        <v>243</v>
-      </c>
-      <c r="D18" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19" t="s">
-        <v>174</v>
-      </c>
-      <c r="C19" t="s">
-        <v>167</v>
-      </c>
-      <c r="D19" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20" t="s">
-        <v>172</v>
-      </c>
-      <c r="C20" t="s">
-        <v>165</v>
-      </c>
-      <c r="D20" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" t="s">
-        <v>199</v>
-      </c>
-      <c r="C21" t="s">
-        <v>196</v>
-      </c>
-      <c r="D21" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B22" t="s">
-        <v>199</v>
-      </c>
-      <c r="C22" t="s">
-        <v>196</v>
-      </c>
-      <c r="D22" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" t="s">
-        <v>173</v>
-      </c>
-      <c r="C23" t="s">
-        <v>166</v>
-      </c>
-      <c r="D23" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B24" t="s">
-        <v>174</v>
-      </c>
-      <c r="C24" t="s">
-        <v>167</v>
-      </c>
-      <c r="D24" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B25" t="s">
-        <v>200</v>
-      </c>
-      <c r="C25" t="s">
-        <v>201</v>
-      </c>
-      <c r="D25" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B26" t="s">
-        <v>172</v>
-      </c>
-      <c r="C26" t="s">
-        <v>165</v>
-      </c>
-      <c r="D26" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27" t="s">
-        <v>198</v>
-      </c>
-      <c r="C27" t="s">
-        <v>197</v>
-      </c>
-      <c r="D27" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B28" t="s">
-        <v>174</v>
-      </c>
-      <c r="C28" t="s">
-        <v>167</v>
-      </c>
-      <c r="D28" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B29" t="s">
-        <v>199</v>
-      </c>
-      <c r="C29" t="s">
-        <v>196</v>
-      </c>
-      <c r="D29" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B30" t="s">
-        <v>247</v>
-      </c>
-      <c r="C30" t="s">
-        <v>248</v>
-      </c>
-      <c r="D30" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="B31" t="s">
-        <v>247</v>
-      </c>
-      <c r="C31" t="s">
-        <v>248</v>
-      </c>
-      <c r="D31" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="B32" t="s">
-        <v>198</v>
-      </c>
-      <c r="C32" t="s">
-        <v>197</v>
-      </c>
-      <c r="D32" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="B33" t="s">
-        <v>174</v>
-      </c>
-      <c r="C33" t="s">
-        <v>167</v>
-      </c>
-      <c r="D33" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="B34" t="s">
-        <v>173</v>
-      </c>
-      <c r="C34" t="s">
-        <v>166</v>
-      </c>
-      <c r="D34" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="B35" t="s">
-        <v>173</v>
-      </c>
-      <c r="C35" t="s">
-        <v>166</v>
-      </c>
-      <c r="D35" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="B36" t="s">
-        <v>331</v>
-      </c>
-      <c r="C36" t="s">
-        <v>332</v>
-      </c>
-      <c r="D36" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="B37" t="s">
-        <v>174</v>
-      </c>
-      <c r="C37" t="s">
-        <v>167</v>
-      </c>
-      <c r="D37" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="4" t="s">
-        <v>348</v>
-      </c>
-      <c r="B38" t="s">
-        <v>364</v>
-      </c>
-      <c r="C38" t="s">
-        <v>366</v>
-      </c>
-      <c r="D38" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="4" t="s">
-        <v>348</v>
-      </c>
-      <c r="B39" t="s">
-        <v>367</v>
-      </c>
-      <c r="C39" t="s">
-        <v>365</v>
-      </c>
-      <c r="D39" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" s="4" t="s">
-        <v>370</v>
-      </c>
-      <c r="B40" t="s">
-        <v>247</v>
-      </c>
-      <c r="C40" t="s">
-        <v>248</v>
-      </c>
-      <c r="D40" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" s="4" t="s">
-        <v>382</v>
-      </c>
-      <c r="B41" t="s">
-        <v>367</v>
-      </c>
-      <c r="C41" t="s">
-        <v>365</v>
-      </c>
-      <c r="D41" t="b">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Recipe_Database_Corrected.xlsx
+++ b/Recipe_Database_Corrected.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taiyenwu/Downloads/Chef Tai/github/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E7F7FBC-E0B1-9B41-852E-0686FC8A93CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1DBCBB1-822C-7A4E-BCDA-0CA5B7A41BDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21360" yWindow="6880" windowWidth="38560" windowHeight="19060" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11040" yWindow="5720" windowWidth="38560" windowHeight="19060" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Recipes" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1426" uniqueCount="491">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1429" uniqueCount="491">
   <si>
     <t>RecipeID</t>
   </si>
@@ -1461,9 +1461,6 @@
     <t>Vanilla extract</t>
   </si>
   <si>
-    <t>c杏仁麵粉</t>
-  </si>
-  <si>
     <t>香草精</t>
   </si>
   <si>
@@ -1535,6 +1532,9 @@
   </si>
   <si>
     <t>Dust with powdered sugar before serving for extra flavor and a beautiful finish.</t>
+  </si>
+  <si>
+    <t>杏仁麵粉</t>
   </si>
 </sst>
 </file>
@@ -5474,7 +5474,7 @@
   <dimension ref="A1:M70"/>
   <sheetViews>
     <sheetView topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="D76" sqref="D76"/>
+      <selection activeCell="B68" sqref="B68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6055,7 +6055,7 @@
         <v>461</v>
       </c>
       <c r="B67" t="s">
-        <v>467</v>
+        <v>490</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
@@ -6063,7 +6063,7 @@
         <v>466</v>
       </c>
       <c r="B68" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
@@ -6071,7 +6071,7 @@
         <v>462</v>
       </c>
       <c r="B69" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
@@ -6079,7 +6079,7 @@
         <v>460</v>
       </c>
       <c r="B70" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
   </sheetData>
@@ -6092,10 +6092,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{348BD390-6058-3244-B040-3ECD44D7EDBB}">
-  <dimension ref="A1:D45"/>
+  <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6697,10 +6697,10 @@
         <v>456</v>
       </c>
       <c r="B43" t="s">
+        <v>470</v>
+      </c>
+      <c r="C43" t="s">
         <v>471</v>
-      </c>
-      <c r="C43" t="s">
-        <v>472</v>
       </c>
       <c r="D43" t="b">
         <v>0</v>
@@ -6725,13 +6725,27 @@
         <v>456</v>
       </c>
       <c r="B45" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C45" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D45" t="b">
         <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" s="4" t="s">
+        <v>456</v>
+      </c>
+      <c r="B46" t="s">
+        <v>172</v>
+      </c>
+      <c r="C46" t="s">
+        <v>165</v>
+      </c>
+      <c r="D46" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -6743,8 +6757,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:O88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="B83" sqref="B83"/>
+    <sheetView topLeftCell="B62" workbookViewId="0">
+      <selection activeCell="G88" sqref="G88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8844,7 +8858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A81" s="4" t="s">
         <v>456</v>
       </c>
@@ -8858,13 +8872,19 @@
         <v>46</v>
       </c>
       <c r="E81" s="6" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="F81" s="6" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+        <v>474</v>
+      </c>
+      <c r="G81" s="9">
+        <v>5</v>
+      </c>
+      <c r="H81" s="9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" s="4" t="s">
         <v>456</v>
       </c>
@@ -8878,13 +8898,19 @@
         <v>46</v>
       </c>
       <c r="E82" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="F82" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+        <v>475</v>
+      </c>
+      <c r="G82" s="9">
+        <v>30</v>
+      </c>
+      <c r="H82" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A83" s="4" t="s">
         <v>456</v>
       </c>
@@ -8898,13 +8924,19 @@
         <v>43</v>
       </c>
       <c r="E83" s="6" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F83" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+        <v>476</v>
+      </c>
+      <c r="G83" s="9">
+        <v>1</v>
+      </c>
+      <c r="H83" s="9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84" s="4" t="s">
         <v>456</v>
       </c>
@@ -8918,13 +8950,19 @@
         <v>43</v>
       </c>
       <c r="E84" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="F84" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+        <v>477</v>
+      </c>
+      <c r="G84" s="9">
+        <v>5</v>
+      </c>
+      <c r="H84" s="9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A85" s="4" t="s">
         <v>456</v>
       </c>
@@ -8938,13 +8976,19 @@
         <v>43</v>
       </c>
       <c r="E85" s="6" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F85" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+        <v>478</v>
+      </c>
+      <c r="G85" s="9">
+        <v>1</v>
+      </c>
+      <c r="H85" s="9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A86" s="4" t="s">
         <v>456</v>
       </c>
@@ -8958,13 +9002,19 @@
         <v>43</v>
       </c>
       <c r="E86" s="6" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="F86" s="6" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+        <v>479</v>
+      </c>
+      <c r="G86" s="9">
+        <v>3</v>
+      </c>
+      <c r="H86" s="9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A87" s="4" t="s">
         <v>456</v>
       </c>
@@ -8978,13 +9028,19 @@
         <v>43</v>
       </c>
       <c r="E87" s="6" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="F87" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+        <v>480</v>
+      </c>
+      <c r="G87" s="9">
+        <v>40</v>
+      </c>
+      <c r="H87" s="9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A88" s="4" t="s">
         <v>456</v>
       </c>
@@ -8998,10 +9054,16 @@
         <v>43</v>
       </c>
       <c r="E88" s="6" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="F88" t="s">
-        <v>482</v>
+        <v>481</v>
+      </c>
+      <c r="G88" s="9">
+        <v>0</v>
+      </c>
+      <c r="H88" s="9" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Recipe_Database_Corrected.xlsx
+++ b/Recipe_Database_Corrected.xlsx
@@ -8,17 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taiyenwu/Downloads/Chef Tai/github/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1DBCBB1-822C-7A4E-BCDA-0CA5B7A41BDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DA81349-ECC9-894E-81B0-736306B55615}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11040" yWindow="5720" windowWidth="38560" windowHeight="19060" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7260" yWindow="5920" windowWidth="38560" windowHeight="19060" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Recipes" sheetId="1" r:id="rId1"/>
     <sheet name="Components" sheetId="2" r:id="rId2"/>
     <sheet name="Ingredients" sheetId="3" r:id="rId3"/>
     <sheet name="IngredientDict" sheetId="4" r:id="rId4"/>
-    <sheet name="Tools" sheetId="6" r:id="rId5"/>
-    <sheet name="Steps" sheetId="5" r:id="rId6"/>
+    <sheet name="Steps" sheetId="5" r:id="rId5"/>
+    <sheet name="Tools" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1429" uniqueCount="491">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1529" uniqueCount="518">
   <si>
     <t>RecipeID</t>
   </si>
@@ -803,9 +803,6 @@
     <t>將雞腿清洗乾淨後，撒上鹽、黑白胡椒、小蘇打粉與蒜末，拌勻醃製約 10 分鐘。</t>
   </si>
   <si>
-    <t>將雞腿放入烤箱，以 200°C / 400°F 烘烤約 50 分鐘，至表皮微酥金黃。</t>
-  </si>
-  <si>
     <t>將番茄醬、糖、蜂蜜與韓式辣醬依比例放入平底鍋中，加入適量清水攪拌均勻。</t>
   </si>
   <si>
@@ -976,9 +973,6 @@
     <t>Rinse the chicken dBrandysticks thoroughly, then season with salt, black and white pepper, baking soda, and minced garlic. Mix well and marinate for about 10 minutes.</t>
   </si>
   <si>
-    <t>Place the dBrandysticks in an oven preheated to 200°C / 400°F and roast for approximately 50 minutes, until the skin turns golden and slightly crispy.</t>
-  </si>
-  <si>
     <t>Add the roasted dBrandysticks to the skillet, coating them evenly with the sauce. Simmer over low heat until the sauce thickens and clings to the chicken.</t>
   </si>
   <si>
@@ -1535,6 +1529,93 @@
   </si>
   <si>
     <t>杏仁麵粉</t>
+  </si>
+  <si>
+    <t>將雞腿放入烤箱，以 200°C / 400°F 烘烤約 35 分鐘，至表皮微酥金黃。</t>
+  </si>
+  <si>
+    <t>Place the dBrandysticks in an oven preheated to 200°C / 400°F and roast for approximately 35 minutes, until the skin turns golden and slightly crispy.</t>
+  </si>
+  <si>
+    <t>R012</t>
+  </si>
+  <si>
+    <t>Hot dog with Pepper and Onion</t>
+  </si>
+  <si>
+    <t>椒香熱狗堡</t>
+  </si>
+  <si>
+    <t>C020</t>
+  </si>
+  <si>
+    <t>Hot dog bun</t>
+  </si>
+  <si>
+    <t>Hot dog</t>
+  </si>
+  <si>
+    <t>Green Pepper</t>
+  </si>
+  <si>
+    <t>Red Pepper</t>
+  </si>
+  <si>
+    <t>Mustard</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/3klYecs.jpeg</t>
+  </si>
+  <si>
+    <t>熱狗麵包</t>
+  </si>
+  <si>
+    <t>青椒</t>
+  </si>
+  <si>
+    <t>紅椒</t>
+  </si>
+  <si>
+    <t>芥末醬</t>
+  </si>
+  <si>
+    <t>熱狗</t>
+  </si>
+  <si>
+    <t>將洋蔥、紅椒、青椒洗淨後切成細絲。</t>
+  </si>
+  <si>
+    <t>熱鍋加油，先下洋蔥炒至金黃，再加入紅椒與青椒翻炒至熟。</t>
+  </si>
+  <si>
+    <t>倒入少量白蘭地嗆鍋提味，接著加入鹽與黑胡椒調味。喜歡微辣口感的話，也可加入幾滴 Tabasco。炒好後起鍋備用。</t>
+  </si>
+  <si>
+    <t>將熱狗麵包放入烤箱加熱。</t>
+  </si>
+  <si>
+    <t>另起一鍋，將熱狗煎至表面微焦、熟透。</t>
+  </si>
+  <si>
+    <t>組裝時，將煎好的熱狗夾入麵包中，再鋪上炒好的洋蔥與椒絲。最後依個人口味加入番茄醬與芥末醬即可享用。</t>
+  </si>
+  <si>
+    <t>Wash the onion, red bell pepper, and green bell pepper. Slice them into thin strips.</t>
+  </si>
+  <si>
+    <t>Heat a pan with oil. Sauté the onions until golden, then add the red and green peppers. Stir-fry until cooked through.</t>
+  </si>
+  <si>
+    <t>Add a splash of brandy to deglaze the pan and enhance the flavor. Season with salt and black pepper. For a spicy kick, add a few drops of Tabasco. Set the mixture aside.</t>
+  </si>
+  <si>
+    <t>Warm the hot dog buns in the oven.</t>
+  </si>
+  <si>
+    <t>In a separate pan, pan-fry the hot dogs until nicely browned and fully cooked.</t>
+  </si>
+  <si>
+    <t>To assemble, place the hot dog into the bun, top with the sautéed onions and peppers, then add ketchup and mustard to taste. Enjoy!</t>
   </si>
 </sst>
 </file>
@@ -1972,15 +2053,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y45"/>
+  <dimension ref="A1:S45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="O34" sqref="O34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.1640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="28.83203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.5" customWidth="1"/>
@@ -2224,22 +2305,22 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>255</v>
+      </c>
+      <c r="B7" t="s">
+        <v>257</v>
+      </c>
+      <c r="C7" t="s">
+        <v>258</v>
+      </c>
+      <c r="D7" t="s">
         <v>256</v>
       </c>
-      <c r="B7" t="s">
-        <v>258</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="E7" t="s">
         <v>259</v>
       </c>
-      <c r="D7" t="s">
-        <v>257</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="H7" s="8" t="s">
         <v>260</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>261</v>
       </c>
       <c r="I7" s="4" t="s">
         <v>128</v>
@@ -2256,16 +2337,16 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>309</v>
+      </c>
+      <c r="B8" t="s">
         <v>311</v>
       </c>
-      <c r="B8" t="s">
-        <v>313</v>
-      </c>
       <c r="C8" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D8" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="E8" t="s">
         <v>12</v>
@@ -2277,7 +2358,7 @@
         <v>20</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="I8" s="4" t="s">
         <v>128</v>
@@ -2294,31 +2375,31 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>346</v>
+      </c>
+      <c r="B9" t="s">
+        <v>349</v>
+      </c>
+      <c r="C9" t="s">
+        <v>350</v>
+      </c>
+      <c r="D9" t="s">
+        <v>347</v>
+      </c>
+      <c r="E9" t="s">
         <v>348</v>
-      </c>
-      <c r="B9" t="s">
-        <v>351</v>
-      </c>
-      <c r="C9" t="s">
-        <v>352</v>
-      </c>
-      <c r="D9" t="s">
-        <v>349</v>
-      </c>
-      <c r="E9" t="s">
-        <v>350</v>
       </c>
       <c r="G9">
         <v>20</v>
       </c>
       <c r="H9" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="K9" s="4" t="s">
         <v>131</v>
@@ -2329,25 +2410,25 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>368</v>
+      </c>
+      <c r="B10" t="s">
+        <v>369</v>
+      </c>
+      <c r="C10" t="s">
         <v>370</v>
       </c>
-      <c r="B10" t="s">
+      <c r="D10" t="s">
         <v>371</v>
       </c>
-      <c r="C10" t="s">
-        <v>372</v>
-      </c>
-      <c r="D10" t="s">
-        <v>373</v>
-      </c>
       <c r="E10" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G10">
         <v>40</v>
       </c>
       <c r="H10" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="I10" s="4" t="s">
         <v>128</v>
@@ -2364,22 +2445,22 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>380</v>
+      </c>
+      <c r="B11" t="s">
+        <v>381</v>
+      </c>
+      <c r="C11" t="s">
         <v>382</v>
       </c>
-      <c r="B11" t="s">
+      <c r="D11" t="s">
+        <v>371</v>
+      </c>
+      <c r="E11" t="s">
+        <v>348</v>
+      </c>
+      <c r="H11" s="8" t="s">
         <v>383</v>
-      </c>
-      <c r="C11" t="s">
-        <v>384</v>
-      </c>
-      <c r="D11" t="s">
-        <v>373</v>
-      </c>
-      <c r="E11" t="s">
-        <v>350</v>
-      </c>
-      <c r="H11" s="8" t="s">
-        <v>385</v>
       </c>
       <c r="I11" s="4" t="s">
         <v>128</v>
@@ -2388,24 +2469,24 @@
         <v>140</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>454</v>
+      </c>
+      <c r="B12" t="s">
+        <v>455</v>
+      </c>
+      <c r="C12" t="s">
         <v>456</v>
       </c>
-      <c r="B12" t="s">
+      <c r="D12" t="s">
         <v>457</v>
-      </c>
-      <c r="C12" t="s">
-        <v>458</v>
-      </c>
-      <c r="D12" t="s">
-        <v>459</v>
       </c>
       <c r="E12" t="s">
         <v>12</v>
@@ -2417,7 +2498,7 @@
         <v>40</v>
       </c>
       <c r="H12" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="I12" s="4" t="s">
         <v>127</v>
@@ -2430,6 +2511,38 @@
       </c>
       <c r="L12" s="4" t="s">
         <v>136</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>491</v>
+      </c>
+      <c r="B13" t="s">
+        <v>492</v>
+      </c>
+      <c r="C13" t="s">
+        <v>493</v>
+      </c>
+      <c r="D13" t="s">
+        <v>371</v>
+      </c>
+      <c r="E13" t="s">
+        <v>259</v>
+      </c>
+      <c r="H13" t="s">
+        <v>500</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="L13" s="4" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="26" spans="14:19" ht="18" x14ac:dyDescent="0.2">
@@ -2478,167 +2591,83 @@
       <c r="Q32" s="11"/>
       <c r="R32" s="11"/>
     </row>
-    <row r="33" spans="14:25" ht="18" x14ac:dyDescent="0.2">
+    <row r="33" spans="14:18" ht="18" x14ac:dyDescent="0.2">
       <c r="N33" s="11"/>
       <c r="O33" s="12"/>
       <c r="P33" s="11"/>
       <c r="Q33" s="11"/>
       <c r="R33" s="11"/>
     </row>
-    <row r="34" spans="14:25" ht="18" x14ac:dyDescent="0.2">
+    <row r="34" spans="14:18" ht="18" x14ac:dyDescent="0.2">
       <c r="N34" s="11"/>
       <c r="O34" s="12"/>
       <c r="P34" s="11"/>
       <c r="Q34" s="11"/>
       <c r="R34" s="11"/>
     </row>
-    <row r="35" spans="14:25" ht="18" x14ac:dyDescent="0.2">
+    <row r="35" spans="14:18" ht="18" x14ac:dyDescent="0.2">
       <c r="O35" s="12"/>
       <c r="R35" s="11"/>
     </row>
-    <row r="36" spans="14:25" ht="18" x14ac:dyDescent="0.2">
+    <row r="36" spans="14:18" ht="18" x14ac:dyDescent="0.2">
       <c r="N36" s="11"/>
       <c r="O36" s="12"/>
       <c r="P36" s="11"/>
       <c r="Q36" s="11"/>
       <c r="R36" s="11"/>
-      <c r="T36">
-        <v>20</v>
-      </c>
-      <c r="U36">
-        <f>T36*31</f>
-        <v>620</v>
-      </c>
-      <c r="V36">
-        <f>U36*0.3</f>
-        <v>186</v>
-      </c>
-      <c r="W36">
-        <v>130</v>
-      </c>
-      <c r="X36">
-        <v>300</v>
-      </c>
-      <c r="Y36">
-        <f>U36+W36+X36</f>
-        <v>1050</v>
-      </c>
-    </row>
-    <row r="37" spans="14:25" ht="18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="14:18" ht="18" x14ac:dyDescent="0.2">
       <c r="N37" s="11"/>
       <c r="O37" s="12"/>
       <c r="P37" s="11"/>
       <c r="Q37" s="11"/>
       <c r="R37" s="11"/>
-      <c r="T37">
-        <v>14.1</v>
-      </c>
-      <c r="U37">
-        <f t="shared" ref="U37:U39" si="0">T37*31</f>
-        <v>437.09999999999997</v>
-      </c>
-      <c r="V37">
-        <f t="shared" ref="V37:V39" si="1">U37*0.3</f>
-        <v>131.13</v>
-      </c>
-      <c r="W37">
-        <v>200</v>
-      </c>
-      <c r="X37">
-        <v>300</v>
-      </c>
-      <c r="Y37">
-        <f t="shared" ref="Y37:Y39" si="2">U37+W37+X37</f>
-        <v>937.09999999999991</v>
-      </c>
-    </row>
-    <row r="38" spans="14:25" ht="18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="38" spans="14:18" ht="18" x14ac:dyDescent="0.2">
       <c r="N38" s="11"/>
       <c r="O38" s="12"/>
       <c r="P38" s="11"/>
       <c r="Q38" s="11"/>
       <c r="R38" s="11"/>
-      <c r="T38">
-        <v>40</v>
-      </c>
-      <c r="U38">
-        <f t="shared" si="0"/>
-        <v>1240</v>
-      </c>
-      <c r="V38">
-        <f t="shared" si="1"/>
-        <v>372</v>
-      </c>
-      <c r="W38">
-        <v>250</v>
-      </c>
-      <c r="X38">
-        <v>500</v>
-      </c>
-      <c r="Y38">
-        <f t="shared" si="2"/>
-        <v>1990</v>
-      </c>
-    </row>
-    <row r="39" spans="14:25" ht="18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="39" spans="14:18" ht="18" x14ac:dyDescent="0.2">
       <c r="O39" s="12"/>
       <c r="R39" s="11"/>
-      <c r="T39">
-        <v>34</v>
-      </c>
-      <c r="U39">
-        <f t="shared" si="0"/>
-        <v>1054</v>
-      </c>
-      <c r="V39">
-        <f t="shared" si="1"/>
-        <v>316.2</v>
-      </c>
-      <c r="W39">
-        <v>250</v>
-      </c>
-      <c r="X39">
-        <v>500</v>
-      </c>
-      <c r="Y39">
-        <f t="shared" si="2"/>
-        <v>1804</v>
-      </c>
-    </row>
-    <row r="40" spans="14:25" ht="18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="40" spans="14:18" ht="18" x14ac:dyDescent="0.2">
       <c r="N40" s="11"/>
       <c r="O40" s="12"/>
       <c r="P40" s="11"/>
       <c r="Q40" s="11"/>
       <c r="R40" s="11"/>
     </row>
-    <row r="41" spans="14:25" ht="18" x14ac:dyDescent="0.2">
+    <row r="41" spans="14:18" ht="18" x14ac:dyDescent="0.2">
       <c r="N41" s="11"/>
       <c r="O41" s="12"/>
       <c r="P41" s="11"/>
       <c r="Q41" s="11"/>
       <c r="R41" s="11"/>
     </row>
-    <row r="42" spans="14:25" ht="18" x14ac:dyDescent="0.2">
+    <row r="42" spans="14:18" ht="18" x14ac:dyDescent="0.2">
       <c r="N42" s="11"/>
       <c r="O42" s="12"/>
       <c r="P42" s="11"/>
       <c r="Q42" s="11"/>
       <c r="R42" s="11"/>
     </row>
-    <row r="43" spans="14:25" ht="18" x14ac:dyDescent="0.2">
+    <row r="43" spans="14:18" ht="18" x14ac:dyDescent="0.2">
       <c r="N43" s="11"/>
       <c r="O43" s="12"/>
       <c r="P43" s="11"/>
       <c r="Q43" s="11"/>
       <c r="R43" s="11"/>
     </row>
-    <row r="44" spans="14:25" ht="18" x14ac:dyDescent="0.2">
+    <row r="44" spans="14:18" ht="18" x14ac:dyDescent="0.2">
       <c r="O44" s="12"/>
       <c r="P44" s="11"/>
       <c r="R44" s="11"/>
     </row>
-    <row r="45" spans="14:25" ht="18" x14ac:dyDescent="0.2">
+    <row r="45" spans="14:18" ht="18" x14ac:dyDescent="0.2">
       <c r="N45" s="11"/>
       <c r="O45" s="12"/>
       <c r="P45" s="11"/>
@@ -2657,10 +2686,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2813,10 +2842,10 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>48</v>
@@ -2827,10 +2856,10 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>60</v>
@@ -2841,24 +2870,24 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>48</v>
@@ -2869,10 +2898,10 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>48</v>
@@ -2883,24 +2912,24 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>60</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>48</v>
@@ -2911,10 +2940,10 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>48</v>
@@ -2925,10 +2954,10 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>42</v>
@@ -2939,16 +2968,30 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>45</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="s">
+        <v>494</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>491</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -2959,10 +3002,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:L124"/>
+  <dimension ref="A1:L134"/>
   <sheetViews>
     <sheetView topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="C116" sqref="C116:C124"/>
+      <selection activeCell="D134" sqref="D134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3460,7 +3503,7 @@
         <v>53</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D25" s="5">
         <v>4</v>
@@ -3994,13 +4037,13 @@
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D52" s="5">
         <v>4</v>
@@ -4014,13 +4057,13 @@
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D53" s="5">
         <v>0.2</v>
@@ -4038,13 +4081,13 @@
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A54" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D54" s="5">
         <v>0.2</v>
@@ -4062,13 +4105,13 @@
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A55" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D55" s="5">
         <v>4</v>
@@ -4086,19 +4129,19 @@
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A56" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D56" s="5">
         <v>4</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F56" s="5" t="b">
         <v>0</v>
@@ -4106,10 +4149,10 @@
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A57" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C57" s="5" t="s">
         <v>94</v>
@@ -4126,13 +4169,13 @@
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A58" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D58" s="5">
         <v>3</v>
@@ -4146,13 +4189,13 @@
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A59" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D59" s="5">
         <v>1</v>
@@ -4166,13 +4209,13 @@
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A60" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D60" s="5">
         <v>1</v>
@@ -4186,10 +4229,10 @@
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A61" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C61" s="5" t="s">
         <v>87</v>
@@ -4206,13 +4249,13 @@
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A62" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D62" s="5">
         <v>2</v>
@@ -4226,13 +4269,13 @@
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A63" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D63" s="5">
         <v>400</v>
@@ -4246,13 +4289,13 @@
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A64" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D64" s="5">
         <v>0.5</v>
@@ -4266,13 +4309,13 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D65" s="5">
         <v>1</v>
@@ -4286,10 +4329,10 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C66" s="5" t="s">
         <v>87</v>
@@ -4306,10 +4349,10 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C67" s="5" t="s">
         <v>70</v>
@@ -4326,10 +4369,10 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C68" s="5" t="s">
         <v>74</v>
@@ -4346,13 +4389,13 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" s="5" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D69" s="5">
         <v>200</v>
@@ -4366,13 +4409,13 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" s="5" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B70" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="C70" s="5" t="s">
         <v>314</v>
-      </c>
-      <c r="C70" s="5" t="s">
-        <v>316</v>
       </c>
       <c r="D70" s="5">
         <v>2</v>
@@ -4386,19 +4429,19 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" s="5" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D71" s="5">
         <v>0.5</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="F71" s="5" t="b">
         <v>0</v>
@@ -4406,13 +4449,13 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" s="5" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D72" s="5">
         <v>0.5</v>
@@ -4426,13 +4469,13 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" s="5" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D73" s="5">
         <v>3</v>
@@ -4446,13 +4489,13 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" s="5" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D74" s="5">
         <v>1</v>
@@ -4466,19 +4509,19 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" s="5" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D75" s="5">
         <v>0.5</v>
       </c>
       <c r="E75" s="5" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F75" s="5" t="b">
         <v>0</v>
@@ -4486,10 +4529,10 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" s="5" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C76" s="5" t="s">
         <v>77</v>
@@ -4506,13 +4549,13 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" s="5" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D77" s="5">
         <v>1</v>
@@ -4526,10 +4569,10 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" s="5" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C78" s="5" t="s">
         <v>70</v>
@@ -4546,10 +4589,10 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" s="5" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C79" s="5" t="s">
         <v>87</v>
@@ -4566,10 +4609,10 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" s="5" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C80" s="5" t="s">
         <v>87</v>
@@ -4586,10 +4629,10 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" s="5" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C81" s="5" t="s">
         <v>70</v>
@@ -4606,13 +4649,13 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" s="5" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D82" s="5">
         <v>1</v>
@@ -4626,13 +4669,13 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="5" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D83" s="5">
         <v>0.5</v>
@@ -4646,13 +4689,13 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" s="5" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D84" s="5">
         <v>1</v>
@@ -4666,13 +4709,13 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" s="5" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D85" s="5">
         <v>0.5</v>
@@ -4686,13 +4729,13 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="5" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B86" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="C86" s="5" t="s">
         <v>353</v>
-      </c>
-      <c r="C86" s="5" t="s">
-        <v>355</v>
       </c>
       <c r="D86" s="5">
         <v>1</v>
@@ -4706,13 +4749,13 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="5" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D87" s="5">
         <v>0.5</v>
@@ -4726,13 +4769,13 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" s="5" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D88" s="5">
         <v>1</v>
@@ -4746,13 +4789,13 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" s="5" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D89" s="5">
         <v>0.5</v>
@@ -4766,13 +4809,13 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" s="5" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="D90" s="5">
         <v>1</v>
@@ -4786,13 +4829,13 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" s="5" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="D91" s="5">
         <v>4</v>
@@ -4806,13 +4849,13 @@
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" s="5" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D92" s="5">
         <v>0.5</v>
@@ -4826,13 +4869,13 @@
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" s="5" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="D93" s="5">
         <v>1</v>
@@ -4846,13 +4889,13 @@
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" s="5" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="D94" s="5">
         <v>5</v>
@@ -4866,13 +4909,13 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" s="5" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="D95" s="5">
         <v>10</v>
@@ -4886,10 +4929,10 @@
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" s="5" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C96" s="5" t="s">
         <v>90</v>
@@ -4906,13 +4949,13 @@
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" s="5" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D97" s="5">
         <v>2</v>
@@ -4926,10 +4969,10 @@
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98" s="5" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C98" s="5" t="s">
         <v>87</v>
@@ -4946,13 +4989,13 @@
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99" s="5" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C99" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D99" s="5">
         <v>1</v>
@@ -4966,19 +5009,19 @@
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" s="5" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C100" s="5" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D100" s="5">
         <v>1</v>
       </c>
       <c r="E100" s="5" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="F100" s="5" t="b">
         <v>0</v>
@@ -4986,19 +5029,19 @@
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101" s="5" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D101" s="5">
         <v>1</v>
       </c>
       <c r="E101" s="5" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="F101" s="5" t="b">
         <v>0</v>
@@ -5006,13 +5049,13 @@
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102" s="5" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="D102" s="5">
         <v>80</v>
@@ -5026,19 +5069,19 @@
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103" s="5" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D103" s="5">
         <v>2</v>
       </c>
       <c r="E103" s="5" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="F103" s="5" t="b">
         <v>0</v>
@@ -5046,13 +5089,13 @@
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104" s="5" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D104" s="5">
         <v>0.25</v>
@@ -5066,13 +5109,13 @@
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A105" s="5" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="D105" s="5">
         <v>1</v>
@@ -5086,13 +5129,13 @@
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106" s="5" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C106" s="5" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D106" s="5">
         <v>1</v>
@@ -5106,13 +5149,13 @@
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A107" s="5" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C107" s="5" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="D107" s="5">
         <v>1</v>
@@ -5126,13 +5169,13 @@
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A108" s="5" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="D108" s="5">
         <v>5</v>
@@ -5146,13 +5189,13 @@
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A109" s="5" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C109" s="5" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D109" s="5">
         <v>4</v>
@@ -5166,13 +5209,13 @@
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A110" s="5" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C110" s="5" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D110" s="5">
         <v>1</v>
@@ -5186,13 +5229,13 @@
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A111" s="5" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="D111" s="5">
         <v>6</v>
@@ -5206,13 +5249,13 @@
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A112" s="5" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C112" s="5" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="D112" s="5">
         <v>6</v>
@@ -5226,10 +5269,10 @@
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113" s="5" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C113" s="5" t="s">
         <v>89</v>
@@ -5246,10 +5289,10 @@
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A114" s="5" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C114" s="5" t="s">
         <v>70</v>
@@ -5266,10 +5309,10 @@
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A115" s="5" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="C115" s="5" t="s">
         <v>66</v>
@@ -5286,13 +5329,13 @@
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A116" s="5" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="C116" s="5" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="D116" s="5">
         <v>60</v>
@@ -5306,10 +5349,10 @@
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A117" s="5" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="C117" s="5" t="s">
         <v>77</v>
@@ -5326,13 +5369,13 @@
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A118" s="5" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B118" s="5" t="s">
+        <v>462</v>
+      </c>
+      <c r="C118" s="5" t="s">
         <v>464</v>
-      </c>
-      <c r="C118" s="5" t="s">
-        <v>466</v>
       </c>
       <c r="D118" s="5">
         <v>10</v>
@@ -5346,10 +5389,10 @@
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A119" s="5" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="C119" s="5" t="s">
         <v>70</v>
@@ -5366,13 +5409,13 @@
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120" s="5" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="C120" s="5" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="D120" s="5">
         <v>10</v>
@@ -5386,10 +5429,10 @@
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A121" s="5" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="C121" s="5" t="s">
         <v>74</v>
@@ -5406,13 +5449,13 @@
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A122" s="5" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C122" s="5" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="D122" s="5">
         <v>24</v>
@@ -5426,10 +5469,10 @@
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A123" s="5" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C123" s="5" t="s">
         <v>69</v>
@@ -5446,10 +5489,10 @@
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A124" s="5" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C124" s="5" t="s">
         <v>73</v>
@@ -5461,6 +5504,206 @@
         <v>75</v>
       </c>
       <c r="F124" s="5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A125" s="5" t="s">
+        <v>491</v>
+      </c>
+      <c r="B125" s="5" t="s">
+        <v>494</v>
+      </c>
+      <c r="C125" t="s">
+        <v>495</v>
+      </c>
+      <c r="D125" s="5">
+        <v>2</v>
+      </c>
+      <c r="E125" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="F125" s="5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A126" s="5" t="s">
+        <v>491</v>
+      </c>
+      <c r="B126" s="5" t="s">
+        <v>494</v>
+      </c>
+      <c r="C126" t="s">
+        <v>496</v>
+      </c>
+      <c r="D126" s="5">
+        <v>2</v>
+      </c>
+      <c r="E126" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="F126" s="5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A127" s="5" t="s">
+        <v>491</v>
+      </c>
+      <c r="B127" s="5" t="s">
+        <v>494</v>
+      </c>
+      <c r="C127" t="s">
+        <v>497</v>
+      </c>
+      <c r="D127" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="E127" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="F127" s="5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A128" s="5" t="s">
+        <v>491</v>
+      </c>
+      <c r="B128" s="5" t="s">
+        <v>494</v>
+      </c>
+      <c r="C128" t="s">
+        <v>498</v>
+      </c>
+      <c r="D128" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="E128" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="F128" s="5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A129" s="5" t="s">
+        <v>491</v>
+      </c>
+      <c r="B129" s="5" t="s">
+        <v>494</v>
+      </c>
+      <c r="C129" t="s">
+        <v>276</v>
+      </c>
+      <c r="D129" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="E129" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="F129" s="5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A130" s="5" t="s">
+        <v>491</v>
+      </c>
+      <c r="B130" s="5" t="s">
+        <v>494</v>
+      </c>
+      <c r="C130" t="s">
+        <v>301</v>
+      </c>
+      <c r="D130" s="5">
+        <v>2</v>
+      </c>
+      <c r="E130" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F130" s="5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A131" s="5" t="s">
+        <v>491</v>
+      </c>
+      <c r="B131" s="5" t="s">
+        <v>494</v>
+      </c>
+      <c r="C131" t="s">
+        <v>87</v>
+      </c>
+      <c r="D131" s="5">
+        <v>1</v>
+      </c>
+      <c r="E131" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F131" s="5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A132" s="5" t="s">
+        <v>491</v>
+      </c>
+      <c r="B132" s="5" t="s">
+        <v>494</v>
+      </c>
+      <c r="C132" t="s">
+        <v>94</v>
+      </c>
+      <c r="D132" s="5">
+        <v>1</v>
+      </c>
+      <c r="E132" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F132" s="5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A133" s="5" t="s">
+        <v>491</v>
+      </c>
+      <c r="B133" s="5" t="s">
+        <v>494</v>
+      </c>
+      <c r="C133" t="s">
+        <v>499</v>
+      </c>
+      <c r="D133" s="5">
+        <v>1</v>
+      </c>
+      <c r="E133" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F133" s="5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A134" s="5" t="s">
+        <v>491</v>
+      </c>
+      <c r="B134" s="5" t="s">
+        <v>494</v>
+      </c>
+      <c r="C134" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="D134" s="5">
+        <v>1</v>
+      </c>
+      <c r="E134" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F134" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5471,10 +5714,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:M70"/>
+  <dimension ref="A1:M75"/>
   <sheetViews>
-    <sheetView topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="B68" sqref="B68"/>
+    <sheetView topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="A76" sqref="A76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5649,10 +5892,10 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
+        <v>301</v>
+      </c>
+      <c r="B22" t="s">
         <v>302</v>
-      </c>
-      <c r="B22" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
@@ -5729,34 +5972,34 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B32" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B33" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B34" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B35" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H35" s="4"/>
       <c r="I35" s="4"/>
@@ -5777,10 +6020,10 @@
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B37" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H37" s="4"/>
       <c r="I37" s="4"/>
@@ -5789,58 +6032,58 @@
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B38" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B39" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B40" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B41" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B42" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B43" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B44" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="I44" s="4"/>
       <c r="J44" s="4"/>
@@ -5849,40 +6092,40 @@
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B45" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I45" s="4"/>
       <c r="J45" s="4"/>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B46" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="I46" s="4"/>
       <c r="J46" s="4"/>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B47" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="I47" s="4"/>
       <c r="J47" s="4"/>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B48" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G48" s="2"/>
       <c r="I48" s="4"/>
@@ -5890,196 +6133,236 @@
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B49" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="I49" s="4"/>
       <c r="J49" s="4"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B50" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="I50" s="4"/>
       <c r="J50" s="4"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B51" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="I51" s="4"/>
       <c r="J51" s="4"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B52" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="I52" s="4"/>
       <c r="J52" s="4"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B53" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="I53" s="4"/>
       <c r="J53" s="4"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B54" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="I54" s="4"/>
       <c r="J54" s="4"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B55" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="I55" s="4"/>
       <c r="J55" s="4"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B56" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="I56" s="4"/>
       <c r="J56" s="4"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B57" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="I57" s="4"/>
       <c r="J57" s="4"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B58" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B59" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B60" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B61" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B62" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B63" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" s="4" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B64" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" s="4" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B65" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" s="4" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B66" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" s="5" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B67" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" s="5" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B68" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" s="5" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B69" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" s="5" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B70" t="s">
-        <v>469</v>
+        <v>467</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>495</v>
+      </c>
+      <c r="B71" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>496</v>
+      </c>
+      <c r="B72" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>497</v>
+      </c>
+      <c r="B73" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>498</v>
+      </c>
+      <c r="B74" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>499</v>
+      </c>
+      <c r="B75" t="s">
+        <v>504</v>
       </c>
     </row>
   </sheetData>
@@ -6091,674 +6374,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{348BD390-6058-3244-B040-3ECD44D7EDBB}">
-  <dimension ref="A1:D46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:O94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="10.83203125" style="4"/>
-    <col min="3" max="3" width="12.1640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>163</v>
-      </c>
-      <c r="C1" t="s">
-        <v>164</v>
-      </c>
-      <c r="D1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" t="s">
-        <v>171</v>
-      </c>
-      <c r="C2" t="s">
-        <v>195</v>
-      </c>
-      <c r="D2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>172</v>
-      </c>
-      <c r="C3" t="s">
-        <v>165</v>
-      </c>
-      <c r="D3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s">
-        <v>173</v>
-      </c>
-      <c r="C4" t="s">
-        <v>166</v>
-      </c>
-      <c r="D4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>174</v>
-      </c>
-      <c r="C5" t="s">
-        <v>167</v>
-      </c>
-      <c r="D5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" t="s">
-        <v>175</v>
-      </c>
-      <c r="C6" t="s">
-        <v>168</v>
-      </c>
-      <c r="D6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" t="s">
-        <v>176</v>
-      </c>
-      <c r="C7" t="s">
-        <v>169</v>
-      </c>
-      <c r="D7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>177</v>
-      </c>
-      <c r="C8" t="s">
-        <v>170</v>
-      </c>
-      <c r="D8" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>178</v>
-      </c>
-      <c r="C9" t="s">
-        <v>179</v>
-      </c>
-      <c r="D9" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" t="s">
-        <v>199</v>
-      </c>
-      <c r="C10" t="s">
-        <v>196</v>
-      </c>
-      <c r="D10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" t="s">
-        <v>173</v>
-      </c>
-      <c r="C11" t="s">
-        <v>166</v>
-      </c>
-      <c r="D11" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" t="s">
-        <v>174</v>
-      </c>
-      <c r="C12" t="s">
-        <v>167</v>
-      </c>
-      <c r="D12" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" t="s">
-        <v>200</v>
-      </c>
-      <c r="C13" t="s">
-        <v>201</v>
-      </c>
-      <c r="D13" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" t="s">
-        <v>172</v>
-      </c>
-      <c r="C14" t="s">
-        <v>165</v>
-      </c>
-      <c r="D14" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" t="s">
-        <v>198</v>
-      </c>
-      <c r="C15" t="s">
-        <v>197</v>
-      </c>
-      <c r="D15" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" t="s">
-        <v>173</v>
-      </c>
-      <c r="C16" t="s">
-        <v>166</v>
-      </c>
-      <c r="D16" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17" t="s">
-        <v>245</v>
-      </c>
-      <c r="C17" t="s">
-        <v>244</v>
-      </c>
-      <c r="D17" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" t="s">
-        <v>246</v>
-      </c>
-      <c r="C18" t="s">
-        <v>243</v>
-      </c>
-      <c r="D18" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19" t="s">
-        <v>174</v>
-      </c>
-      <c r="C19" t="s">
-        <v>167</v>
-      </c>
-      <c r="D19" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20" t="s">
-        <v>172</v>
-      </c>
-      <c r="C20" t="s">
-        <v>165</v>
-      </c>
-      <c r="D20" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" t="s">
-        <v>199</v>
-      </c>
-      <c r="C21" t="s">
-        <v>196</v>
-      </c>
-      <c r="D21" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B22" t="s">
-        <v>199</v>
-      </c>
-      <c r="C22" t="s">
-        <v>196</v>
-      </c>
-      <c r="D22" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" t="s">
-        <v>173</v>
-      </c>
-      <c r="C23" t="s">
-        <v>166</v>
-      </c>
-      <c r="D23" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B24" t="s">
-        <v>174</v>
-      </c>
-      <c r="C24" t="s">
-        <v>167</v>
-      </c>
-      <c r="D24" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B25" t="s">
-        <v>200</v>
-      </c>
-      <c r="C25" t="s">
-        <v>201</v>
-      </c>
-      <c r="D25" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B26" t="s">
-        <v>172</v>
-      </c>
-      <c r="C26" t="s">
-        <v>165</v>
-      </c>
-      <c r="D26" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27" t="s">
-        <v>198</v>
-      </c>
-      <c r="C27" t="s">
-        <v>197</v>
-      </c>
-      <c r="D27" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B28" t="s">
-        <v>174</v>
-      </c>
-      <c r="C28" t="s">
-        <v>167</v>
-      </c>
-      <c r="D28" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B29" t="s">
-        <v>199</v>
-      </c>
-      <c r="C29" t="s">
-        <v>196</v>
-      </c>
-      <c r="D29" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B30" t="s">
-        <v>247</v>
-      </c>
-      <c r="C30" t="s">
-        <v>248</v>
-      </c>
-      <c r="D30" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="B31" t="s">
-        <v>247</v>
-      </c>
-      <c r="C31" t="s">
-        <v>248</v>
-      </c>
-      <c r="D31" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="B32" t="s">
-        <v>198</v>
-      </c>
-      <c r="C32" t="s">
-        <v>197</v>
-      </c>
-      <c r="D32" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="B33" t="s">
-        <v>174</v>
-      </c>
-      <c r="C33" t="s">
-        <v>167</v>
-      </c>
-      <c r="D33" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="B34" t="s">
-        <v>173</v>
-      </c>
-      <c r="C34" t="s">
-        <v>166</v>
-      </c>
-      <c r="D34" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="B35" t="s">
-        <v>173</v>
-      </c>
-      <c r="C35" t="s">
-        <v>166</v>
-      </c>
-      <c r="D35" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="B36" t="s">
-        <v>331</v>
-      </c>
-      <c r="C36" t="s">
-        <v>332</v>
-      </c>
-      <c r="D36" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="B37" t="s">
-        <v>174</v>
-      </c>
-      <c r="C37" t="s">
-        <v>167</v>
-      </c>
-      <c r="D37" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="4" t="s">
-        <v>348</v>
-      </c>
-      <c r="B38" t="s">
-        <v>364</v>
-      </c>
-      <c r="C38" t="s">
-        <v>366</v>
-      </c>
-      <c r="D38" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="4" t="s">
-        <v>348</v>
-      </c>
-      <c r="B39" t="s">
-        <v>367</v>
-      </c>
-      <c r="C39" t="s">
-        <v>365</v>
-      </c>
-      <c r="D39" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" s="4" t="s">
-        <v>370</v>
-      </c>
-      <c r="B40" t="s">
-        <v>247</v>
-      </c>
-      <c r="C40" t="s">
-        <v>248</v>
-      </c>
-      <c r="D40" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" s="4" t="s">
-        <v>382</v>
-      </c>
-      <c r="B41" t="s">
-        <v>367</v>
-      </c>
-      <c r="C41" t="s">
-        <v>365</v>
-      </c>
-      <c r="D41" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="4" t="s">
-        <v>456</v>
-      </c>
-      <c r="B42" t="s">
-        <v>198</v>
-      </c>
-      <c r="C42" t="s">
-        <v>197</v>
-      </c>
-      <c r="D42" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="4" t="s">
-        <v>456</v>
-      </c>
-      <c r="B43" t="s">
-        <v>470</v>
-      </c>
-      <c r="C43" t="s">
-        <v>471</v>
-      </c>
-      <c r="D43" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="4" t="s">
-        <v>456</v>
-      </c>
-      <c r="B44" t="s">
-        <v>174</v>
-      </c>
-      <c r="C44" t="s">
-        <v>167</v>
-      </c>
-      <c r="D44" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="4" t="s">
-        <v>456</v>
-      </c>
-      <c r="B45" t="s">
-        <v>473</v>
-      </c>
-      <c r="C45" t="s">
-        <v>472</v>
-      </c>
-      <c r="D45" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="4" t="s">
-        <v>456</v>
-      </c>
-      <c r="B46" t="s">
-        <v>172</v>
-      </c>
-      <c r="C46" t="s">
-        <v>165</v>
-      </c>
-      <c r="D46" t="b">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:O88"/>
-  <sheetViews>
-    <sheetView topLeftCell="B62" workbookViewId="0">
-      <selection activeCell="G88" sqref="G88"/>
+    <sheetView topLeftCell="A68" workbookViewId="0">
+      <selection activeCell="D91" sqref="D91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6839,7 +6459,7 @@
         <v>43</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>147</v>
@@ -7047,7 +6667,7 @@
         <v>49</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>188</v>
@@ -7359,7 +6979,7 @@
         <v>55</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>206</v>
@@ -7780,7 +7400,7 @@
         <v>49</v>
       </c>
       <c r="E39" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F39" t="s">
         <v>250</v>
@@ -7806,10 +7426,10 @@
         <v>49</v>
       </c>
       <c r="E40" t="s">
-        <v>308</v>
+        <v>490</v>
       </c>
       <c r="F40" t="s">
-        <v>251</v>
+        <v>489</v>
       </c>
       <c r="G40" s="4">
         <v>50</v>
@@ -7832,10 +7452,10 @@
         <v>61</v>
       </c>
       <c r="E41" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F41" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G41" s="4">
         <v>5</v>
@@ -7858,10 +7478,10 @@
         <v>49</v>
       </c>
       <c r="E42" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F42" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G42" s="9">
         <v>5</v>
@@ -7884,10 +7504,10 @@
         <v>49</v>
       </c>
       <c r="E43" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="F43" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G43" s="9">
         <v>1</v>
@@ -7898,22 +7518,22 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B44" s="4">
         <v>1</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E44" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F44" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G44" s="9">
         <v>5</v>
@@ -7924,22 +7544,22 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B45" s="4">
         <v>2</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E45" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F45" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G45" s="9">
         <v>5</v>
@@ -7950,22 +7570,22 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B46" s="4">
         <v>3</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E46" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F46" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="G46" s="9">
         <v>3</v>
@@ -7976,7 +7596,7 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B47" s="4">
         <v>4</v>
@@ -7988,10 +7608,10 @@
         <v>61</v>
       </c>
       <c r="E47" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F47" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="G47" s="9">
         <v>2</v>
@@ -8002,7 +7622,7 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B48" s="4">
         <v>5</v>
@@ -8014,10 +7634,10 @@
         <v>49</v>
       </c>
       <c r="E48" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F48" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G48" s="9">
         <v>3</v>
@@ -8028,7 +7648,7 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B49" s="4">
         <v>6</v>
@@ -8040,10 +7660,10 @@
         <v>49</v>
       </c>
       <c r="E49" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F49" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G49" s="9">
         <v>5</v>
@@ -8054,7 +7674,7 @@
     </row>
     <row r="50" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B50" s="4">
         <v>7</v>
@@ -8066,10 +7686,10 @@
         <v>49</v>
       </c>
       <c r="E50" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="F50" s="6" t="s">
         <v>300</v>
-      </c>
-      <c r="F50" s="6" t="s">
-        <v>301</v>
       </c>
       <c r="G50" s="9">
         <v>10</v>
@@ -8080,7 +7700,7 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B51" s="4">
         <v>8</v>
@@ -8092,10 +7712,10 @@
         <v>49</v>
       </c>
       <c r="E51" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F51" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G51" s="9">
         <v>5</v>
@@ -8106,7 +7726,7 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B52" s="4">
         <v>1</v>
@@ -8118,10 +7738,10 @@
         <v>49</v>
       </c>
       <c r="E52" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="F52" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="G52" s="9">
         <v>10</v>
@@ -8132,7 +7752,7 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B53" s="4">
         <v>2</v>
@@ -8144,10 +7764,10 @@
         <v>49</v>
       </c>
       <c r="E53" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="F53" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="G53" s="9">
         <v>10</v>
@@ -8158,7 +7778,7 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B54" s="4">
         <v>3</v>
@@ -8170,10 +7790,10 @@
         <v>49</v>
       </c>
       <c r="E54" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="F54" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="G54" s="9">
         <v>5</v>
@@ -8184,7 +7804,7 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B55" s="4">
         <v>4</v>
@@ -8196,10 +7816,10 @@
         <v>49</v>
       </c>
       <c r="E55" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="F55" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="G55" s="9">
         <v>10</v>
@@ -8210,7 +7830,7 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B56" s="4">
         <v>5</v>
@@ -8222,10 +7842,10 @@
         <v>49</v>
       </c>
       <c r="E56" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="F56" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="G56" s="9">
         <v>5</v>
@@ -8236,7 +7856,7 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B57" s="4">
         <v>6</v>
@@ -8248,10 +7868,10 @@
         <v>49</v>
       </c>
       <c r="E57" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="F57" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="G57" s="9">
         <v>1</v>
@@ -8262,7 +7882,7 @@
     </row>
     <row r="58" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B58" s="4">
         <v>7</v>
@@ -8274,10 +7894,10 @@
         <v>49</v>
       </c>
       <c r="E58" s="6" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="F58" s="6" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="G58" s="9">
         <v>20</v>
@@ -8288,7 +7908,7 @@
     </row>
     <row r="59" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A59" s="4" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B59" s="4">
         <v>1</v>
@@ -8300,10 +7920,10 @@
         <v>49</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="F59" s="6" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="G59" s="9">
         <v>10</v>
@@ -8314,7 +7934,7 @@
     </row>
     <row r="60" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A60" s="4" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B60" s="4">
         <v>2</v>
@@ -8326,10 +7946,10 @@
         <v>49</v>
       </c>
       <c r="E60" s="6" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="F60" s="6" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="G60" s="9">
         <v>1</v>
@@ -8340,7 +7960,7 @@
     </row>
     <row r="61" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A61" s="4" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B61" s="4">
         <v>3</v>
@@ -8352,10 +7972,10 @@
         <v>49</v>
       </c>
       <c r="E61" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="F61" s="6" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="G61" s="9">
         <v>20</v>
@@ -8366,7 +7986,7 @@
     </row>
     <row r="62" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A62" s="4" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B62" s="4">
         <v>4</v>
@@ -8378,10 +7998,10 @@
         <v>49</v>
       </c>
       <c r="E62" s="6" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="F62" s="6" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="G62" s="9">
         <v>1</v>
@@ -8392,7 +8012,7 @@
     </row>
     <row r="63" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A63" s="4" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B63" s="4">
         <v>1</v>
@@ -8401,13 +8021,13 @@
         <v>60</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="E63" s="6" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="F63" s="6" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="G63" s="9">
         <v>32</v>
@@ -8418,7 +8038,7 @@
     </row>
     <row r="64" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A64" s="4" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B64" s="4">
         <v>1</v>
@@ -8430,10 +8050,10 @@
         <v>49</v>
       </c>
       <c r="E64" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="F64" s="6" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="G64" s="9">
         <v>10</v>
@@ -8444,7 +8064,7 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" s="4" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B65" s="4">
         <v>2</v>
@@ -8456,10 +8076,10 @@
         <v>49</v>
       </c>
       <c r="E65" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="F65" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="G65" s="9">
         <v>5</v>
@@ -8470,7 +8090,7 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" s="4" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B66" s="4">
         <v>3</v>
@@ -8482,10 +8102,10 @@
         <v>49</v>
       </c>
       <c r="E66" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="F66" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="G66" s="9">
         <v>3</v>
@@ -8496,7 +8116,7 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" s="4" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B67" s="4">
         <v>4</v>
@@ -8508,10 +8128,10 @@
         <v>49</v>
       </c>
       <c r="E67" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="F67" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="G67" s="9">
         <v>3</v>
@@ -8522,7 +8142,7 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" s="4" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B68" s="4">
         <v>5</v>
@@ -8534,10 +8154,10 @@
         <v>49</v>
       </c>
       <c r="E68" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="F68" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="G68" s="9">
         <v>3</v>
@@ -8548,7 +8168,7 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" s="4" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B69" s="4">
         <v>6</v>
@@ -8560,10 +8180,10 @@
         <v>49</v>
       </c>
       <c r="E69" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="F69" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="G69" s="4">
         <v>1</v>
@@ -8574,7 +8194,7 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" s="4" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B70" s="4">
         <v>7</v>
@@ -8586,10 +8206,10 @@
         <v>49</v>
       </c>
       <c r="E70" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="F70" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="G70" s="4">
         <v>20</v>
@@ -8600,7 +8220,7 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" s="4" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B71" s="4">
         <v>8</v>
@@ -8612,10 +8232,10 @@
         <v>49</v>
       </c>
       <c r="E71" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="F71" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="G71" s="4">
         <v>0</v>
@@ -8626,7 +8246,7 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" s="4" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B72" s="4">
         <v>9</v>
@@ -8638,10 +8258,10 @@
         <v>49</v>
       </c>
       <c r="E72" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="F72" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="G72" s="4">
         <v>0</v>
@@ -8652,7 +8272,7 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" s="4" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B73" s="4">
         <v>10</v>
@@ -8664,10 +8284,10 @@
         <v>49</v>
       </c>
       <c r="E73" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="F73" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G73" s="4">
         <v>1</v>
@@ -8678,7 +8298,7 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" s="4" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B74" s="4">
         <v>1</v>
@@ -8690,10 +8310,10 @@
         <v>49</v>
       </c>
       <c r="E74" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F74" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="G74" s="9">
         <v>50</v>
@@ -8704,7 +8324,7 @@
     </row>
     <row r="75" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A75" s="4" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B75" s="4">
         <v>2</v>
@@ -8716,10 +8336,10 @@
         <v>49</v>
       </c>
       <c r="E75" s="6" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="F75" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="G75" s="9">
         <v>10</v>
@@ -8730,7 +8350,7 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" s="4" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B76" s="4">
         <v>3</v>
@@ -8742,10 +8362,10 @@
         <v>49</v>
       </c>
       <c r="E76" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="F76" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="G76" s="9">
         <v>10</v>
@@ -8756,7 +8376,7 @@
     </row>
     <row r="77" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A77" s="4" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B77" s="4">
         <v>4</v>
@@ -8768,10 +8388,10 @@
         <v>49</v>
       </c>
       <c r="E77" s="6" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="F77" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="G77" s="9">
         <v>10</v>
@@ -8782,7 +8402,7 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" s="4" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B78" s="4">
         <v>5</v>
@@ -8794,10 +8414,10 @@
         <v>49</v>
       </c>
       <c r="E78" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="F78" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="G78" s="9">
         <v>10</v>
@@ -8808,7 +8428,7 @@
     </row>
     <row r="79" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A79" s="4" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B79" s="4">
         <v>6</v>
@@ -8820,10 +8440,10 @@
         <v>49</v>
       </c>
       <c r="E79" s="6" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="F79" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="G79" s="9">
         <v>1</v>
@@ -8834,7 +8454,7 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" s="4" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B80" s="4">
         <v>7</v>
@@ -8846,10 +8466,10 @@
         <v>49</v>
       </c>
       <c r="E80" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="F80" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="G80" s="9">
         <v>1</v>
@@ -8860,7 +8480,7 @@
     </row>
     <row r="81" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A81" s="4" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B81" s="4">
         <v>1</v>
@@ -8872,10 +8492,10 @@
         <v>46</v>
       </c>
       <c r="E81" s="6" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="F81" s="6" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="G81" s="9">
         <v>5</v>
@@ -8886,7 +8506,7 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" s="4" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B82" s="4">
         <v>2</v>
@@ -8898,10 +8518,10 @@
         <v>46</v>
       </c>
       <c r="E82" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="F82" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="G82" s="9">
         <v>30</v>
@@ -8912,7 +8532,7 @@
     </row>
     <row r="83" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A83" s="4" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B83" s="4">
         <v>3</v>
@@ -8924,10 +8544,10 @@
         <v>43</v>
       </c>
       <c r="E83" s="6" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="F83" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="G83" s="9">
         <v>1</v>
@@ -8938,7 +8558,7 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84" s="4" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B84" s="4">
         <v>4</v>
@@ -8950,10 +8570,10 @@
         <v>43</v>
       </c>
       <c r="E84" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="F84" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="G84" s="9">
         <v>5</v>
@@ -8964,7 +8584,7 @@
     </row>
     <row r="85" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A85" s="4" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B85" s="4">
         <v>5</v>
@@ -8976,10 +8596,10 @@
         <v>43</v>
       </c>
       <c r="E85" s="6" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="F85" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="G85" s="9">
         <v>1</v>
@@ -8990,7 +8610,7 @@
     </row>
     <row r="86" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A86" s="4" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B86" s="4">
         <v>6</v>
@@ -9002,10 +8622,10 @@
         <v>43</v>
       </c>
       <c r="E86" s="6" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="F86" s="6" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="G86" s="9">
         <v>3</v>
@@ -9016,7 +8636,7 @@
     </row>
     <row r="87" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A87" s="4" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B87" s="4">
         <v>7</v>
@@ -9028,10 +8648,10 @@
         <v>43</v>
       </c>
       <c r="E87" s="6" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="F87" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="G87" s="9">
         <v>40</v>
@@ -9042,7 +8662,7 @@
     </row>
     <row r="88" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A88" s="4" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B88" s="4">
         <v>8</v>
@@ -9054,15 +8674,171 @@
         <v>43</v>
       </c>
       <c r="E88" s="6" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="F88" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="G88" s="9">
         <v>0</v>
       </c>
       <c r="H88" s="9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A89" s="4" t="s">
+        <v>491</v>
+      </c>
+      <c r="B89" s="4">
+        <v>1</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D89" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E89" t="s">
+        <v>512</v>
+      </c>
+      <c r="F89" t="s">
+        <v>506</v>
+      </c>
+      <c r="G89" s="9">
+        <v>3</v>
+      </c>
+      <c r="H89" s="9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A90" s="4" t="s">
+        <v>491</v>
+      </c>
+      <c r="B90" s="4">
+        <v>2</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D90" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E90" t="s">
+        <v>513</v>
+      </c>
+      <c r="F90" t="s">
+        <v>507</v>
+      </c>
+      <c r="G90" s="9">
+        <v>5</v>
+      </c>
+      <c r="H90" s="9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A91" s="4" t="s">
+        <v>491</v>
+      </c>
+      <c r="B91" s="4">
+        <v>3</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D91" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E91" t="s">
+        <v>514</v>
+      </c>
+      <c r="F91" t="s">
+        <v>508</v>
+      </c>
+      <c r="G91" s="9">
+        <v>1</v>
+      </c>
+      <c r="H91" s="9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A92" s="4" t="s">
+        <v>491</v>
+      </c>
+      <c r="B92" s="4">
+        <v>4</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D92" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E92" t="s">
+        <v>515</v>
+      </c>
+      <c r="F92" t="s">
+        <v>509</v>
+      </c>
+      <c r="G92" s="4">
+        <v>3</v>
+      </c>
+      <c r="H92" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A93" s="4" t="s">
+        <v>491</v>
+      </c>
+      <c r="B93" s="4">
+        <v>5</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D93" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E93" t="s">
+        <v>516</v>
+      </c>
+      <c r="F93" t="s">
+        <v>510</v>
+      </c>
+      <c r="G93" s="4">
+        <v>5</v>
+      </c>
+      <c r="H93" s="9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A94" s="4" t="s">
+        <v>491</v>
+      </c>
+      <c r="B94" s="4">
+        <v>6</v>
+      </c>
+      <c r="C94" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D94" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E94" t="s">
+        <v>517</v>
+      </c>
+      <c r="F94" t="s">
+        <v>511</v>
+      </c>
+      <c r="G94" s="9">
+        <v>3</v>
+      </c>
+      <c r="H94" s="9" t="b">
         <v>0</v>
       </c>
     </row>
@@ -9070,4 +8846,695 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{348BD390-6058-3244-B040-3ECD44D7EDBB}">
+  <dimension ref="A1:D48"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="4"/>
+    <col min="3" max="3" width="12.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C2" t="s">
+        <v>195</v>
+      </c>
+      <c r="D2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C3" t="s">
+        <v>165</v>
+      </c>
+      <c r="D3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>173</v>
+      </c>
+      <c r="C4" t="s">
+        <v>166</v>
+      </c>
+      <c r="D4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>174</v>
+      </c>
+      <c r="C5" t="s">
+        <v>167</v>
+      </c>
+      <c r="D5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>175</v>
+      </c>
+      <c r="C6" t="s">
+        <v>168</v>
+      </c>
+      <c r="D6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>176</v>
+      </c>
+      <c r="C7" t="s">
+        <v>169</v>
+      </c>
+      <c r="D7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>177</v>
+      </c>
+      <c r="C8" t="s">
+        <v>170</v>
+      </c>
+      <c r="D8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>178</v>
+      </c>
+      <c r="C9" t="s">
+        <v>179</v>
+      </c>
+      <c r="D9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" t="s">
+        <v>199</v>
+      </c>
+      <c r="C10" t="s">
+        <v>196</v>
+      </c>
+      <c r="D10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" t="s">
+        <v>173</v>
+      </c>
+      <c r="C11" t="s">
+        <v>166</v>
+      </c>
+      <c r="D11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" t="s">
+        <v>174</v>
+      </c>
+      <c r="C12" t="s">
+        <v>167</v>
+      </c>
+      <c r="D12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" t="s">
+        <v>200</v>
+      </c>
+      <c r="C13" t="s">
+        <v>201</v>
+      </c>
+      <c r="D13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" t="s">
+        <v>172</v>
+      </c>
+      <c r="C14" t="s">
+        <v>165</v>
+      </c>
+      <c r="D14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" t="s">
+        <v>198</v>
+      </c>
+      <c r="C15" t="s">
+        <v>197</v>
+      </c>
+      <c r="D15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" t="s">
+        <v>173</v>
+      </c>
+      <c r="C16" t="s">
+        <v>166</v>
+      </c>
+      <c r="D16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" t="s">
+        <v>245</v>
+      </c>
+      <c r="C17" t="s">
+        <v>244</v>
+      </c>
+      <c r="D17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" t="s">
+        <v>246</v>
+      </c>
+      <c r="C18" t="s">
+        <v>243</v>
+      </c>
+      <c r="D18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" t="s">
+        <v>174</v>
+      </c>
+      <c r="C19" t="s">
+        <v>167</v>
+      </c>
+      <c r="D19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" t="s">
+        <v>172</v>
+      </c>
+      <c r="C20" t="s">
+        <v>165</v>
+      </c>
+      <c r="D20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" t="s">
+        <v>199</v>
+      </c>
+      <c r="C21" t="s">
+        <v>196</v>
+      </c>
+      <c r="D21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" t="s">
+        <v>199</v>
+      </c>
+      <c r="C22" t="s">
+        <v>196</v>
+      </c>
+      <c r="D22" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" t="s">
+        <v>173</v>
+      </c>
+      <c r="C23" t="s">
+        <v>166</v>
+      </c>
+      <c r="D23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" t="s">
+        <v>174</v>
+      </c>
+      <c r="C24" t="s">
+        <v>167</v>
+      </c>
+      <c r="D24" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" t="s">
+        <v>200</v>
+      </c>
+      <c r="C25" t="s">
+        <v>201</v>
+      </c>
+      <c r="D25" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" t="s">
+        <v>172</v>
+      </c>
+      <c r="C26" t="s">
+        <v>165</v>
+      </c>
+      <c r="D26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" t="s">
+        <v>198</v>
+      </c>
+      <c r="C27" t="s">
+        <v>197</v>
+      </c>
+      <c r="D27" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28" t="s">
+        <v>174</v>
+      </c>
+      <c r="C28" t="s">
+        <v>167</v>
+      </c>
+      <c r="D28" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29" t="s">
+        <v>199</v>
+      </c>
+      <c r="C29" t="s">
+        <v>196</v>
+      </c>
+      <c r="D29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" t="s">
+        <v>247</v>
+      </c>
+      <c r="C30" t="s">
+        <v>248</v>
+      </c>
+      <c r="D30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="B31" t="s">
+        <v>247</v>
+      </c>
+      <c r="C31" t="s">
+        <v>248</v>
+      </c>
+      <c r="D31" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="B32" t="s">
+        <v>198</v>
+      </c>
+      <c r="C32" t="s">
+        <v>197</v>
+      </c>
+      <c r="D32" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="B33" t="s">
+        <v>174</v>
+      </c>
+      <c r="C33" t="s">
+        <v>167</v>
+      </c>
+      <c r="D33" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="B34" t="s">
+        <v>173</v>
+      </c>
+      <c r="C34" t="s">
+        <v>166</v>
+      </c>
+      <c r="D34" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="B35" t="s">
+        <v>173</v>
+      </c>
+      <c r="C35" t="s">
+        <v>166</v>
+      </c>
+      <c r="D35" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="B36" t="s">
+        <v>329</v>
+      </c>
+      <c r="C36" t="s">
+        <v>330</v>
+      </c>
+      <c r="D36" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="B37" t="s">
+        <v>174</v>
+      </c>
+      <c r="C37" t="s">
+        <v>167</v>
+      </c>
+      <c r="D37" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="B38" t="s">
+        <v>362</v>
+      </c>
+      <c r="C38" t="s">
+        <v>364</v>
+      </c>
+      <c r="D38" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="B39" t="s">
+        <v>365</v>
+      </c>
+      <c r="C39" t="s">
+        <v>363</v>
+      </c>
+      <c r="D39" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="B40" t="s">
+        <v>247</v>
+      </c>
+      <c r="C40" t="s">
+        <v>248</v>
+      </c>
+      <c r="D40" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="B41" t="s">
+        <v>365</v>
+      </c>
+      <c r="C41" t="s">
+        <v>363</v>
+      </c>
+      <c r="D41" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="B42" t="s">
+        <v>198</v>
+      </c>
+      <c r="C42" t="s">
+        <v>197</v>
+      </c>
+      <c r="D42" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="B43" t="s">
+        <v>468</v>
+      </c>
+      <c r="C43" t="s">
+        <v>469</v>
+      </c>
+      <c r="D43" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="B44" t="s">
+        <v>174</v>
+      </c>
+      <c r="C44" t="s">
+        <v>167</v>
+      </c>
+      <c r="D44" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="B45" t="s">
+        <v>471</v>
+      </c>
+      <c r="C45" t="s">
+        <v>470</v>
+      </c>
+      <c r="D45" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="B46" t="s">
+        <v>172</v>
+      </c>
+      <c r="C46" t="s">
+        <v>165</v>
+      </c>
+      <c r="D46" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" s="4" t="s">
+        <v>491</v>
+      </c>
+      <c r="B47" t="s">
+        <v>247</v>
+      </c>
+      <c r="C47" t="s">
+        <v>248</v>
+      </c>
+      <c r="D47" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" s="4" t="s">
+        <v>491</v>
+      </c>
+      <c r="B48" t="s">
+        <v>174</v>
+      </c>
+      <c r="C48" t="s">
+        <v>167</v>
+      </c>
+      <c r="D48" t="b">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>